--- a/Oracle_Knowledge_Links.xlsx
+++ b/Oracle_Knowledge_Links.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabya\gitrepos\oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628E0D6B-0DFB-4987-B404-460F3E86CBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FAFB3-BC6A-42AC-9F8F-54E45A6C0966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Links" sheetId="1" r:id="rId1"/>
+    <sheet name="Values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="272">
   <si>
     <t>Serial No</t>
   </si>
@@ -84,9 +85,6 @@
     <t>TABLE FUNCTION</t>
   </si>
   <si>
-    <t>SCRIPT</t>
-  </si>
-  <si>
     <t>Get Started with Table Functions 4: Pipelined Table Functions</t>
   </si>
   <si>
@@ -336,9 +334,6 @@
     <t>Capture Privilege Usage (DBMS_PRIVILEGE_CAPTURE) in Oracle Database 12c Release 1 (12.1)</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
     <t>https://oracle-base.com/articles/12c/capture-privilege-usage-12cr1</t>
   </si>
   <si>
@@ -463,13 +458,397 @@
   </si>
   <si>
     <t>Schema Only Accounts in Oracle Database 18c</t>
+  </si>
+  <si>
+    <t>Hot Patching PL/SQL Code with EBR</t>
+  </si>
+  <si>
+    <t>Oracle Developers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TMIdwkEauxI</t>
+  </si>
+  <si>
+    <t>Who can make PL/SQL function calls in SQL the fastest?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EP_kSxH2Mx8</t>
+  </si>
+  <si>
+    <t>FUNCTION</t>
+  </si>
+  <si>
+    <t>LATERAL might be your new favourite JOIN !</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=55pX1Na1QCo</t>
+  </si>
+  <si>
+    <t>3 Tips to Help You Write Better SQL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hjfvf8VqY9E</t>
+  </si>
+  <si>
+    <t>Real-time SQL Plan Management</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oFM-CHFQBU0</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>Build Database APIs with PL/SQL in Oracle Database 23ai</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u5BD53Cd2ks</t>
+  </si>
+  <si>
+    <t>23ai</t>
+  </si>
+  <si>
+    <t>Understand Your Data with Use Case Domains and Annotations in Oracle Database 23ai</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TJYByVq0Gls</t>
+  </si>
+  <si>
+    <t>Polymorphic Table Functions in PL/SQL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gBUP33wGxTQ</t>
+  </si>
+  <si>
+    <t>Get Started with Table Functions 1: Overview</t>
+  </si>
+  <si>
+    <t>https://livesql.oracle.com/ords/livesql/file/tutorial_GSOTSK8FWLYZOG5CJJ9KPX7RX.html</t>
+  </si>
+  <si>
+    <t>Get Started with Table Functions 3: Streaming Table Functions</t>
+  </si>
+  <si>
+    <t>https://livesql.oracle.com/ords/livesql/file/tutorial_GSQD8M242KRUFQKQH6PTOOSHU.html</t>
+  </si>
+  <si>
+    <t>PL/SQL Table Functions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=95taoAsQOgc</t>
+  </si>
+  <si>
+    <t>Oracle SQL and PL/SQL Enhancements in Oracle Database 23ai</t>
+  </si>
+  <si>
+    <t>https://oracle-base.com/articles/23/sql-and-plsql-enhancements-23</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>Simple Table Function Example: Collection of Scalars</t>
+  </si>
+  <si>
+    <t>https://livesql.oracle.com/ords/livesql/file/content_C87XCH8SE085LMS3C5KR03VFS.html</t>
+  </si>
+  <si>
+    <t>Table Functions and Ref Cursors</t>
+  </si>
+  <si>
+    <t>https://livesql.oracle.com/ords/livesql/file/content_D2WT41TIJWSQGTUCH8T4LV8N0.html</t>
+  </si>
+  <si>
+    <t>https://livesql.oracle.com/ords/livesql/file/content_GC53R14C0CVHJHUT3CUY7SN0F.html</t>
+  </si>
+  <si>
+    <t>Demonstration of Streaming Table Function</t>
+  </si>
+  <si>
+    <t>https://livesql.oracle.com/ords/livesql/file/content_CRARD1YZA1G26N9HE84UQEFXH.html</t>
+  </si>
+  <si>
+    <t>18c Echo Polymorphic Table Function</t>
+  </si>
+  <si>
+    <t>Export Data with External Tables</t>
+  </si>
+  <si>
+    <t>External Table</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XQBvJ-U257Q</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>New Feature</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>LATERAL JOIN</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>SQL Tuning</t>
+  </si>
+  <si>
+    <t>DB Tuning</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Tuning</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P0qVs5ukKUk</t>
+  </si>
+  <si>
+    <t>How to use DATEs, TIMESTAMPs, and INTERVALs in Oracle Database</t>
+  </si>
+  <si>
+    <t>DATE TIME</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lbuDJnu_EqE</t>
+  </si>
+  <si>
+    <t>Change DDL With Application Running</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VCJTVk4xZIs</t>
+  </si>
+  <si>
+    <t>Optimizing SQL Performance</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vjLlVhk2fIA</t>
+  </si>
+  <si>
+    <t>A Look at Three Join Methods: Hash, Merge, Nested Loops</t>
+  </si>
+  <si>
+    <t>JOINS</t>
+  </si>
+  <si>
+    <t>JOIN Methods</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kgcpkoJfgVM</t>
+  </si>
+  <si>
+    <t>Pattern Matching + SQL Macros = Pure SQL Awesomeness!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2SrPejztgy4</t>
+  </si>
+  <si>
+    <t>Speeding up scalar subqueries</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p7tP8meU9Vk</t>
+  </si>
+  <si>
+    <t>Visualizing SQL joins - back to basics</t>
+  </si>
+  <si>
+    <t>Simple SQL with Oracle Database 23c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U_zuL062gLY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4V4pQ7V2M2A</t>
+  </si>
+  <si>
+    <t>Visualizing SQL window functions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MdYSbHbHbiE</t>
+  </si>
+  <si>
+    <t>Generating days between two dates</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>SQL Plan Management</t>
+  </si>
+  <si>
+    <t>SQL Profile</t>
+  </si>
+  <si>
+    <t>SQL Execution Plan</t>
+  </si>
+  <si>
+    <t>SQL Tuning Advisor</t>
+  </si>
+  <si>
+    <t>Materialized Views</t>
+  </si>
+  <si>
+    <t>AWR</t>
+  </si>
+  <si>
+    <t>SQL Developer</t>
+  </si>
+  <si>
+    <t>SQLcl</t>
+  </si>
+  <si>
+    <t>SQLPlus</t>
+  </si>
+  <si>
+    <t>AskTom</t>
+  </si>
+  <si>
+    <t>Oracle Blog</t>
+  </si>
+  <si>
+    <t>SQL Tracing</t>
+  </si>
+  <si>
+    <t>AskTOM TV - SQL trace, SQL plus, SQL developer</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v7_uer_8ZlM</t>
+  </si>
+  <si>
+    <t>The Methods to Object Type Madness</t>
+  </si>
+  <si>
+    <t>Optimizing functions in the WHERE clause</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=czgyG-Zc2YY&amp;list=PLPIzp-E1msraOBC6D5jsMXoTFunOYuGXV&amp;index=242</t>
+  </si>
+  <si>
+    <t>Visualizing SQL Pattern Matching (MATCH_RECOGNIZE) - A Beginner's Guide</t>
+  </si>
+  <si>
+    <t>Pattern Matching</t>
+  </si>
+  <si>
+    <t>SQL hierarchies using CONNECT BY and recursive WITH</t>
+  </si>
+  <si>
+    <t>Hierarchy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=m3kiAdsVdIw&amp;list=PLPIzp-E1msraOBC6D5jsMXoTFunOYuGXV&amp;index=260</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MYRGB1TK_OE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GeycnO0dUeI</t>
+  </si>
+  <si>
+    <t>Why are tables missing from the plan? An introduction to optimizer transformations</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7dZGYY91-Fs</t>
+  </si>
+  <si>
+    <t>Splitting rows into buckets with SQL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KGRF0KrMEqA</t>
+  </si>
+  <si>
+    <t>21c</t>
+  </si>
+  <si>
+    <t>12 new LOOP features in PL/SQL for cleaner, tighter code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xgnackd1PNU</t>
+  </si>
+  <si>
+    <t>Connor McDonald</t>
+  </si>
+  <si>
+    <t>Simple way to get a file directory listing!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YMfx4oQsqM8</t>
+  </si>
+  <si>
+    <t>Speeding up Database Constraints</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lgFc0cduPJk</t>
+  </si>
+  <si>
+    <t>The BEST way to FETCH from the database</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FdPdEzdFUrc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p9X2dWjkmUU</t>
+  </si>
+  <si>
+    <t>1 million rows/second is the WORST to expect</t>
+  </si>
+  <si>
+    <t>Using Scalar SQL to boost performance</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v8X5FGzzc9A</t>
+  </si>
+  <si>
+    <t>The optimizer HINT that rules them all!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hLhRqwuI1Is</t>
+  </si>
+  <si>
+    <t>You're wrong about foreign key indexes</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nr6KRZuh3Cg</t>
+  </si>
+  <si>
+    <t>What is a Bloom filter ?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=olwFk1PJ5wE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,16 +864,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -502,20 +910,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -526,6 +995,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}" name="Table1" displayName="Table1" ref="A1:F133" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C54AE5A3-6185-4B4A-8944-4DD06AF2943B}" name="Serial No"/>
+    <tableColumn id="2" xr3:uid="{B804B430-797F-47D9-8692-E8681C88043E}" name="SOURCE"/>
+    <tableColumn id="3" xr3:uid="{9BE1D3F8-C995-4A4F-9C49-BA5D138F1A80}" name="CATEGORY"/>
+    <tableColumn id="4" xr3:uid="{D4EE6902-EAFA-4E7D-B514-AF7782502D26}" name="SUBJECT"/>
+    <tableColumn id="5" xr3:uid="{E2B362CD-3259-44A3-A33D-2475203756EC}" name="TITLE"/>
+    <tableColumn id="6" xr3:uid="{EF2D3F57-24D6-4875-9ED5-1E2B36B0FD3C}" name="URL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,38 +1308,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EE77A-69C7-4F38-9C2C-6F33C504A344}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
     <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.90625" customWidth="1"/>
+    <col min="6" max="6" width="103.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -865,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -885,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -905,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -925,13 +1410,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -945,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -954,10 +1439,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -965,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -974,10 +1459,10 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -985,19 +1470,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1005,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1025,19 +1510,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1045,19 +1530,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1065,19 +1550,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1085,19 +1570,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1105,19 +1590,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1125,19 +1610,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1145,19 +1630,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -1165,19 +1650,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -1185,19 +1670,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1205,19 +1690,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1225,19 +1710,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1251,13 +1736,13 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -1274,10 +1759,10 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1285,7 +1770,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1294,10 +1779,10 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -1305,19 +1790,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -1325,19 +1810,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1345,19 +1830,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -1365,19 +1850,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1385,19 +1870,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1405,19 +1890,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1425,19 +1910,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1445,19 +1930,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1465,19 +1950,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1485,19 +1970,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
         <v>80</v>
       </c>
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1505,19 +1990,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1525,19 +2010,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1545,19 +2030,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1565,19 +2050,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1585,19 +2070,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1605,19 +2090,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1625,7 +2110,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1634,10 +2119,10 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1645,19 +2130,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1665,19 +2150,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1685,19 +2170,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1705,19 +2190,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1725,19 +2210,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1745,19 +2230,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1765,19 +2250,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1785,19 +2270,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1805,19 +2290,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1825,7 +2310,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1834,10 +2319,10 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1845,7 +2330,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1854,10 +2339,10 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1865,19 +2350,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1885,19 +2370,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1905,19 +2390,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1925,19 +2410,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -1945,19 +2430,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1965,19 +2450,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -1985,19 +2470,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -2005,19 +2490,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="E59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -2025,19 +2510,929 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" t="s">
+        <v>160</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" t="s">
+        <v>199</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>131</v>
+      </c>
+      <c r="E80" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>204</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82" t="s">
+        <v>206</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" t="s">
+        <v>79</v>
+      </c>
+      <c r="E84" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85" t="s">
+        <v>214</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" t="s">
+        <v>215</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>218</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>220</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" t="s">
+        <v>233</v>
+      </c>
+      <c r="E89" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" t="s">
+        <v>236</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" t="s">
+        <v>197</v>
+      </c>
+      <c r="E91" t="s">
+        <v>237</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>240</v>
+      </c>
+      <c r="E92" t="s">
+        <v>239</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>242</v>
+      </c>
+      <c r="E93" t="s">
+        <v>241</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>218</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="D95" t="s">
+        <v>221</v>
+      </c>
+      <c r="E95" t="s">
+        <v>246</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>248</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>250</v>
+      </c>
+      <c r="E97" t="s">
+        <v>251</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" t="s">
+        <v>182</v>
+      </c>
+      <c r="E98" t="s">
+        <v>254</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>253</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>257</v>
+      </c>
+      <c r="E99" t="s">
+        <v>256</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" t="s">
+        <v>197</v>
+      </c>
+      <c r="E100" t="s">
+        <v>259</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>253</v>
+      </c>
+      <c r="C101" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" t="s">
+        <v>262</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>197</v>
+      </c>
+      <c r="E102" t="s">
+        <v>263</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" t="s">
+        <v>265</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="E60" t="s">
-        <v>145</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>144</v>
+      <c r="B104" t="s">
+        <v>253</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>268</v>
+      </c>
+      <c r="E104" t="s">
+        <v>267</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" t="s">
+        <v>270</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2046,63 +3441,443 @@
     <hyperlink ref="F3" r:id="rId2" xr:uid="{28D7248C-2CB6-47E7-9A68-64C50656A278}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{F9FBB66B-7BF3-4D74-845D-32244F43084B}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{92FB81F8-E46F-4594-A930-9F77EA6F905C}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{27578F13-48A0-4D9D-83DB-231A7CC2673C}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{6BBA0965-BB50-4D6B-B3C7-11E0B824C511}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{2610AFFF-8B7B-4318-B7DB-AED23544DC4F}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{C557E52E-F3DB-4529-9975-822CDA4F56E7}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{5E026823-C6B9-4AAA-95F7-326C9FAFAC3B}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{0B2B9CD0-8AC9-4275-93B6-1CE37C58C92E}"/>
-    <hyperlink ref="F12" r:id="rId11" xr:uid="{6179E547-D27B-44F5-9669-73B8D63AB8F7}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{AB16A22A-8547-4387-A04A-238D18C978AD}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{3C07A9B7-C418-4045-B2FD-2EE1AB70B38C}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{0622A3F7-3835-4816-95B0-86724076DDCB}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{00EF2435-3D11-4AC0-A613-ACF2A2FCFCCC}"/>
-    <hyperlink ref="F17" r:id="rId16" xr:uid="{3C627847-40F4-40DA-BFE2-A5E861D29C16}"/>
-    <hyperlink ref="F18" r:id="rId17" xr:uid="{FF2E8575-1277-401B-80AD-3F1C2A8479BE}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{F389C5CF-A7C7-4917-9ACC-7AF160551EDC}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{2D8648F4-3EDA-4AF9-987F-0279E4C4348F}"/>
-    <hyperlink ref="F20" r:id="rId20" xr:uid="{8B66A402-E183-4DE5-BFC2-5D848B17732B}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{81D44134-E815-42FF-8D64-AC008D47F511}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{074A7B76-E90D-4D3E-8D7B-ECB73744C5E8}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{20265D9E-3573-4205-B381-D1E25B2C5466}"/>
-    <hyperlink ref="F25" r:id="rId24" xr:uid="{58BD522C-07B6-4F3C-8F7D-E79F37A222BC}"/>
-    <hyperlink ref="F26" r:id="rId25" xr:uid="{5589AB4C-6F4B-4EE5-A4AD-01FE6DE72102}"/>
-    <hyperlink ref="F27" r:id="rId26" xr:uid="{0359D685-3CD9-4FA1-9A2D-1F1F529B9E6B}"/>
-    <hyperlink ref="F28" r:id="rId27" xr:uid="{98261FE6-C6CF-4569-AA02-B33532CC0648}"/>
-    <hyperlink ref="F29" r:id="rId28" xr:uid="{ADC62EE1-25BE-4410-8F99-9D69F43AF056}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{796B28FF-E3AA-4859-B990-AB0D8F37B0B8}"/>
-    <hyperlink ref="F31" r:id="rId30" xr:uid="{D22E493E-2B07-4EB3-AB73-9873445E0BD8}"/>
-    <hyperlink ref="F32" r:id="rId31" xr:uid="{F9B4EDCE-BB2B-41B7-835C-BE805A5088A0}"/>
-    <hyperlink ref="F33" r:id="rId32" xr:uid="{0D82C976-B088-409D-B5C1-5693E456E660}"/>
-    <hyperlink ref="F34" r:id="rId33" xr:uid="{42376FA2-E96C-4D2A-B599-96BBDA247FEC}"/>
-    <hyperlink ref="F35" r:id="rId34" xr:uid="{9D742526-5F31-4B75-84D8-6441BBF39BC7}"/>
-    <hyperlink ref="F36" r:id="rId35" xr:uid="{47134C52-33CD-4B20-826A-7E4999B3B2B1}"/>
-    <hyperlink ref="F37" r:id="rId36" xr:uid="{B3DDC695-263D-41A4-8397-DEE8828068A6}"/>
-    <hyperlink ref="F38" r:id="rId37" xr:uid="{AB74B033-3F9B-4A0C-887E-1A8F66DB50E6}"/>
-    <hyperlink ref="F39" r:id="rId38" xr:uid="{F6B1FB46-C168-411F-B204-4E5C49651AF9}"/>
-    <hyperlink ref="F40" r:id="rId39" xr:uid="{278ABCB7-0A4D-4F7C-AE6C-306F51AEDA8E}"/>
-    <hyperlink ref="F41" r:id="rId40" xr:uid="{54315C05-54D9-4BCB-84CD-DDA60B40E6D5}"/>
-    <hyperlink ref="F42" r:id="rId41" xr:uid="{8C29DC7C-01D1-4446-8129-F4A6C4B5CED5}"/>
-    <hyperlink ref="F44" r:id="rId42" xr:uid="{13A53629-7997-4C59-8BCC-36C8B57F98D5}"/>
-    <hyperlink ref="F43" r:id="rId43" xr:uid="{960CD986-AE39-4FC9-AF3B-B138B7420545}"/>
-    <hyperlink ref="F45" r:id="rId44" xr:uid="{21B10643-B0DB-4CEC-9680-B71DCB1C68B6}"/>
-    <hyperlink ref="F46" r:id="rId45" xr:uid="{31B7A12F-D18B-405F-972C-FBEC1818C671}"/>
-    <hyperlink ref="F47" r:id="rId46" xr:uid="{3958825B-17CC-4589-B975-D4CC914BA21C}"/>
-    <hyperlink ref="F48" r:id="rId47" xr:uid="{084F0831-165F-4029-AF61-6535BBEA16B3}"/>
-    <hyperlink ref="F49" r:id="rId48" xr:uid="{51D2078F-C1A3-46F1-B050-CE6C12B8DE90}"/>
-    <hyperlink ref="F50" r:id="rId49" xr:uid="{A8F54E15-1351-428A-A34A-98DCD67D2561}"/>
-    <hyperlink ref="F51" r:id="rId50" xr:uid="{87D3E439-6A97-421A-90AA-3B146B5CE198}"/>
-    <hyperlink ref="F52" r:id="rId51" xr:uid="{7A6F1B64-7D93-41E8-AAAA-C672BC4EC032}"/>
-    <hyperlink ref="F53" r:id="rId52" xr:uid="{EBD16DC4-E6EA-4247-8FF1-492F4B4F18A4}"/>
-    <hyperlink ref="F54" r:id="rId53" xr:uid="{9E61587B-3408-4F8F-B8A1-E37E9A79DAF1}"/>
-    <hyperlink ref="F55" r:id="rId54" xr:uid="{72CD3D2C-4C6C-4C20-993B-EDDDF39D7E07}"/>
-    <hyperlink ref="F56" r:id="rId55" xr:uid="{145DDC1B-4167-4378-A9F4-E9361F279AA9}"/>
-    <hyperlink ref="F57" r:id="rId56" xr:uid="{5B8B0118-10F0-43B2-ACA0-D622AEA6232B}"/>
-    <hyperlink ref="F58" r:id="rId57" xr:uid="{60CF97F7-B469-4660-A081-3C974F312253}"/>
-    <hyperlink ref="F59" r:id="rId58" location="introduction-to-json" xr:uid="{C1D73893-B768-42BF-82B8-17D7B37CD5AB}"/>
-    <hyperlink ref="F60" r:id="rId59" xr:uid="{BEC3FFF2-CDE1-4796-BA42-FA7C35C8607F}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{27578F13-48A0-4D9D-83DB-231A7CC2673C}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{6BBA0965-BB50-4D6B-B3C7-11E0B824C511}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{2610AFFF-8B7B-4318-B7DB-AED23544DC4F}"/>
+    <hyperlink ref="F11" r:id="rId8" xr:uid="{C557E52E-F3DB-4529-9975-822CDA4F56E7}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{5E026823-C6B9-4AAA-95F7-326C9FAFAC3B}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{0B2B9CD0-8AC9-4275-93B6-1CE37C58C92E}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{6179E547-D27B-44F5-9669-73B8D63AB8F7}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{AB16A22A-8547-4387-A04A-238D18C978AD}"/>
+    <hyperlink ref="F16" r:id="rId13" xr:uid="{3C07A9B7-C418-4045-B2FD-2EE1AB70B38C}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{0622A3F7-3835-4816-95B0-86724076DDCB}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{00EF2435-3D11-4AC0-A613-ACF2A2FCFCCC}"/>
+    <hyperlink ref="F19" r:id="rId16" xr:uid="{3C627847-40F4-40DA-BFE2-A5E861D29C16}"/>
+    <hyperlink ref="F20" r:id="rId17" xr:uid="{FF2E8575-1277-401B-80AD-3F1C2A8479BE}"/>
+    <hyperlink ref="F21" r:id="rId18" xr:uid="{F389C5CF-A7C7-4917-9ACC-7AF160551EDC}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{8B66A402-E183-4DE5-BFC2-5D848B17732B}"/>
+    <hyperlink ref="F23" r:id="rId20" xr:uid="{81D44134-E815-42FF-8D64-AC008D47F511}"/>
+    <hyperlink ref="F24" r:id="rId21" xr:uid="{074A7B76-E90D-4D3E-8D7B-ECB73744C5E8}"/>
+    <hyperlink ref="F25" r:id="rId22" xr:uid="{20265D9E-3573-4205-B381-D1E25B2C5466}"/>
+    <hyperlink ref="F26" r:id="rId23" xr:uid="{58BD522C-07B6-4F3C-8F7D-E79F37A222BC}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{5589AB4C-6F4B-4EE5-A4AD-01FE6DE72102}"/>
+    <hyperlink ref="F28" r:id="rId25" xr:uid="{0359D685-3CD9-4FA1-9A2D-1F1F529B9E6B}"/>
+    <hyperlink ref="F29" r:id="rId26" xr:uid="{98261FE6-C6CF-4569-AA02-B33532CC0648}"/>
+    <hyperlink ref="F30" r:id="rId27" xr:uid="{ADC62EE1-25BE-4410-8F99-9D69F43AF056}"/>
+    <hyperlink ref="F31" r:id="rId28" xr:uid="{796B28FF-E3AA-4859-B990-AB0D8F37B0B8}"/>
+    <hyperlink ref="F32" r:id="rId29" xr:uid="{D22E493E-2B07-4EB3-AB73-9873445E0BD8}"/>
+    <hyperlink ref="F33" r:id="rId30" xr:uid="{F9B4EDCE-BB2B-41B7-835C-BE805A5088A0}"/>
+    <hyperlink ref="F34" r:id="rId31" xr:uid="{0D82C976-B088-409D-B5C1-5693E456E660}"/>
+    <hyperlink ref="F35" r:id="rId32" xr:uid="{42376FA2-E96C-4D2A-B599-96BBDA247FEC}"/>
+    <hyperlink ref="F36" r:id="rId33" xr:uid="{9D742526-5F31-4B75-84D8-6441BBF39BC7}"/>
+    <hyperlink ref="F37" r:id="rId34" xr:uid="{47134C52-33CD-4B20-826A-7E4999B3B2B1}"/>
+    <hyperlink ref="F38" r:id="rId35" xr:uid="{B3DDC695-263D-41A4-8397-DEE8828068A6}"/>
+    <hyperlink ref="F39" r:id="rId36" xr:uid="{AB74B033-3F9B-4A0C-887E-1A8F66DB50E6}"/>
+    <hyperlink ref="F40" r:id="rId37" xr:uid="{F6B1FB46-C168-411F-B204-4E5C49651AF9}"/>
+    <hyperlink ref="F41" r:id="rId38" xr:uid="{278ABCB7-0A4D-4F7C-AE6C-306F51AEDA8E}"/>
+    <hyperlink ref="F42" r:id="rId39" xr:uid="{54315C05-54D9-4BCB-84CD-DDA60B40E6D5}"/>
+    <hyperlink ref="F43" r:id="rId40" xr:uid="{8C29DC7C-01D1-4446-8129-F4A6C4B5CED5}"/>
+    <hyperlink ref="F45" r:id="rId41" xr:uid="{13A53629-7997-4C59-8BCC-36C8B57F98D5}"/>
+    <hyperlink ref="F44" r:id="rId42" xr:uid="{960CD986-AE39-4FC9-AF3B-B138B7420545}"/>
+    <hyperlink ref="F46" r:id="rId43" xr:uid="{21B10643-B0DB-4CEC-9680-B71DCB1C68B6}"/>
+    <hyperlink ref="F47" r:id="rId44" xr:uid="{31B7A12F-D18B-405F-972C-FBEC1818C671}"/>
+    <hyperlink ref="F48" r:id="rId45" xr:uid="{3958825B-17CC-4589-B975-D4CC914BA21C}"/>
+    <hyperlink ref="F49" r:id="rId46" xr:uid="{084F0831-165F-4029-AF61-6535BBEA16B3}"/>
+    <hyperlink ref="F50" r:id="rId47" xr:uid="{51D2078F-C1A3-46F1-B050-CE6C12B8DE90}"/>
+    <hyperlink ref="F51" r:id="rId48" xr:uid="{A8F54E15-1351-428A-A34A-98DCD67D2561}"/>
+    <hyperlink ref="F52" r:id="rId49" xr:uid="{87D3E439-6A97-421A-90AA-3B146B5CE198}"/>
+    <hyperlink ref="F53" r:id="rId50" xr:uid="{7A6F1B64-7D93-41E8-AAAA-C672BC4EC032}"/>
+    <hyperlink ref="F54" r:id="rId51" xr:uid="{EBD16DC4-E6EA-4247-8FF1-492F4B4F18A4}"/>
+    <hyperlink ref="F55" r:id="rId52" xr:uid="{9E61587B-3408-4F8F-B8A1-E37E9A79DAF1}"/>
+    <hyperlink ref="F56" r:id="rId53" xr:uid="{72CD3D2C-4C6C-4C20-993B-EDDDF39D7E07}"/>
+    <hyperlink ref="F57" r:id="rId54" xr:uid="{145DDC1B-4167-4378-A9F4-E9361F279AA9}"/>
+    <hyperlink ref="F58" r:id="rId55" xr:uid="{5B8B0118-10F0-43B2-ACA0-D622AEA6232B}"/>
+    <hyperlink ref="F59" r:id="rId56" xr:uid="{60CF97F7-B469-4660-A081-3C974F312253}"/>
+    <hyperlink ref="F60" r:id="rId57" location="introduction-to-json" xr:uid="{C1D73893-B768-42BF-82B8-17D7B37CD5AB}"/>
+    <hyperlink ref="F61" r:id="rId58" xr:uid="{BEC3FFF2-CDE1-4796-BA42-FA7C35C8607F}"/>
+    <hyperlink ref="F62" r:id="rId59" xr:uid="{5DAFFB96-E2EB-4621-ADF0-9199C2633719}"/>
+    <hyperlink ref="F63" r:id="rId60" xr:uid="{E7820AA1-951D-4879-B035-D7AAC2F025FD}"/>
+    <hyperlink ref="F64" r:id="rId61" xr:uid="{EEB86B50-8513-4CC3-B23B-E38A330599CC}"/>
+    <hyperlink ref="F65" r:id="rId62" xr:uid="{23AA1066-E85E-4F29-B186-DE39A377AF17}"/>
+    <hyperlink ref="F66" r:id="rId63" xr:uid="{0FF6F93F-8B1B-4756-A884-D7D1BDA21C9F}"/>
+    <hyperlink ref="F67" r:id="rId64" xr:uid="{8A967FAA-E7D7-4989-B233-BC138B28C88D}"/>
+    <hyperlink ref="F68" r:id="rId65" xr:uid="{2AC962F2-EB0B-4162-9409-58E20572CC8F}"/>
+    <hyperlink ref="F69" r:id="rId66" xr:uid="{DA517239-D9F5-41B6-87D0-2D43B5CAF4BB}"/>
+    <hyperlink ref="F6" r:id="rId67" xr:uid="{8333C79C-1BA9-471C-8EBD-4F9E2C52E728}"/>
+    <hyperlink ref="F8" r:id="rId68" xr:uid="{2C6B5811-C261-45F4-A9FA-DAABBB9BE231}"/>
+    <hyperlink ref="F70" r:id="rId69" xr:uid="{05CE5F35-8729-44EA-AA2E-84576F11E952}"/>
+    <hyperlink ref="F71" r:id="rId70" xr:uid="{3C97DB6B-1D51-4EF1-B0DF-97C08543BC80}"/>
+    <hyperlink ref="F72" r:id="rId71" xr:uid="{FAB3C3BE-2B25-40A2-B9F8-6A0B283DE179}"/>
+    <hyperlink ref="F73" r:id="rId72" xr:uid="{8B61733D-5D3D-4A9B-9382-6684175F1788}"/>
+    <hyperlink ref="F74" r:id="rId73" xr:uid="{678C0654-1F67-47A7-B0BD-AC57881E483F}"/>
+    <hyperlink ref="F75" r:id="rId74" xr:uid="{76C79E1F-F026-40D0-9603-E91D87886116}"/>
+    <hyperlink ref="F76" r:id="rId75" xr:uid="{A49E42A3-6A67-4B27-AC51-E06A399EABBC}"/>
+    <hyperlink ref="F77" r:id="rId76" xr:uid="{9AAA3318-D26A-4C82-A077-834032C305D8}"/>
+    <hyperlink ref="F78" r:id="rId77" xr:uid="{8C1117C0-8031-4DD8-9189-BF17164D6E67}"/>
+    <hyperlink ref="F79" r:id="rId78" xr:uid="{B680783C-2105-4641-82D8-E6C053FD99A5}"/>
+    <hyperlink ref="F80" r:id="rId79" xr:uid="{05E42409-275D-40D8-873A-C2925F3E0888}"/>
+    <hyperlink ref="F81" r:id="rId80" xr:uid="{23719EFC-25AA-47B7-BFC4-F96A1162170D}"/>
+    <hyperlink ref="F82" r:id="rId81" xr:uid="{80BD3758-860F-42A0-88FC-A5375C7918A0}"/>
+    <hyperlink ref="F83" r:id="rId82" xr:uid="{E2C0CDDC-4938-43B4-B1D3-4C63E5FFAE90}"/>
+    <hyperlink ref="F84" r:id="rId83" xr:uid="{F2BC59FA-A5FA-45D7-87E7-EB102D5435D5}"/>
+    <hyperlink ref="F85" r:id="rId84" xr:uid="{7A8584B9-E6D3-4943-A7A4-085939AA3EA2}"/>
+    <hyperlink ref="F86" r:id="rId85" xr:uid="{B523E3BE-A9C2-448E-91C9-1BE5EE5B16B1}"/>
+    <hyperlink ref="F87" r:id="rId86" xr:uid="{A3BC75DB-E0C6-4CA9-83DD-8DD596269FAF}"/>
+    <hyperlink ref="F88" r:id="rId87" xr:uid="{45721E17-4839-490F-AEE9-208804B8C967}"/>
+    <hyperlink ref="F89" r:id="rId88" xr:uid="{63197EF3-CDE3-4CCC-A1AE-19221B186A1F}"/>
+    <hyperlink ref="F91" r:id="rId89" xr:uid="{2FA6EA6B-AE36-4CC8-AC06-DD487016380C}"/>
+    <hyperlink ref="F93" r:id="rId90" xr:uid="{A53EBA7D-3428-4C31-BD6D-74733933136F}"/>
+    <hyperlink ref="F94" r:id="rId91" xr:uid="{BCC5E064-C738-4233-A926-41E96478631F}"/>
+    <hyperlink ref="F92" r:id="rId92" xr:uid="{224D93C2-87B4-498A-A68A-1AAC156CCEF7}"/>
+    <hyperlink ref="F95" r:id="rId93" xr:uid="{F0F917C4-FE5B-4F5F-BAA7-2F0076133393}"/>
+    <hyperlink ref="F96" r:id="rId94" xr:uid="{59BC53D6-2573-4632-BC7B-45A7990DEBA5}"/>
+    <hyperlink ref="F97" r:id="rId95" xr:uid="{F9E71115-7EE6-446B-B952-5FE5E673D552}"/>
+    <hyperlink ref="F98" r:id="rId96" xr:uid="{312E2EC0-2FA9-4B93-BC6C-75582DF200EF}"/>
+    <hyperlink ref="F99" r:id="rId97" xr:uid="{4E29DE57-9158-4D0F-AC29-EAAF0394AE1B}"/>
+    <hyperlink ref="F100" r:id="rId98" xr:uid="{28418B7E-9294-4360-97BD-7CC8F55788B2}"/>
+    <hyperlink ref="F101" r:id="rId99" xr:uid="{986E27D9-088C-4433-9CDC-8853C7CEEAF2}"/>
+    <hyperlink ref="F102" r:id="rId100" xr:uid="{27EA3A97-9459-4BDD-9ECA-34F5EFD56AB9}"/>
+    <hyperlink ref="F103" r:id="rId101" xr:uid="{10AC52C2-15C3-4A49-8A7B-6B0645C72748}"/>
+    <hyperlink ref="F104" r:id="rId102" xr:uid="{5F1126FB-B1A9-496B-B94A-40A69F900ABF}"/>
+    <hyperlink ref="F105" r:id="rId103" xr:uid="{B0BA241F-795F-450A-9C85-3CC3DC9DB750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId104"/>
+  <tableParts count="1">
+    <tablePart r:id="rId105"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B86FB78-95D8-4FFF-8DB6-A12E50721AA6}">
+          <x14:formula1>
+            <xm:f>Values!$D$4:$D$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C133</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8EBEEB8-B884-4C00-9B51-F5E336240EDE}">
+          <x14:formula1>
+            <xm:f>Values!$C$4:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B133</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
+          <x14:formula1>
+            <xm:f>Values!$E$4:$E$49</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D133</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A6014D-2E27-4F54-8034-C9E495B040EE}">
+  <dimension ref="C3:E49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Oracle_Knowledge_Links.xlsx
+++ b/Oracle_Knowledge_Links.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabya\gitrepos\oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021FAFB3-BC6A-42AC-9F8F-54E45A6C0966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA02B5BF-974C-4C31-841F-3D8EEE791143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Links" sheetId="1" r:id="rId1"/>
-    <sheet name="Values" sheetId="2" r:id="rId2"/>
+    <sheet name="Oracle Links" sheetId="1" r:id="rId1"/>
+    <sheet name="Other Database" sheetId="3" r:id="rId2"/>
+    <sheet name="Values" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="343">
   <si>
     <t>Serial No</t>
   </si>
@@ -496,9 +497,6 @@
     <t>https://www.youtube.com/watch?v=oFM-CHFQBU0</t>
   </si>
   <si>
-    <t>SPM</t>
-  </si>
-  <si>
     <t>Build Database APIs with PL/SQL in Oracle Database 23ai</t>
   </si>
   <si>
@@ -842,6 +840,222 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=olwFk1PJ5wE</t>
+  </si>
+  <si>
+    <t>What’s our vector, Victor? My ‘Hello, World’ demo with beer.</t>
+  </si>
+  <si>
+    <t>Vector Database</t>
+  </si>
+  <si>
+    <t>Jeff Smith Blog</t>
+  </si>
+  <si>
+    <t>https://www.thatjeffsmith.com/archive/2024/09/whats-our-vector-victor-my-hello-world-demo-with-beer/</t>
+  </si>
+  <si>
+    <t>Oracle SQL Developer &amp; VS Code Primer plus some Tips/Tricks</t>
+  </si>
+  <si>
+    <t>SQLcl/SQL Developer</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>https://www.thatjeffsmith.com/archive/2024/10/oracle-sql-developer-vs-code-primer-plus-some-tips-tricks/</t>
+  </si>
+  <si>
+    <t>Development with Oracle Partitioning</t>
+  </si>
+  <si>
+    <t>Partitioning</t>
+  </si>
+  <si>
+    <t>AskTom - Connor McDonald</t>
+  </si>
+  <si>
+    <t>AskTom -Chris Saxon</t>
+  </si>
+  <si>
+    <t>https://asktom.oracle.com/partitioning-for-developers.htm</t>
+  </si>
+  <si>
+    <t>Validating Constraints – An alternative approach to the alternative approach!</t>
+  </si>
+  <si>
+    <t>https://connor-mcdonald.com/2024/10/02/validating-constraints-an-alternative-approach-to-the-alternative-approach/</t>
+  </si>
+  <si>
+    <t>Dividing data into buckets with SQL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3R-WOebjclU</t>
+  </si>
+  <si>
+    <t>DBMS_RANDOM : Generating Random Data (Numbers, Strings and Dates) in Oracle</t>
+  </si>
+  <si>
+    <t>https://oracle-base.com/articles/misc/dbms_random</t>
+  </si>
+  <si>
+    <t>Keep It Simple. Developer's tips.</t>
+  </si>
+  <si>
+    <t>https://rafal.hashnode.dev/?source=top_nav_blog_home</t>
+  </si>
+  <si>
+    <t>Rafal Hashnode</t>
+  </si>
+  <si>
+    <t>https://oracle-base.com/articles/12c/articles-12c</t>
+  </si>
+  <si>
+    <t>12c</t>
+  </si>
+  <si>
+    <t>19c</t>
+  </si>
+  <si>
+    <t>18c</t>
+  </si>
+  <si>
+    <t>Oracle 12c Articles</t>
+  </si>
+  <si>
+    <t>Oracle PL/SQL Articles</t>
+  </si>
+  <si>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t>https://oracle-base.com/articles/plsql/articles-plsql</t>
+  </si>
+  <si>
+    <t>The mysterious KEEP clause in SQL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q5aFLk-Iqcc</t>
+  </si>
+  <si>
+    <t>Why indexes are so fast at finding a key</t>
+  </si>
+  <si>
+    <t>https://connor-mcdonald.com/2021/05/26/why-indexes-are-so-fast-at-finding-a-key/</t>
+  </si>
+  <si>
+    <t>Comparing two database objects for differences</t>
+  </si>
+  <si>
+    <t>https://connor-mcdonald.com/2022/06/08/comparing-two-database-objects-for-differences/</t>
+  </si>
+  <si>
+    <t>Starting Oracle Database 23ai Free at boot time</t>
+  </si>
+  <si>
+    <t>https://martincarstenbach.com/2024/09/24/starting-oracle-database-23ai-free-at-boot-time/</t>
+  </si>
+  <si>
+    <t>Martin's Blog</t>
+  </si>
+  <si>
+    <t>Using sqlcl/Liquibase for administrative tasks</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>The Killer Feature: Edition-Based Redefinition</t>
+  </si>
+  <si>
+    <t>https://asktom.oracle.com/Misc/oramag/a-closer-look-at-the-new-edition.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@oracledevs</t>
+  </si>
+  <si>
+    <t>Permance Playlist</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLJMaoEWvHwFIW2CUsD_qIi7v-etjhZJPo</t>
+  </si>
+  <si>
+    <t>Hussein Nasser</t>
+  </si>
+  <si>
+    <t>Other DB Category</t>
+  </si>
+  <si>
+    <t>Other DB Subject</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>PL/pgSQL</t>
+  </si>
+  <si>
+    <t>PL/Python</t>
+  </si>
+  <si>
+    <t>T-SQL</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>PostgreSQL: Remotely connecting to Postgres instance using psql command</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/32824388/postgresql-remotely-connecting-to-postgres-instance-using-psql-command</t>
+  </si>
+  <si>
+    <t>Stackoverflow</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/7695962/password-authentication-failed-for-user-postgres</t>
+  </si>
+  <si>
+    <t>password authentication failed for user "postgres"'</t>
+  </si>
+  <si>
+    <t>How to Install PostgreSQL 16 on RHEL 9 Step by Step</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>https://www.linuxtechi.com/install-mysql-on-rhel-rockylinux/</t>
+  </si>
+  <si>
+    <t>How to Install MySQL on RHEL 9 / Rocky Linux 9</t>
+  </si>
+  <si>
+    <t>Installation/Configuration</t>
+  </si>
+  <si>
+    <t>https://www.linuxtechi.com/how-to-install-postgresql-on-rhel/</t>
+  </si>
+  <si>
+    <t>Granting SELECT...INTO permissions</t>
+  </si>
+  <si>
+    <t>https://dba.stackexchange.com/questions/339606/granting-select-into-permissions</t>
+  </si>
+  <si>
+    <t>Following a database read to the metal</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>https://medium.com/@hnasr/following-a-database-read-to-the-metal-a187541333c2</t>
   </si>
 </sst>
 </file>
@@ -930,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -940,12 +1154,54 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -998,7 +1254,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}" name="Table1" displayName="Table1" ref="A1:F133" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}" name="Table1" displayName="Table1" ref="A1:F133" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C54AE5A3-6185-4B4A-8944-4DD06AF2943B}" name="Serial No"/>
     <tableColumn id="2" xr3:uid="{B804B430-797F-47D9-8692-E8681C88043E}" name="SOURCE"/>
@@ -1006,6 +1262,20 @@
     <tableColumn id="4" xr3:uid="{D4EE6902-EAFA-4E7D-B514-AF7782502D26}" name="SUBJECT"/>
     <tableColumn id="5" xr3:uid="{E2B362CD-3259-44A3-A33D-2475203756EC}" name="TITLE"/>
     <tableColumn id="6" xr3:uid="{EF2D3F57-24D6-4875-9ED5-1E2B36B0FD3C}" name="URL"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5A5790A-EBEC-44BB-968D-93CB6480355A}" name="Table13" displayName="Table13" ref="A1:F133" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F4C34CE7-9C11-4DAE-A329-54BB0BCA000E}" name="Serial No"/>
+    <tableColumn id="2" xr3:uid="{794BD69E-3FDF-4599-AD5C-94333A053A99}" name="SOURCE"/>
+    <tableColumn id="3" xr3:uid="{07F483C1-EAF2-4235-A524-0D763DFFC119}" name="CATEGORY"/>
+    <tableColumn id="4" xr3:uid="{ECB36DCD-A2D4-4428-81FD-656AE97D906B}" name="SUBJECT"/>
+    <tableColumn id="5" xr3:uid="{418A56EB-DC92-4823-A608-9B1E45607965}" name="TITLE"/>
+    <tableColumn id="6" xr3:uid="{3913C85E-7324-4CD7-BEAA-69BB135E4016}" name="URL"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1308,11 +1578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EE77A-69C7-4F38-9C2C-6F33C504A344}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1439,10 +1709,10 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1479,10 +1749,10 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -2176,7 +2446,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
         <v>101</v>
@@ -2193,7 +2463,7 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D44" t="s">
         <v>104</v>
@@ -2253,10 +2523,10 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
         <v>112</v>
@@ -2396,7 +2666,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E54" t="s">
         <v>127</v>
@@ -2533,10 +2803,10 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
         <v>143</v>
@@ -2596,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
         <v>150</v>
@@ -2633,10 +2903,10 @@
         <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="E66" t="s">
         <v>154</v>
@@ -2656,13 +2926,13 @@
         <v>17</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -2676,13 +2946,13 @@
         <v>5</v>
       </c>
       <c r="D68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" t="s">
         <v>159</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -2699,10 +2969,10 @@
         <v>38</v>
       </c>
       <c r="E69" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -2719,10 +2989,10 @@
         <v>18</v>
       </c>
       <c r="E70" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -2733,16 +3003,16 @@
         <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -2759,10 +3029,10 @@
         <v>18</v>
       </c>
       <c r="E72" t="s">
+        <v>172</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -2799,10 +3069,10 @@
         <v>18</v>
       </c>
       <c r="E74" t="s">
+        <v>174</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -2819,10 +3089,10 @@
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -2839,10 +3109,10 @@
         <v>18</v>
       </c>
       <c r="E76" t="s">
+        <v>177</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -2856,13 +3126,13 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" t="s">
+        <v>180</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E77" t="s">
-        <v>181</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -2873,16 +3143,16 @@
         <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" t="s">
         <v>159</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2896,13 +3166,13 @@
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -2919,10 +3189,10 @@
         <v>131</v>
       </c>
       <c r="E80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2933,16 +3203,16 @@
         <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D81" t="s">
         <v>79</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2953,16 +3223,16 @@
         <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2979,10 +3249,10 @@
         <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2993,16 +3263,16 @@
         <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
         <v>79</v>
       </c>
       <c r="E84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -3016,13 +3286,13 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -3033,16 +3303,16 @@
         <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -3059,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -3079,10 +3349,10 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -3090,19 +3360,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
+        <v>232</v>
+      </c>
+      <c r="E89" t="s">
         <v>233</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -3116,13 +3386,13 @@
         <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E90" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -3136,13 +3406,13 @@
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E91" t="s">
+        <v>236</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -3156,13 +3426,13 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -3176,13 +3446,13 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" t="s">
+        <v>240</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E93" t="s">
-        <v>241</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -3199,10 +3469,10 @@
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -3213,16 +3483,16 @@
         <v>145</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E95" t="s">
+        <v>245</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -3239,10 +3509,10 @@
         <v>6</v>
       </c>
       <c r="E96" t="s">
+        <v>247</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -3250,19 +3520,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" t="s">
+        <v>249</v>
+      </c>
+      <c r="E97" t="s">
         <v>250</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -3270,19 +3540,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E98" t="s">
+        <v>253</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -3290,19 +3560,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="D99" t="s">
+        <v>256</v>
+      </c>
+      <c r="E99" t="s">
+        <v>255</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E99" t="s">
-        <v>256</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -3310,19 +3580,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E100" t="s">
+        <v>258</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -3330,19 +3600,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E101" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -3350,19 +3620,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E102" t="s">
+        <v>262</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -3370,19 +3640,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E103" t="s">
+        <v>264</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -3390,19 +3660,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104" t="s">
+        <v>267</v>
+      </c>
+      <c r="E104" t="s">
+        <v>266</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="E104" t="s">
-        <v>267</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -3410,29 +3680,328 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E105" t="s">
+        <v>269</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
+      <c r="B106" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" t="s">
+        <v>158</v>
+      </c>
+      <c r="D106" t="s">
+        <v>272</v>
+      </c>
+      <c r="E106" t="s">
+        <v>271</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" t="s">
+        <v>277</v>
+      </c>
+      <c r="D107" t="s">
+        <v>276</v>
+      </c>
+      <c r="E107" t="s">
+        <v>275</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>281</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>280</v>
+      </c>
+      <c r="E108" t="s">
+        <v>279</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>256</v>
+      </c>
+      <c r="E109" t="s">
+        <v>284</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>252</v>
+      </c>
+      <c r="C110" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" t="s">
+        <v>258</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>286</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" t="s">
+        <v>288</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" t="s">
+        <v>192</v>
+      </c>
+      <c r="D113" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" t="s">
+        <v>290</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C114" t="s">
+        <v>294</v>
+      </c>
+      <c r="D114" t="s">
+        <v>299</v>
+      </c>
+      <c r="E114" t="s">
+        <v>297</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>50</v>
+      </c>
+      <c r="C115" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" t="s">
+        <v>299</v>
+      </c>
+      <c r="E115" t="s">
+        <v>298</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>301</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>252</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>267</v>
+      </c>
+      <c r="E117" t="s">
+        <v>303</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>252</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" t="s">
+        <v>305</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>309</v>
+      </c>
+      <c r="C119" t="s">
+        <v>171</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" t="s">
+        <v>307</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" t="s">
+        <v>228</v>
+      </c>
+      <c r="D120" t="s">
+        <v>311</v>
+      </c>
+      <c r="E120" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
+        <v>131</v>
+      </c>
+      <c r="E121" t="s">
+        <v>312</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" t="s">
+        <v>145</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" t="s">
+        <v>193</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>315</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -3540,30 +4109,568 @@
     <hyperlink ref="F103" r:id="rId101" xr:uid="{10AC52C2-15C3-4A49-8A7B-6B0645C72748}"/>
     <hyperlink ref="F104" r:id="rId102" xr:uid="{5F1126FB-B1A9-496B-B94A-40A69F900ABF}"/>
     <hyperlink ref="F105" r:id="rId103" xr:uid="{B0BA241F-795F-450A-9C85-3CC3DC9DB750}"/>
+    <hyperlink ref="F106" r:id="rId104" xr:uid="{96B848B7-03E6-488C-85E3-3098626DCB24}"/>
+    <hyperlink ref="F107" r:id="rId105" xr:uid="{F9CBB410-BBA1-458F-9850-94AFB74527CC}"/>
+    <hyperlink ref="F108" r:id="rId106" xr:uid="{A205E8CF-4FFC-4A6A-84AA-8E519D69D171}"/>
+    <hyperlink ref="F109" r:id="rId107" xr:uid="{7CB10241-76D4-4692-9E44-24D3BD6A703A}"/>
+    <hyperlink ref="F110" r:id="rId108" xr:uid="{9E4FB1BC-272A-4B1A-8D52-01632F0DC02F}"/>
+    <hyperlink ref="F111" r:id="rId109" xr:uid="{1C1AE8E8-E22E-41B7-A52C-E842025784AD}"/>
+    <hyperlink ref="F112" r:id="rId110" xr:uid="{23AC6432-5DBB-4602-B990-07E9CC2731B1}"/>
+    <hyperlink ref="F113" r:id="rId111" xr:uid="{69E86EB3-543F-4623-8F8E-2DA050D487A3}"/>
+    <hyperlink ref="F114" r:id="rId112" xr:uid="{033D02CA-EA2C-463B-B1AB-A77D43AA1DFD}"/>
+    <hyperlink ref="F115" r:id="rId113" xr:uid="{968248B4-D6AD-40B3-9B17-BF212CDA6AB4}"/>
+    <hyperlink ref="F116" r:id="rId114" xr:uid="{26AD2162-5A2E-46DE-BAB4-FE8896B63C1B}"/>
+    <hyperlink ref="F117" r:id="rId115" xr:uid="{33E83A04-5C9B-48BC-9A56-3521927227A9}"/>
+    <hyperlink ref="F118" r:id="rId116" xr:uid="{D284DA90-A357-451C-B1CE-39E376B5C13B}"/>
+    <hyperlink ref="F119" r:id="rId117" xr:uid="{4F5BA82D-E084-4772-81CA-04798F411742}"/>
+    <hyperlink ref="F121" r:id="rId118" xr:uid="{6927F4BB-DF36-4806-A475-ABAC4CA030FF}"/>
+    <hyperlink ref="F122" r:id="rId119" xr:uid="{4318BB99-C136-4D34-94C3-4329B344C854}"/>
+    <hyperlink ref="F123" r:id="rId120" xr:uid="{2E463B59-AB42-444F-9B00-03EB8E1539A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId104"/>
+  <pageSetup orientation="portrait" r:id="rId121"/>
   <tableParts count="1">
-    <tablePart r:id="rId105"/>
+    <tablePart r:id="rId122"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
+          <x14:formula1>
+            <xm:f>Values!$E$4:$E$53</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D133</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B86FB78-95D8-4FFF-8DB6-A12E50721AA6}">
           <x14:formula1>
-            <xm:f>Values!$D$4:$D$13</xm:f>
+            <xm:f>Values!$D$4:$D$20</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8EBEEB8-B884-4C00-9B51-F5E336240EDE}">
           <x14:formula1>
-            <xm:f>Values!$C$4:$C$9</xm:f>
+            <xm:f>Values!$C$4:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B133</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E7CFC8-3952-4B67-8B0C-821E1C6708A6}">
+  <dimension ref="A1:F123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.90625" customWidth="1"/>
+    <col min="6" max="6" width="103.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F80" s="1"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F119" s="1"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F123" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{D4E0158B-CF21-4C2A-80C4-9939E71A0041}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{6E86AF17-97FE-4F82-BD6E-BE75F266A99A}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{C64E58E2-E528-4A2A-9F2D-562F0DB71229}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{7D1C893C-F0E8-47D2-BBF3-502FDC01B737}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{EF99DE93-8D1B-42F8-AD11-DB6F87BCC057}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{EDA7BAB0-1042-4CB6-B36C-7FE9C1A5BAFB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <tableParts count="1">
+    <tablePart r:id="rId8"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CD11D97-578B-4564-B139-D06A04DB084D}">
           <x14:formula1>
-            <xm:f>Values!$E$4:$E$49</xm:f>
+            <xm:f>Values!$F$4:$F$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C133</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B804DC04-6279-4102-A9F8-DC42745F0F3C}">
+          <x14:formula1>
+            <xm:f>Values!$G$4:$G$18</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D133</xm:sqref>
         </x14:dataValidation>
@@ -3573,33 +4680,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A6014D-2E27-4F54-8034-C9E495B040EE}">
-  <dimension ref="C3:E49"/>
+  <dimension ref="C3:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>49</v>
       </c>
@@ -3607,273 +4722,386 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+      <c r="F4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>145</v>
+        <v>309</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>231</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+      <c r="F6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
       <c r="E7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="G9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" t="s">
         <v>193</v>
       </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E24" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E31" t="s">
+    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E32" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E50" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E53" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Oracle_Knowledge_Links.xlsx
+++ b/Oracle_Knowledge_Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabya\gitrepos\oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA02B5BF-974C-4C31-841F-3D8EEE791143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74E9B8-70E2-49D6-AF52-9445883151DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Oracle Links" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="349">
   <si>
     <t>Serial No</t>
   </si>
@@ -935,9 +935,6 @@
     <t>The mysterious KEEP clause in SQL</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Q5aFLk-Iqcc</t>
-  </si>
-  <si>
     <t>Why indexes are so fast at finding a key</t>
   </si>
   <si>
@@ -1056,6 +1053,27 @@
   </si>
   <si>
     <t>https://medium.com/@hnasr/following-a-database-read-to-the-metal-a187541333c2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q5aFLk-IQcc</t>
+  </si>
+  <si>
+    <t>The KEEP clause will KEEP your SQL queries SIMPLE!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AlTI_ZUyE0U</t>
+  </si>
+  <si>
+    <t>The JOIN syntax in SQL that no-one knows about</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nb52Gx4i364</t>
+  </si>
+  <si>
+    <t>The SQL command line feature you never knew existed!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZnybPTDMKhs</t>
   </si>
 </sst>
 </file>
@@ -1282,9 +1300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1322,7 +1340,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1428,7 +1446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1570,7 +1588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1578,11 +1596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EE77A-69C7-4F38-9C2C-6F33C504A344}">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3885,7 +3903,7 @@
         <v>301</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.35">
@@ -3899,10 +3917,10 @@
         <v>267</v>
       </c>
       <c r="E117" t="s">
+        <v>302</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.35">
@@ -3916,15 +3934,15 @@
         <v>28</v>
       </c>
       <c r="E118" t="s">
+        <v>304</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
         <v>171</v>
@@ -3933,24 +3951,24 @@
         <v>28</v>
       </c>
       <c r="E119" t="s">
+        <v>306</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C120" t="s">
         <v>228</v>
       </c>
       <c r="D120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E120" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.35">
@@ -3964,10 +3982,10 @@
         <v>131</v>
       </c>
       <c r="E121" t="s">
+        <v>311</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.35">
@@ -3984,7 +4002,7 @@
         <v>145</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
@@ -3998,10 +4016,61 @@
         <v>28</v>
       </c>
       <c r="E123" t="s">
+        <v>314</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>316</v>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>343</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>345</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>347</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -4126,11 +4195,14 @@
     <hyperlink ref="F121" r:id="rId118" xr:uid="{6927F4BB-DF36-4806-A475-ABAC4CA030FF}"/>
     <hyperlink ref="F122" r:id="rId119" xr:uid="{4318BB99-C136-4D34-94C3-4329B344C854}"/>
     <hyperlink ref="F123" r:id="rId120" xr:uid="{2E463B59-AB42-444F-9B00-03EB8E1539A6}"/>
+    <hyperlink ref="F124" r:id="rId121" xr:uid="{F2D76737-2ED3-4B28-9C36-E331187F2A2C}"/>
+    <hyperlink ref="F125" r:id="rId122" xr:uid="{A091AACE-0440-4A8D-B4E6-460EC9E9F17B}"/>
+    <hyperlink ref="F126" r:id="rId123" xr:uid="{8AA649A5-28AC-498E-AE83-29A660111662}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId121"/>
+  <pageSetup orientation="portrait" r:id="rId124"/>
   <tableParts count="1">
-    <tablePart r:id="rId122"/>
+    <tablePart r:id="rId125"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4163,9 +4235,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E7CFC8-3952-4B67-8B0C-821E1C6708A6}">
   <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4200,104 +4272,104 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="C3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
         <v>320</v>
       </c>
-      <c r="C4" t="s">
-        <v>321</v>
-      </c>
       <c r="D4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="E4" t="s">
-        <v>332</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="E7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -4708,10 +4780,10 @@
         <v>185</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
@@ -4725,7 +4797,7 @@
         <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -4733,19 +4805,19 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
@@ -4759,10 +4831,10 @@
         <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
@@ -4804,7 +4876,7 @@
         <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
@@ -4818,7 +4890,7 @@
         <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
@@ -4832,7 +4904,7 @@
         <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
@@ -4865,7 +4937,7 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C14" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D14" t="s">
         <v>158</v>
@@ -4874,7 +4946,7 @@
         <v>111</v>
       </c>
       <c r="G14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
@@ -4910,7 +4982,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.35">

--- a/Oracle_Knowledge_Links.xlsx
+++ b/Oracle_Knowledge_Links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabya\gitrepos\oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B74E9B8-70E2-49D6-AF52-9445883151DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264577B2-9836-4F48-A5F3-8DD2B6BC0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="564">
   <si>
     <t>Serial No</t>
   </si>
@@ -698,9 +698,6 @@
     <t>SQL Profile</t>
   </si>
   <si>
-    <t>SQL Execution Plan</t>
-  </si>
-  <si>
     <t>SQL Tuning Advisor</t>
   </si>
   <si>
@@ -1074,6 +1071,654 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ZnybPTDMKhs</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/sql-analysis-report-in-23c-free</t>
+  </si>
+  <si>
+    <t>New SQL Analysis Report in Oracle Database 23c Free!</t>
+  </si>
+  <si>
+    <t>Gathering System, Fixed Object and Dictionary Statistics</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/gathering-system-fixed-object-and-dictionary-statistics</t>
+  </si>
+  <si>
+    <t>What is DBMS_SPM.ADD_VERIFIED_SQL_PLAN_BASELINE?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/what-is-add-verified-spm</t>
+  </si>
+  <si>
+    <t>Expression Tracking</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/expression-tracking</t>
+  </si>
+  <si>
+    <t>How can I tell which table partitions have synopses?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/which-partitions-have-synopses</t>
+  </si>
+  <si>
+    <t>How can you tell if a SQL statement will see stale optimizer statistics?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/check-sql-stale-statistics</t>
+  </si>
+  <si>
+    <t>Automatic Partitioning and Indexes</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/automatic-partitioning-and-indexes</t>
+  </si>
+  <si>
+    <t>Should You Gather System Statistics?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/should-you-gather-system-statistics</t>
+  </si>
+  <si>
+    <t>What should I set ESTIMATE_PERCENT to?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/setting-estimate-percent</t>
+  </si>
+  <si>
+    <t>Improving Cardinality Estimates with Dynamic Statistics</t>
+  </si>
+  <si>
+    <t>Cardinality</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/cardinality-and-dynamic-statistics</t>
+  </si>
+  <si>
+    <t>Extended Statistics</t>
+  </si>
+  <si>
+    <t>Use Extended Statistics For Better SQL Execution Plans</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/use-extended-statistics-for-better-sql-execution-plans</t>
+  </si>
+  <si>
+    <t>Why do I have SQL statement plans that change for the worse?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/why-do-i-have-sql-statement-plans-that-change-for-the-worse</t>
+  </si>
+  <si>
+    <t>Fine-Grained Cursor Invalidation</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/fine-grained-cursor-invalidation</t>
+  </si>
+  <si>
+    <t>Optimizer Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizer Real-time Statistics Parameter in RU 19.10 Onwards </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blogs.oracle.com/optimizer/post/optimizer-real-time-statistics-parameter-in-ru-1910-onwards </t>
+  </si>
+  <si>
+    <t>Efficient Statistics Maintenance for Partitioned Tables Using Incremental Statistics – Part 1</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/efficient-statistics-maintenance-for-partitioned-tables-using-incremental-statistics-part-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Your Database and Avoid Query Performance Regression </t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/upgrade-to-oracle-database-12c-and-avoid-query-regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why are there many cursors for queries containing bind variables? </t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/why-are-there-many-cursors-for-queries-containing-bind-variables</t>
+  </si>
+  <si>
+    <t>Adaptive Cursor Sharing</t>
+  </si>
+  <si>
+    <t>Adaptive Cursor Sharing (ACS) and Bind Sensitivity</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/adaptive-cursor-sharing-acs-and-bind-sensitivity</t>
+  </si>
+  <si>
+    <t>Using SQL Plan Management to Control SQL Execution Plans</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/using-sql-plan-management-to-control-sql-execution-plans</t>
+  </si>
+  <si>
+    <t>What is the Automatic SQL Tuning Set?</t>
+  </si>
+  <si>
+    <t>SQL Tuning Set</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/what-is-the-automatic-sql-tuning-set</t>
+  </si>
+  <si>
+    <t>What you need to know about SQL Plan Management and Auto Capture</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/what-you-need-to-know-about-sql-plan-management-and-auto-capture</t>
+  </si>
+  <si>
+    <t>What's the Difference Between SPM Auto Capture and Auto SPM?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/whats-the-difference-between-spm-auto-capture-and-auto-spm</t>
+  </si>
+  <si>
+    <t>Space Management and Direct Path Load</t>
+  </si>
+  <si>
+    <t>Direct Path Load</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/space-management-and-oracle-direct-path-load</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/what-is-the-difference-between-sql-profiles-and-sql-plan-baselines</t>
+  </si>
+  <si>
+    <t>What is the difference between SQL Profiles and SQL Plan Baselines?</t>
+  </si>
+  <si>
+    <t>Locked Optimizer Statistics – A Useful Tool in Your Toolbox</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/locked-optimizer-statistics-a-useful-tool-in-your-toolbox</t>
+  </si>
+  <si>
+    <t>Using SQL Patch to add hints to a packaged application</t>
+  </si>
+  <si>
+    <t>SQL Hint</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/using-sql-patch-to-add-hints-to-a-packaged-application</t>
+  </si>
+  <si>
+    <t>How Do I Compare Optimizer Statistics?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-do-i-compare-optimizer-statistics</t>
+  </si>
+  <si>
+    <t>My cursor wasn’t shared because of STB_OBJECT_MISMATCH. What does that mean?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/my-cursor-wasnt-shared-because-of-stb_object_mismatch-what-does-that-mean</t>
+  </si>
+  <si>
+    <t>How do I restrict concurrent statistics gathering to a small set of tables from a single schema?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-do-i-restrict-concurrent-statistics-gathering-to-a-small-set-of-tables-from-a-single-schema</t>
+  </si>
+  <si>
+    <t>How do I force a query to use bind-aware cursor sharing?</t>
+  </si>
+  <si>
+    <t>Cursor Binding</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-do-i-force-a-query-to-use-bind-aware-cursor-sharing</t>
+  </si>
+  <si>
+    <t>How does the METHOD_OPT parameter work?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-does-the-method-opt-parameter-work</t>
+  </si>
+  <si>
+    <t>Fixed Objects Statistics and Why They are Important</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/fixed-objects-statistics-and-why-they-are-important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do I know if the cardinality estimates in a plan are accurate? </t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-do-i-know-if-the-cardinality-estimates-in-a-plan-are-accurate</t>
+  </si>
+  <si>
+    <t>How do I know what extended statistics are needed for a given workload?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-do-i-know-what-extended-statistics-are-needed-for-a-given-workload</t>
+  </si>
+  <si>
+    <t>How does the Oracle Database choose what histograms to create?</t>
+  </si>
+  <si>
+    <t>Histogram</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-does-the-oracle-database-choose-what-histograms-to-create</t>
+  </si>
+  <si>
+    <t>SQL Plan</t>
+  </si>
+  <si>
+    <t>Efficient Statistics Maintenance for Partitioned Tables Using Incremental Statistics – Part 2</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/efficient-statistics-maintenance-for-partitioned-tables-using-incremental-statistics-part-2</t>
+  </si>
+  <si>
+    <t>Efficient Statistics Maintenance for Partitioned Tables Using Incremental Statistics – Part 3</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/efficient-statistics-maintenance-for-partitioned-tables-using-incremental-statistics-part-3</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/extended-statistics</t>
+  </si>
+  <si>
+    <t>Copy an Execution Plan From One SQL Statement to Another using SQL Plan Baselines</t>
+  </si>
+  <si>
+    <t>Upgrade Your Database and Avoid Query Performance Regression</t>
+  </si>
+  <si>
+    <t>How does SQL Plan Management match SQL statements to SQL plan baselines?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-does-sql-plan-management-match-sql-statements-to-sql-plan-baselines</t>
+  </si>
+  <si>
+    <t>Repairing SQL Performance Regression with SQL Plan Management</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/repairing-sql-performance-regression-with-sql-plan-management</t>
+  </si>
+  <si>
+    <t>Oracle Database 19c and SQL Plan Management Diagnostics</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/oracle-database-19c-and-sql-plan-management-diagnostics</t>
+  </si>
+  <si>
+    <t>SQL Plan Management (Part 1 of 4) Creating SQL plan baselines</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/sql-plan-management-part-1-of-4-creating-sql-plan-baselines</t>
+  </si>
+  <si>
+    <t>SQL Plan Management (Part 2 of 4) SPM Aware Optimizer</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/sql-plan-management-part-2-of-4-spm-aware-optimizer</t>
+  </si>
+  <si>
+    <t>SQL Plan Management (Part 3 of 4): Evolving SQL Plan Baselines</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/sql-plan-management-part-3-of-4-evolving-sql-plan-baselines</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/sql-plan-management-part-4-of-4-user-interfaces-and-other-features</t>
+  </si>
+  <si>
+    <t>SQL Plan Management (Part 4 of 4): User Interfaces and Other Features</t>
+  </si>
+  <si>
+    <t>The Latest Enhancements in SQL Plan Management</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M3WABciqxrI</t>
+  </si>
+  <si>
+    <t>Oracle Database Product Management</t>
+  </si>
+  <si>
+    <t>Oracle SQL Plan Management (SPM) your Imperative Performance Tool</t>
+  </si>
+  <si>
+    <t>Youtube Channel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P84enVMCq8U</t>
+  </si>
+  <si>
+    <t>How to Use SQL Plan Baselines and SQL Profiles</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/spm-cheat-sheet-part-1</t>
+  </si>
+  <si>
+    <t>SQL Plan Management Cheat Sheet - Part 1</t>
+  </si>
+  <si>
+    <t>SQL Plan Management Cheat Sheet - Part 2</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/spm-cheat-sheet-part-2</t>
+  </si>
+  <si>
+    <t>What is automatic SQL plan management and why should you care?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/what-is-automatic-sql-plan-management-and-why-should-you-care</t>
+  </si>
+  <si>
+    <t>What is Real-time SQL plan Management?</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/what-is-realtime-spm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Plan Management in Oracle Database </t>
+  </si>
+  <si>
+    <t>https://oracle-base.com/articles/11g/sql-plan-management-11gr1</t>
+  </si>
+  <si>
+    <t>SQL Monitoring</t>
+  </si>
+  <si>
+    <t>Real-Time SQL Monitoring: a MUST for SQL Tuning</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/coretec/post/oracle-database-real-time-sql-monitoring-one-of-the-most-important-tools</t>
+  </si>
+  <si>
+    <t>Getting the most out of Oracle SQL Monitor</t>
+  </si>
+  <si>
+    <t>https://sqlmaria.com/2017/08/01/getting-the-most-out-of-oracle-sql-monitor/</t>
+  </si>
+  <si>
+    <t>How to See Where Your Oracle SQL Query is Slow</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fKdiQYA4cfM</t>
+  </si>
+  <si>
+    <t>Oracle SQL Plan Hash Value Flip : How to create SQL Profile identify and Fix</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nsj1Qf6XSeU</t>
+  </si>
+  <si>
+    <t>The latest enhancements in SQL plan management | CloudWorld 2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5LJzKtWwhp4</t>
+  </si>
+  <si>
+    <t>Harnessing the power of Oracle Database optimizer hints | CloudWorld 2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fVdFT8y-IX4</t>
+  </si>
+  <si>
+    <t>Viscosity Webinars: Oracle SQL Plan Management SPM Your Imperative Performance Tool</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pt-LRqOno7o</t>
+  </si>
+  <si>
+    <t>Oracle 11g New Features : SQL Plan Management (Baselining)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fZUMI6OS61c</t>
+  </si>
+  <si>
+    <t>change the execution plan without changing the sql query</t>
+  </si>
+  <si>
+    <t>DBA Class</t>
+  </si>
+  <si>
+    <t>https://dbaclass.com/article/change-the-execution-plan-without-changing-the-sql-query/</t>
+  </si>
+  <si>
+    <t>How to use a SQL Plan Baseline or a SQL Patch to add Optimizer hints</t>
+  </si>
+  <si>
+    <t>SQL Maria</t>
+  </si>
+  <si>
+    <t>SQL Plan Baseline</t>
+  </si>
+  <si>
+    <t>https://sqlmaria.com/2020/02/25/how-to-use-a-sql-plan-baseline-or-a-sql-patch-to-add-optimizer-hints/</t>
+  </si>
+  <si>
+    <t>How to identify which indexes can be safely dropped in Oracle</t>
+  </si>
+  <si>
+    <t>https://sqlmaria.com/2023/11/28/how-to-identify-which-indexes-can-be-safely-dropped-in-oracle/</t>
+  </si>
+  <si>
+    <t>How do adaptive cursor sharing and SQL Plan Management interact?</t>
+  </si>
+  <si>
+    <t>Cursor Sharing</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-do-adaptive-cursor-sharing-and-sql-plan-management-interact</t>
+  </si>
+  <si>
+    <t>How to Use SQL Plan Management</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-to-use-sql-plan-management?source=:em:nw:mt::::rc_wwmk200429p00044:nsl400133304</t>
+  </si>
+  <si>
+    <t>HOL 19c SQL Plan Management</t>
+  </si>
+  <si>
+    <t>Mike Dietrich's Blog About Oracle Database Upgrades</t>
+  </si>
+  <si>
+    <t>https://mikedietrichde.com/hol-19c-sql-plan-management/</t>
+  </si>
+  <si>
+    <t>Query to get SQL_ID from DBA_SQL_PLAN_BASELINES</t>
+  </si>
+  <si>
+    <t>Carlos Sierra's Tools and Tips</t>
+  </si>
+  <si>
+    <t>SQL ID</t>
+  </si>
+  <si>
+    <t>https://carlos-sierra.net/2019/01/16/query-to-get-sql_id-from-dba_sql_plan_baselines/</t>
+  </si>
+  <si>
+    <t>Function to compute SQL_ID out of SQL_TEXT</t>
+  </si>
+  <si>
+    <t>https://carlos-sierra.net/2013/09/12/function-to-compute-sql_id-out-of-sql_text/</t>
+  </si>
+  <si>
+    <t>HOL 19c SQL Tuning Advisor</t>
+  </si>
+  <si>
+    <t>https://mikedietrichde.com/hol-19c-sql-tuning-advisor/</t>
+  </si>
+  <si>
+    <t>HOL 19c Capture and Preserve SQL</t>
+  </si>
+  <si>
+    <t>https://mikedietrichde.com/hol-19c-capture-and-preserve-sql/</t>
+  </si>
+  <si>
+    <t>Oracle Database Advisors</t>
+  </si>
+  <si>
+    <t>Database Advisor</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/coretec/post/oracle-database-advisors-overview</t>
+  </si>
+  <si>
+    <t>The performance report you are NOT using</t>
+  </si>
+  <si>
+    <t>https://connor-mcdonald.com/2021/04/30/the-performance-report-you-are-not-using/</t>
+  </si>
+  <si>
+    <t>Performance Hub - the database tuning gem</t>
+  </si>
+  <si>
+    <t>Performance Hub</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/coretec/post/oracle-performance-hub</t>
+  </si>
+  <si>
+    <t>How to force a sql_id to use a plan_hash_value using SQL Baselines</t>
+  </si>
+  <si>
+    <t>https://rnm1978.wordpress.com/2011/06/28/oracle-11g-how-to-force-a-sql_id-to-use-a-plan_hash_value-using-sql-baselines/</t>
+  </si>
+  <si>
+    <t>RmOff</t>
+  </si>
+  <si>
+    <t>Baselines and Better Plans</t>
+  </si>
+  <si>
+    <t>https://asktom.oracle.com/Misc/oramag/baselines-and-better-plans.html</t>
+  </si>
+  <si>
+    <t>How Does An Execution Plan Suddenly Change When The Statistics (And Everything Else) Remains The Same ? (In Limbo)</t>
+  </si>
+  <si>
+    <t>Richard Foote</t>
+  </si>
+  <si>
+    <t>https://richardfoote.wordpress.com/2010/02/16/how-does-an-execution-plan-suddenly-change-when-the-statistics-remain-the-same-in-limbo/</t>
+  </si>
+  <si>
+    <t>https://www.ennicode.com/oracle-long-running-queries/</t>
+  </si>
+  <si>
+    <t>Oracle Long Running Queries | Health Check Now</t>
+  </si>
+  <si>
+    <t>EnniCode</t>
+  </si>
+  <si>
+    <t>Oracle SQL Tuning Sets (STS) - The foundation for SQL Tuning</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/coretec/post/oracle-sql-tuning-sets-the-basis-for-sql-tuning#cache</t>
+  </si>
+  <si>
+    <t>Query Tuning 101: Comparing Execution Plans and Access vs. Filter Predicates</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/sql/post/query-tuning-101-comparing-execution-plans-and-access-vs-filter-predicates</t>
+  </si>
+  <si>
+    <t>How to Read an Execution Plan</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/how-to-read-an-execution-plan</t>
+  </si>
+  <si>
+    <t>How to Find Slow SQL: Databases for Developers: Performance #9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BgErjxCizlQ</t>
+  </si>
+  <si>
+    <t>How to Delete Millions of Rows Fast with SQL</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/sql/post/how-to-delete-millions-of-rows-fast-with-sql#ctas</t>
+  </si>
+  <si>
+    <t>SQL Performance Tuning Case Study – Optimizing Dev Gym Leaderboards</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ewJamNU6IY0</t>
+  </si>
+  <si>
+    <t>Explain the Explain Plan: Join Order</t>
+  </si>
+  <si>
+    <t>https://sqlmaria.com/2021/08/12/explain-the-explain-plan-join-order/</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>SSH Key Setup</t>
+  </si>
+  <si>
+    <t>Shell Scripting</t>
+  </si>
+  <si>
+    <t>Linux Tools/Utility</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>StackOverflow</t>
+  </si>
+  <si>
+    <t>How to Configure Multiple SSH Private Keys for Different Servers Efficiently?</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/2419566/how-to-configure-multiple-ssh-private-keys-for-different-servers-efficiently</t>
+  </si>
+  <si>
+    <t>Windows SSH setup for multiple server access and key pair authentication</t>
+  </si>
+  <si>
+    <t>https://www.net7.be/blog/article/windows_ssh_setup.html</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>How To Configure SSH Key-Based Authentication on a Linux Server</t>
+  </si>
+  <si>
+    <t>https://www.digitalocean.com/community/tutorials/how-to-configure-ssh-key-based-authentication-on-a-linux-server</t>
+  </si>
+  <si>
+    <t>Alternative to ssh-copy-id on windows</t>
+  </si>
+  <si>
+    <t>https://superuser.com/questions/1747549/alternative-to-ssh-copy-id-on-windows</t>
+  </si>
+  <si>
+    <t>Best Way to Load &amp; Convert XML Data to Oracle Tables</t>
+  </si>
+  <si>
+    <t>https://sonra.io/load-convert-xml-data-to-oracle-table/</t>
+  </si>
+  <si>
+    <t>NOT IN vs. NOT EXISTS: The Negation Battle #JoelKallmanDay</t>
+  </si>
+  <si>
+    <t>SQLORA Blog</t>
+  </si>
+  <si>
+    <t>https://blog.sqlora.com/en/not-in-vs-not-exists-the-negation-battle-joelkallmanday/</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1917,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}" name="Table1" displayName="Table1" ref="A1:F133" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}" name="Table1" displayName="Table1" ref="A1:F245" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="A1:F245" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="SQL Tuning"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C54AE5A3-6185-4B4A-8944-4DD06AF2943B}" name="Serial No"/>
     <tableColumn id="2" xr3:uid="{B804B430-797F-47D9-8692-E8681C88043E}" name="SOURCE"/>
@@ -1596,21 +2248,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EE77A-69C7-4F38-9C2C-6F33C504A344}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F239" sqref="F239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="45.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.90625" customWidth="1"/>
-    <col min="6" max="6" width="103.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1633,7 +2285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1653,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1673,7 +2325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1693,7 +2345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1713,7 +2365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1733,7 +2385,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1753,7 +2405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1773,7 +2425,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1793,7 +2445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1813,7 +2465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1833,7 +2485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1853,7 +2505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1873,7 +2525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1893,7 +2545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1913,7 +2565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1933,7 +2585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1953,7 +2605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1973,7 +2625,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1993,7 +2645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2013,7 +2665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2033,7 +2685,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2053,7 +2705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2073,7 +2725,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2093,7 +2745,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2113,7 +2765,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2133,7 +2785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2153,7 +2805,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2173,7 +2825,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2193,7 +2845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2213,7 +2865,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2233,7 +2885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2253,7 +2905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2273,7 +2925,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2293,7 +2945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2313,7 +2965,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2333,7 +2985,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2353,7 +3005,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2373,7 +3025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2393,7 +3045,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2413,7 +3065,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2433,7 +3085,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2453,7 +3105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2473,7 +3125,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2493,7 +3145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2513,7 +3165,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2553,7 +3205,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2573,7 +3225,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2593,7 +3245,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2613,7 +3265,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2633,7 +3285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2653,7 +3305,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2673,7 +3325,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2693,7 +3345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2713,7 +3365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2733,7 +3385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2753,7 +3405,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2773,7 +3425,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2793,7 +3445,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2813,7 +3465,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2833,7 +3485,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2853,7 +3505,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2873,7 +3525,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2893,7 +3545,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2933,7 +3585,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2953,7 +3605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2973,7 +3625,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2993,7 +3645,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3013,7 +3665,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3033,7 +3685,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3053,7 +3705,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3073,7 +3725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3093,7 +3745,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3113,7 +3765,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3133,7 +3785,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3153,7 +3805,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3173,7 +3825,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3193,7 +3845,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3253,7 +3905,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3293,7 +3945,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3313,7 +3965,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3333,7 +3985,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3353,7 +4005,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3378,22 +4030,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
         <v>193</v>
       </c>
       <c r="D89" t="s">
+        <v>231</v>
+      </c>
+      <c r="E89" t="s">
         <v>232</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3407,13 +4059,13 @@
         <v>190</v>
       </c>
       <c r="E90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3427,13 +4079,13 @@
         <v>196</v>
       </c>
       <c r="E91" t="s">
+        <v>235</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3444,16 +4096,16 @@
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E92" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3464,16 +4116,16 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
+        <v>240</v>
+      </c>
+      <c r="E93" t="s">
+        <v>239</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E93" t="s">
-        <v>240</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3507,13 +4159,13 @@
         <v>220</v>
       </c>
       <c r="E95" t="s">
+        <v>244</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3527,38 +4179,38 @@
         <v>6</v>
       </c>
       <c r="E96" t="s">
+        <v>246</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" t="s">
+        <v>248</v>
+      </c>
+      <c r="E97" t="s">
         <v>249</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3567,38 +4219,38 @@
         <v>181</v>
       </c>
       <c r="E98" t="s">
+        <v>252</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
       </c>
       <c r="D99" t="s">
+        <v>255</v>
+      </c>
+      <c r="E99" t="s">
+        <v>254</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E99" t="s">
-        <v>255</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
@@ -3607,18 +4259,18 @@
         <v>196</v>
       </c>
       <c r="E100" t="s">
+        <v>257</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -3627,18 +4279,18 @@
         <v>196</v>
       </c>
       <c r="E101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3647,18 +4299,18 @@
         <v>196</v>
       </c>
       <c r="E102" t="s">
+        <v>261</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3667,38 +4319,38 @@
         <v>220</v>
       </c>
       <c r="E103" t="s">
+        <v>263</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
       </c>
       <c r="D104" t="s">
+        <v>266</v>
+      </c>
+      <c r="E104" t="s">
+        <v>265</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E104" t="s">
-        <v>266</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3707,89 +4359,89 @@
         <v>220</v>
       </c>
       <c r="E105" t="s">
+        <v>268</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
         <v>158</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C107" t="s">
+        <v>276</v>
+      </c>
+      <c r="D107" t="s">
+        <v>275</v>
+      </c>
+      <c r="E107" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D107" t="s">
-        <v>276</v>
-      </c>
-      <c r="E107" t="s">
-        <v>275</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E109" t="s">
+        <v>283</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
@@ -3798,15 +4450,15 @@
         <v>28</v>
       </c>
       <c r="E110" t="s">
+        <v>257</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3815,13 +4467,13 @@
         <v>6</v>
       </c>
       <c r="E111" t="s">
+        <v>285</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>50</v>
       </c>
@@ -3832,15 +4484,15 @@
         <v>28</v>
       </c>
       <c r="E112" t="s">
+        <v>287</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C113" t="s">
         <v>192</v>
@@ -3849,30 +4501,30 @@
         <v>104</v>
       </c>
       <c r="E113" t="s">
+        <v>289</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>50</v>
       </c>
       <c r="C114" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E114" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>50</v>
       </c>
@@ -3880,18 +4532,18 @@
         <v>17</v>
       </c>
       <c r="D115" t="s">
+        <v>298</v>
+      </c>
+      <c r="E115" t="s">
+        <v>297</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E115" t="s">
-        <v>298</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3900,32 +4552,32 @@
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E117" t="s">
+        <v>301</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3934,15 +4586,15 @@
         <v>28</v>
       </c>
       <c r="E118" t="s">
+        <v>303</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C119" t="s">
         <v>171</v>
@@ -3951,29 +4603,29 @@
         <v>28</v>
       </c>
       <c r="E119" t="s">
+        <v>305</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F119" s="1" t="s">
+    </row>
+    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>227</v>
+      </c>
+      <c r="D120" t="s">
+        <v>309</v>
+      </c>
+      <c r="E120" t="s">
         <v>308</v>
       </c>
-      <c r="C120" t="s">
-        <v>228</v>
-      </c>
-      <c r="D120" t="s">
-        <v>310</v>
-      </c>
-      <c r="E120" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3982,13 +4634,13 @@
         <v>131</v>
       </c>
       <c r="E121" t="s">
+        <v>310</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>145</v>
       </c>
@@ -4002,12 +4654,12 @@
         <v>145</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
         <v>193</v>
@@ -4016,15 +4668,15 @@
         <v>28</v>
       </c>
       <c r="E123" t="s">
+        <v>313</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4033,15 +4685,15 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
+        <v>342</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B125" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4050,15 +4702,15 @@
         <v>6</v>
       </c>
       <c r="E125" t="s">
+        <v>344</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B126" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4067,10 +4719,1674 @@
         <v>6</v>
       </c>
       <c r="E126" t="s">
+        <v>346</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F126" s="1" t="s">
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" t="s">
+        <v>193</v>
+      </c>
+      <c r="D127" t="s">
+        <v>376</v>
+      </c>
+      <c r="E127" t="s">
+        <v>362</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" t="s">
+        <v>193</v>
+      </c>
+      <c r="D128" t="s">
+        <v>193</v>
+      </c>
+      <c r="E128" t="s">
+        <v>360</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" t="s">
+        <v>193</v>
+      </c>
+      <c r="D129" t="s">
+        <v>376</v>
+      </c>
+      <c r="E129" t="s">
+        <v>358</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>230</v>
+      </c>
+      <c r="C130" t="s">
+        <v>193</v>
+      </c>
+      <c r="D130" t="s">
+        <v>193</v>
+      </c>
+      <c r="E130" t="s">
+        <v>356</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>230</v>
+      </c>
+      <c r="C131" t="s">
+        <v>193</v>
+      </c>
+      <c r="D131" t="s">
+        <v>193</v>
+      </c>
+      <c r="E131" t="s">
+        <v>354</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>230</v>
+      </c>
+      <c r="C132" t="s">
+        <v>193</v>
+      </c>
+      <c r="D132" t="s">
+        <v>221</v>
+      </c>
+      <c r="E132" t="s">
+        <v>352</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>230</v>
+      </c>
+      <c r="C133" t="s">
+        <v>193</v>
+      </c>
+      <c r="D133" t="s">
+        <v>376</v>
+      </c>
+      <c r="E133" t="s">
+        <v>350</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>230</v>
+      </c>
+      <c r="C134" t="s">
+        <v>193</v>
+      </c>
+      <c r="D134" t="s">
+        <v>193</v>
+      </c>
+      <c r="E134" t="s">
+        <v>349</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" t="s">
+        <v>193</v>
+      </c>
+      <c r="D135" t="s">
+        <v>193</v>
+      </c>
+      <c r="E135" t="s">
+        <v>364</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" t="s">
+        <v>193</v>
+      </c>
+      <c r="D136" t="s">
+        <v>367</v>
+      </c>
+      <c r="E136" t="s">
+        <v>366</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>230</v>
+      </c>
+      <c r="C137" t="s">
+        <v>193</v>
+      </c>
+      <c r="D137" t="s">
+        <v>369</v>
+      </c>
+      <c r="E137" t="s">
+        <v>370</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>230</v>
+      </c>
+      <c r="C138" t="s">
+        <v>193</v>
+      </c>
+      <c r="D138" t="s">
+        <v>193</v>
+      </c>
+      <c r="E138" t="s">
+        <v>372</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>230</v>
+      </c>
+      <c r="C139" t="s">
+        <v>193</v>
+      </c>
+      <c r="D139" t="s">
+        <v>193</v>
+      </c>
+      <c r="E139" t="s">
+        <v>374</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B140" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" t="s">
+        <v>193</v>
+      </c>
+      <c r="D140" t="s">
+        <v>376</v>
+      </c>
+      <c r="E140" t="s">
+        <v>377</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>230</v>
+      </c>
+      <c r="C141" t="s">
+        <v>193</v>
+      </c>
+      <c r="D141" t="s">
+        <v>376</v>
+      </c>
+      <c r="E141" t="s">
+        <v>379</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B142" t="s">
+        <v>230</v>
+      </c>
+      <c r="C142" t="s">
+        <v>193</v>
+      </c>
+      <c r="D142" t="s">
+        <v>382</v>
+      </c>
+      <c r="E142" t="s">
+        <v>381</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>230</v>
+      </c>
+      <c r="C143" t="s">
+        <v>193</v>
+      </c>
+      <c r="D143" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" t="s">
+        <v>384</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B144" t="s">
+        <v>230</v>
+      </c>
+      <c r="C144" t="s">
+        <v>193</v>
+      </c>
+      <c r="D144" t="s">
+        <v>386</v>
+      </c>
+      <c r="E144" t="s">
+        <v>387</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B145" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" t="s">
+        <v>193</v>
+      </c>
+      <c r="D145" t="s">
+        <v>221</v>
+      </c>
+      <c r="E145" t="s">
+        <v>389</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B146" t="s">
+        <v>230</v>
+      </c>
+      <c r="C146" t="s">
+        <v>193</v>
+      </c>
+      <c r="D146" t="s">
+        <v>392</v>
+      </c>
+      <c r="E146" t="s">
+        <v>391</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>230</v>
+      </c>
+      <c r="C147" t="s">
+        <v>193</v>
+      </c>
+      <c r="D147" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" t="s">
+        <v>394</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B148" t="s">
+        <v>230</v>
+      </c>
+      <c r="C148" t="s">
+        <v>193</v>
+      </c>
+      <c r="D148" t="s">
+        <v>221</v>
+      </c>
+      <c r="E148" t="s">
+        <v>396</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B149" t="s">
+        <v>230</v>
+      </c>
+      <c r="C149" t="s">
+        <v>193</v>
+      </c>
+      <c r="D149" t="s">
+        <v>399</v>
+      </c>
+      <c r="E149" t="s">
+        <v>398</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B150" t="s">
+        <v>230</v>
+      </c>
+      <c r="C150" t="s">
+        <v>193</v>
+      </c>
+      <c r="D150" t="s">
+        <v>222</v>
+      </c>
+      <c r="E150" t="s">
+        <v>402</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B151" t="s">
+        <v>230</v>
+      </c>
+      <c r="C151" t="s">
+        <v>193</v>
+      </c>
+      <c r="D151" t="s">
+        <v>376</v>
+      </c>
+      <c r="E151" t="s">
+        <v>403</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B152" t="s">
+        <v>230</v>
+      </c>
+      <c r="C152" t="s">
+        <v>193</v>
+      </c>
+      <c r="D152" t="s">
+        <v>406</v>
+      </c>
+      <c r="E152" t="s">
+        <v>405</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B153" t="s">
+        <v>230</v>
+      </c>
+      <c r="C153" t="s">
+        <v>193</v>
+      </c>
+      <c r="D153" t="s">
+        <v>376</v>
+      </c>
+      <c r="E153" t="s">
+        <v>408</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
+        <v>230</v>
+      </c>
+      <c r="C154" t="s">
+        <v>193</v>
+      </c>
+      <c r="D154" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" t="s">
+        <v>410</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B155" t="s">
+        <v>230</v>
+      </c>
+      <c r="C155" t="s">
+        <v>193</v>
+      </c>
+      <c r="D155" t="s">
+        <v>376</v>
+      </c>
+      <c r="E155" t="s">
+        <v>412</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B156" t="s">
+        <v>230</v>
+      </c>
+      <c r="C156" t="s">
+        <v>193</v>
+      </c>
+      <c r="D156" t="s">
+        <v>415</v>
+      </c>
+      <c r="E156" t="s">
+        <v>414</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B157" t="s">
+        <v>230</v>
+      </c>
+      <c r="C157" t="s">
+        <v>193</v>
+      </c>
+      <c r="D157" t="s">
+        <v>220</v>
+      </c>
+      <c r="E157" t="s">
+        <v>417</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
+        <v>230</v>
+      </c>
+      <c r="C158" t="s">
+        <v>193</v>
+      </c>
+      <c r="D158" t="s">
+        <v>376</v>
+      </c>
+      <c r="E158" t="s">
+        <v>419</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B159" t="s">
+        <v>230</v>
+      </c>
+      <c r="C159" t="s">
+        <v>193</v>
+      </c>
+      <c r="D159" t="s">
+        <v>367</v>
+      </c>
+      <c r="E159" t="s">
+        <v>421</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B160" t="s">
+        <v>230</v>
+      </c>
+      <c r="C160" t="s">
+        <v>193</v>
+      </c>
+      <c r="D160" t="s">
+        <v>369</v>
+      </c>
+      <c r="E160" t="s">
+        <v>423</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B161" t="s">
+        <v>230</v>
+      </c>
+      <c r="C161" t="s">
+        <v>193</v>
+      </c>
+      <c r="D161" t="s">
+        <v>426</v>
+      </c>
+      <c r="E161" t="s">
+        <v>425</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B162" t="s">
+        <v>230</v>
+      </c>
+      <c r="C162" t="s">
+        <v>193</v>
+      </c>
+      <c r="D162" t="s">
+        <v>428</v>
+      </c>
+      <c r="E162" t="s">
+        <v>372</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B163" t="s">
+        <v>230</v>
+      </c>
+      <c r="C163" t="s">
+        <v>193</v>
+      </c>
+      <c r="D163" t="s">
+        <v>376</v>
+      </c>
+      <c r="E163" t="s">
+        <v>379</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B164" t="s">
+        <v>230</v>
+      </c>
+      <c r="C164" t="s">
+        <v>193</v>
+      </c>
+      <c r="D164" t="s">
+        <v>376</v>
+      </c>
+      <c r="E164" t="s">
+        <v>429</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B165" t="s">
+        <v>230</v>
+      </c>
+      <c r="C165" t="s">
+        <v>193</v>
+      </c>
+      <c r="D165" t="s">
+        <v>376</v>
+      </c>
+      <c r="E165" t="s">
+        <v>431</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B166" t="s">
+        <v>230</v>
+      </c>
+      <c r="C166" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166" t="s">
+        <v>369</v>
+      </c>
+      <c r="E166" t="s">
+        <v>369</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B167" t="s">
+        <v>230</v>
+      </c>
+      <c r="C167" t="s">
+        <v>193</v>
+      </c>
+      <c r="D167" t="s">
+        <v>428</v>
+      </c>
+      <c r="E167" t="s">
+        <v>434</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B168" t="s">
+        <v>230</v>
+      </c>
+      <c r="C168" t="s">
+        <v>193</v>
+      </c>
+      <c r="D168" t="s">
+        <v>428</v>
+      </c>
+      <c r="E168" t="s">
+        <v>435</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B169" t="s">
+        <v>230</v>
+      </c>
+      <c r="C169" t="s">
+        <v>193</v>
+      </c>
+      <c r="D169" t="s">
+        <v>221</v>
+      </c>
+      <c r="E169" t="s">
+        <v>436</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>230</v>
+      </c>
+      <c r="C170" t="s">
+        <v>193</v>
+      </c>
+      <c r="D170" t="s">
+        <v>221</v>
+      </c>
+      <c r="E170" t="s">
+        <v>396</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B171" t="s">
+        <v>230</v>
+      </c>
+      <c r="C171" t="s">
+        <v>193</v>
+      </c>
+      <c r="D171" t="s">
+        <v>221</v>
+      </c>
+      <c r="E171" t="s">
+        <v>438</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B172" t="s">
+        <v>230</v>
+      </c>
+      <c r="C172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D172" t="s">
+        <v>221</v>
+      </c>
+      <c r="E172" t="s">
+        <v>440</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B173" t="s">
+        <v>230</v>
+      </c>
+      <c r="C173" t="s">
+        <v>193</v>
+      </c>
+      <c r="D173" t="s">
+        <v>221</v>
+      </c>
+      <c r="E173" t="s">
+        <v>442</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B174" t="s">
+        <v>230</v>
+      </c>
+      <c r="C174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174" t="s">
+        <v>221</v>
+      </c>
+      <c r="E174" t="s">
+        <v>444</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B175" t="s">
+        <v>230</v>
+      </c>
+      <c r="C175" t="s">
+        <v>193</v>
+      </c>
+      <c r="D175" t="s">
+        <v>221</v>
+      </c>
+      <c r="E175" t="s">
+        <v>446</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B176" t="s">
+        <v>230</v>
+      </c>
+      <c r="C176" t="s">
+        <v>193</v>
+      </c>
+      <c r="D176" t="s">
+        <v>221</v>
+      </c>
+      <c r="E176" t="s">
+        <v>449</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B177" t="s">
+        <v>452</v>
+      </c>
+      <c r="C177" t="s">
+        <v>193</v>
+      </c>
+      <c r="D177" t="s">
+        <v>221</v>
+      </c>
+      <c r="E177" t="s">
+        <v>450</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>454</v>
+      </c>
+      <c r="C178" t="s">
+        <v>193</v>
+      </c>
+      <c r="D178" t="s">
+        <v>221</v>
+      </c>
+      <c r="E178" t="s">
+        <v>453</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B179" t="s">
+        <v>454</v>
+      </c>
+      <c r="C179" t="s">
+        <v>193</v>
+      </c>
+      <c r="D179" t="s">
+        <v>222</v>
+      </c>
+      <c r="E179" t="s">
+        <v>456</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B180" t="s">
+        <v>230</v>
+      </c>
+      <c r="C180" t="s">
+        <v>193</v>
+      </c>
+      <c r="D180" t="s">
+        <v>221</v>
+      </c>
+      <c r="E180" t="s">
+        <v>458</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B181" t="s">
+        <v>230</v>
+      </c>
+      <c r="C181" t="s">
+        <v>193</v>
+      </c>
+      <c r="D181" t="s">
+        <v>221</v>
+      </c>
+      <c r="E181" t="s">
+        <v>459</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B182" t="s">
+        <v>230</v>
+      </c>
+      <c r="C182" t="s">
+        <v>193</v>
+      </c>
+      <c r="D182" t="s">
+        <v>221</v>
+      </c>
+      <c r="E182" t="s">
+        <v>461</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B183" t="s">
+        <v>230</v>
+      </c>
+      <c r="C183" t="s">
+        <v>193</v>
+      </c>
+      <c r="D183" t="s">
+        <v>221</v>
+      </c>
+      <c r="E183" t="s">
+        <v>463</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B184" t="s">
+        <v>230</v>
+      </c>
+      <c r="C184" t="s">
+        <v>193</v>
+      </c>
+      <c r="D184" t="s">
+        <v>221</v>
+      </c>
+      <c r="E184" t="s">
+        <v>352</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B185" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185" t="s">
+        <v>193</v>
+      </c>
+      <c r="D185" t="s">
+        <v>221</v>
+      </c>
+      <c r="E185" t="s">
+        <v>465</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B186" t="s">
+        <v>230</v>
+      </c>
+      <c r="C186" t="s">
+        <v>193</v>
+      </c>
+      <c r="D186" t="s">
+        <v>467</v>
+      </c>
+      <c r="E186" t="s">
+        <v>468</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B187" t="s">
+        <v>230</v>
+      </c>
+      <c r="C187" t="s">
+        <v>193</v>
+      </c>
+      <c r="D187" t="s">
+        <v>467</v>
+      </c>
+      <c r="E187" t="s">
+        <v>470</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B188" t="s">
+        <v>454</v>
+      </c>
+      <c r="C188" t="s">
+        <v>193</v>
+      </c>
+      <c r="D188" t="s">
+        <v>467</v>
+      </c>
+      <c r="E188" t="s">
+        <v>472</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B189" t="s">
+        <v>454</v>
+      </c>
+      <c r="C189" t="s">
+        <v>193</v>
+      </c>
+      <c r="D189" t="s">
+        <v>467</v>
+      </c>
+      <c r="E189" t="s">
+        <v>474</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B190" t="s">
+        <v>454</v>
+      </c>
+      <c r="C190" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190" t="s">
+        <v>467</v>
+      </c>
+      <c r="E190" t="s">
+        <v>476</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B191" t="s">
+        <v>454</v>
+      </c>
+      <c r="C191" t="s">
+        <v>193</v>
+      </c>
+      <c r="D191" t="s">
+        <v>406</v>
+      </c>
+      <c r="E191" t="s">
+        <v>478</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B192" t="s">
+        <v>454</v>
+      </c>
+      <c r="C192" t="s">
+        <v>193</v>
+      </c>
+      <c r="D192" t="s">
+        <v>221</v>
+      </c>
+      <c r="E192" t="s">
+        <v>480</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B193" t="s">
+        <v>454</v>
+      </c>
+      <c r="C193" t="s">
+        <v>193</v>
+      </c>
+      <c r="D193" t="s">
+        <v>221</v>
+      </c>
+      <c r="E193" t="s">
+        <v>482</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B194" t="s">
+        <v>485</v>
+      </c>
+      <c r="C194" t="s">
+        <v>193</v>
+      </c>
+      <c r="D194" t="s">
+        <v>428</v>
+      </c>
+      <c r="E194" t="s">
+        <v>484</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B195" t="s">
+        <v>488</v>
+      </c>
+      <c r="C195" t="s">
+        <v>193</v>
+      </c>
+      <c r="D195" t="s">
+        <v>489</v>
+      </c>
+      <c r="E195" t="s">
+        <v>487</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B196" t="s">
+        <v>488</v>
+      </c>
+      <c r="C196" t="s">
+        <v>193</v>
+      </c>
+      <c r="D196" t="s">
+        <v>266</v>
+      </c>
+      <c r="E196" t="s">
+        <v>491</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B197" t="s">
+        <v>230</v>
+      </c>
+      <c r="C197" t="s">
+        <v>193</v>
+      </c>
+      <c r="D197" t="s">
+        <v>494</v>
+      </c>
+      <c r="E197" t="s">
+        <v>493</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B198" t="s">
+        <v>230</v>
+      </c>
+      <c r="C198" t="s">
+        <v>193</v>
+      </c>
+      <c r="D198" t="s">
+        <v>221</v>
+      </c>
+      <c r="E198" t="s">
+        <v>496</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B199" t="s">
+        <v>499</v>
+      </c>
+      <c r="C199" t="s">
+        <v>193</v>
+      </c>
+      <c r="D199" t="s">
+        <v>221</v>
+      </c>
+      <c r="E199" t="s">
+        <v>498</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B200" t="s">
+        <v>502</v>
+      </c>
+      <c r="C200" t="s">
+        <v>193</v>
+      </c>
+      <c r="D200" t="s">
+        <v>503</v>
+      </c>
+      <c r="E200" t="s">
+        <v>501</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B201" t="s">
+        <v>502</v>
+      </c>
+      <c r="C201" t="s">
+        <v>193</v>
+      </c>
+      <c r="D201" t="s">
+        <v>503</v>
+      </c>
+      <c r="E201" t="s">
+        <v>505</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B202" t="s">
+        <v>499</v>
+      </c>
+      <c r="C202" t="s">
+        <v>193</v>
+      </c>
+      <c r="D202" t="s">
+        <v>223</v>
+      </c>
+      <c r="E202" t="s">
+        <v>507</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B203" t="s">
+        <v>499</v>
+      </c>
+      <c r="C203" t="s">
+        <v>193</v>
+      </c>
+      <c r="D203" t="s">
+        <v>193</v>
+      </c>
+      <c r="E203" t="s">
+        <v>509</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B204" t="s">
+        <v>230</v>
+      </c>
+      <c r="C204" t="s">
+        <v>193</v>
+      </c>
+      <c r="D204" t="s">
+        <v>512</v>
+      </c>
+      <c r="E204" t="s">
+        <v>511</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B205" t="s">
+        <v>251</v>
+      </c>
+      <c r="C205" t="s">
+        <v>193</v>
+      </c>
+      <c r="D205" t="s">
+        <v>225</v>
+      </c>
+      <c r="E205" t="s">
+        <v>514</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B206" t="s">
+        <v>230</v>
+      </c>
+      <c r="C206" t="s">
+        <v>193</v>
+      </c>
+      <c r="D206" t="s">
+        <v>517</v>
+      </c>
+      <c r="E206" t="s">
+        <v>516</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B207" t="s">
+        <v>521</v>
+      </c>
+      <c r="C207" t="s">
+        <v>193</v>
+      </c>
+      <c r="D207" t="s">
+        <v>489</v>
+      </c>
+      <c r="E207" t="s">
+        <v>519</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B208" t="s">
+        <v>229</v>
+      </c>
+      <c r="C208" t="s">
+        <v>193</v>
+      </c>
+      <c r="D208" t="s">
+        <v>221</v>
+      </c>
+      <c r="E208" t="s">
+        <v>522</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B209" t="s">
+        <v>525</v>
+      </c>
+      <c r="C209" t="s">
+        <v>193</v>
+      </c>
+      <c r="D209" t="s">
+        <v>193</v>
+      </c>
+      <c r="E209" t="s">
+        <v>524</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B210" t="s">
+        <v>529</v>
+      </c>
+      <c r="C210" t="s">
+        <v>193</v>
+      </c>
+      <c r="D210" t="s">
+        <v>467</v>
+      </c>
+      <c r="E210" t="s">
+        <v>528</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B211" t="s">
+        <v>230</v>
+      </c>
+      <c r="C211" t="s">
+        <v>193</v>
+      </c>
+      <c r="D211" t="s">
+        <v>392</v>
+      </c>
+      <c r="E211" t="s">
+        <v>530</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B212" t="s">
+        <v>230</v>
+      </c>
+      <c r="C212" t="s">
+        <v>193</v>
+      </c>
+      <c r="D212" t="s">
+        <v>193</v>
+      </c>
+      <c r="E212" t="s">
+        <v>532</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B213" t="s">
+        <v>230</v>
+      </c>
+      <c r="C213" t="s">
+        <v>193</v>
+      </c>
+      <c r="D213" t="s">
+        <v>428</v>
+      </c>
+      <c r="E213" t="s">
+        <v>534</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B214" t="s">
+        <v>454</v>
+      </c>
+      <c r="C214" t="s">
+        <v>193</v>
+      </c>
+      <c r="D214" t="s">
+        <v>467</v>
+      </c>
+      <c r="E214" t="s">
+        <v>536</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B215" t="s">
+        <v>230</v>
+      </c>
+      <c r="C215" t="s">
+        <v>193</v>
+      </c>
+      <c r="D215" t="s">
+        <v>193</v>
+      </c>
+      <c r="E215" t="s">
+        <v>538</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B216" t="s">
+        <v>145</v>
+      </c>
+      <c r="C216" t="s">
+        <v>193</v>
+      </c>
+      <c r="D216" t="s">
+        <v>193</v>
+      </c>
+      <c r="E216" t="s">
+        <v>540</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B217" t="s">
+        <v>488</v>
+      </c>
+      <c r="C217" t="s">
+        <v>193</v>
+      </c>
+      <c r="D217" t="s">
+        <v>428</v>
+      </c>
+      <c r="E217" t="s">
+        <v>542</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="219" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="220" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="221" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="222" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="223" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="224" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="228" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="229" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="230" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="231" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="232" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B233" t="s">
+        <v>549</v>
+      </c>
+      <c r="C233" t="s">
+        <v>544</v>
+      </c>
+      <c r="D233" t="s">
+        <v>545</v>
+      </c>
+      <c r="E233" t="s">
+        <v>550</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B234" t="s">
+        <v>548</v>
+      </c>
+      <c r="C234" t="s">
+        <v>554</v>
+      </c>
+      <c r="D234" t="s">
+        <v>545</v>
+      </c>
+      <c r="E234" t="s">
+        <v>552</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B235" t="s">
+        <v>548</v>
+      </c>
+      <c r="C235" t="s">
+        <v>544</v>
+      </c>
+      <c r="D235" t="s">
+        <v>545</v>
+      </c>
+      <c r="E235" t="s">
+        <v>555</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B236" t="s">
+        <v>549</v>
+      </c>
+      <c r="C236" t="s">
+        <v>554</v>
+      </c>
+      <c r="D236" t="s">
+        <v>545</v>
+      </c>
+      <c r="E236" t="s">
+        <v>557</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B237" t="s">
+        <v>548</v>
+      </c>
+      <c r="C237" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" t="s">
+        <v>27</v>
+      </c>
+      <c r="E237" t="s">
+        <v>559</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B238" t="s">
+        <v>562</v>
+      </c>
+      <c r="C238" t="s">
+        <v>193</v>
+      </c>
+      <c r="D238" t="s">
+        <v>193</v>
+      </c>
+      <c r="E238" t="s">
+        <v>561</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4198,32 +6514,128 @@
     <hyperlink ref="F124" r:id="rId121" xr:uid="{F2D76737-2ED3-4B28-9C36-E331187F2A2C}"/>
     <hyperlink ref="F125" r:id="rId122" xr:uid="{A091AACE-0440-4A8D-B4E6-460EC9E9F17B}"/>
     <hyperlink ref="F126" r:id="rId123" xr:uid="{8AA649A5-28AC-498E-AE83-29A660111662}"/>
+    <hyperlink ref="F134" r:id="rId124" xr:uid="{E0993E58-E319-45BF-B02A-1B5911659614}"/>
+    <hyperlink ref="F133" r:id="rId125" xr:uid="{27523606-DDFA-4E04-A4A1-5E7EBCD6B490}"/>
+    <hyperlink ref="F132" r:id="rId126" xr:uid="{C0558E03-5E9A-481F-9608-F7543E5B8817}"/>
+    <hyperlink ref="F131" r:id="rId127" xr:uid="{767B186D-F253-4FF1-BF91-C6B660C6DE5F}"/>
+    <hyperlink ref="F130" r:id="rId128" xr:uid="{8CB5388E-E3ED-44E0-80AD-D7E1EA1670C1}"/>
+    <hyperlink ref="F129" r:id="rId129" xr:uid="{39DFAADC-AD67-40C3-B126-96BBEB114D5E}"/>
+    <hyperlink ref="F128" r:id="rId130" xr:uid="{246547A4-4B8E-4F17-A35E-FAEE83B5FEB5}"/>
+    <hyperlink ref="F127" r:id="rId131" xr:uid="{4E8EB5F4-DB14-4F82-8D9A-CCEC66C8EF6A}"/>
+    <hyperlink ref="F135" r:id="rId132" xr:uid="{7B611EA8-950F-469E-855F-34516B8BA904}"/>
+    <hyperlink ref="F136" r:id="rId133" xr:uid="{CC2FF437-D45F-47AD-A37E-B54E31E8A0B3}"/>
+    <hyperlink ref="F138" r:id="rId134" xr:uid="{175423C9-6A96-439A-8442-E933DC25F47B}"/>
+    <hyperlink ref="F139" r:id="rId135" xr:uid="{BAD8FE59-0B17-4772-A3E3-817B022A6F4B}"/>
+    <hyperlink ref="F140" r:id="rId136" xr:uid="{D2174B4F-0B94-4C20-861C-AF1162D4642B}"/>
+    <hyperlink ref="F141" r:id="rId137" xr:uid="{87C1EADB-95D9-4AA9-A73A-BD9DD40F26F3}"/>
+    <hyperlink ref="F142" r:id="rId138" xr:uid="{B84504AF-0E5D-42F6-AACB-7113DC48C99B}"/>
+    <hyperlink ref="F143" r:id="rId139" xr:uid="{9EE90B78-706E-4D2B-A258-5C5ABC5CB70D}"/>
+    <hyperlink ref="F144" r:id="rId140" xr:uid="{BBA27838-B96A-4AD5-A136-73DAE61BAB91}"/>
+    <hyperlink ref="F145" r:id="rId141" xr:uid="{D9B2203C-F52A-4D92-993A-32D37C5E5DC8}"/>
+    <hyperlink ref="F146" r:id="rId142" xr:uid="{34BF0D80-D12B-4F79-96F1-56556F2AC5BD}"/>
+    <hyperlink ref="F147" r:id="rId143" xr:uid="{E231EFFD-4008-4411-B189-7A0560862792}"/>
+    <hyperlink ref="F148" r:id="rId144" xr:uid="{03B670DA-3E55-4231-93EC-5C91667725EF}"/>
+    <hyperlink ref="F149" r:id="rId145" xr:uid="{E35DB744-9CC1-425C-90F4-4DFCCFB6EFAF}"/>
+    <hyperlink ref="F150" r:id="rId146" xr:uid="{22BA2BFD-0B5D-4ED9-9E17-5F902DF2A5CB}"/>
+    <hyperlink ref="F151" r:id="rId147" xr:uid="{9CCD88F8-BF0E-4BCC-A1DA-B9871572899C}"/>
+    <hyperlink ref="F152" r:id="rId148" xr:uid="{55C464A2-2287-4C8F-AC66-C615D86912A4}"/>
+    <hyperlink ref="F153" r:id="rId149" xr:uid="{01E67FA9-872F-49BE-8EBD-AEABDCDDC9E1}"/>
+    <hyperlink ref="F154" r:id="rId150" xr:uid="{F5C7CE57-85AF-438B-BCC4-B9FB98D5EBD7}"/>
+    <hyperlink ref="F155" r:id="rId151" xr:uid="{2AFBA9DD-ACE8-433E-AEF6-EEA51FCC9306}"/>
+    <hyperlink ref="F156" r:id="rId152" xr:uid="{9F34662C-E69E-4F74-A44D-8FC225226649}"/>
+    <hyperlink ref="F157" r:id="rId153" xr:uid="{E6AC51C6-94F9-4162-AABE-6C71CACE239F}"/>
+    <hyperlink ref="F158" r:id="rId154" xr:uid="{81D43D91-6004-413D-89C9-D4BEE9185A91}"/>
+    <hyperlink ref="F159" r:id="rId155" xr:uid="{E5804485-AB42-4BD9-BE84-B971C538156C}"/>
+    <hyperlink ref="F160" r:id="rId156" xr:uid="{6C37228D-22DC-4156-B3F0-8BB1029EE08D}"/>
+    <hyperlink ref="F161" r:id="rId157" xr:uid="{D252069C-6CD1-4068-82DB-0799BE3E359F}"/>
+    <hyperlink ref="F162" r:id="rId158" xr:uid="{60EE9859-DDBC-45AE-A890-23DA0AD3EA54}"/>
+    <hyperlink ref="F163" r:id="rId159" xr:uid="{D5919994-03FE-46B2-A3B6-D27584F072A6}"/>
+    <hyperlink ref="F164" r:id="rId160" xr:uid="{EEE1AE6C-791A-4AFF-B2F2-BE6747B6AA12}"/>
+    <hyperlink ref="F165" r:id="rId161" xr:uid="{E39F7410-CE8D-449C-BDDE-65B9816815AB}"/>
+    <hyperlink ref="F166" r:id="rId162" xr:uid="{9C205DC6-50C4-474C-95D4-36123F512D50}"/>
+    <hyperlink ref="F167" r:id="rId163" xr:uid="{70872CB2-0F0C-43C8-A974-E06FA211804F}"/>
+    <hyperlink ref="F168" r:id="rId164" xr:uid="{5A1894F7-78E1-4E28-B098-23EB33223141}"/>
+    <hyperlink ref="F169" r:id="rId165" xr:uid="{9D5224B6-C2A6-4D9E-A8D8-715375F40D88}"/>
+    <hyperlink ref="F170" r:id="rId166" xr:uid="{D1227FA1-1514-4370-A554-8F5EDBB6515E}"/>
+    <hyperlink ref="F171" r:id="rId167" xr:uid="{6C97D6AC-5379-4CA1-9C36-F795F170967D}"/>
+    <hyperlink ref="F172" r:id="rId168" xr:uid="{CA9DC5C3-9D94-4004-ABFE-8F6FE26648A9}"/>
+    <hyperlink ref="F173" r:id="rId169" xr:uid="{36987537-6542-4299-A4B2-67CB7BA74878}"/>
+    <hyperlink ref="F174" r:id="rId170" xr:uid="{62DC7FE6-03DF-41FF-A2E8-B9FC2FD34132}"/>
+    <hyperlink ref="F175" r:id="rId171" xr:uid="{D6AE73E6-D28B-46C2-968C-5D23A8DDBDF3}"/>
+    <hyperlink ref="F176" r:id="rId172" xr:uid="{C8120345-B550-47F6-A3C4-62797B3A06D0}"/>
+    <hyperlink ref="F177" r:id="rId173" xr:uid="{22D4034A-5152-489B-B0DE-054A4174D93D}"/>
+    <hyperlink ref="F178" r:id="rId174" xr:uid="{5195D687-1A01-4C47-A1E3-9576A7C4AB61}"/>
+    <hyperlink ref="F179" r:id="rId175" xr:uid="{D5D03E1A-1F4C-4F91-826F-B7FE1866D5F5}"/>
+    <hyperlink ref="F180" r:id="rId176" xr:uid="{F3EAB030-D3A3-44B0-AB47-D8A100148B2B}"/>
+    <hyperlink ref="F181" r:id="rId177" xr:uid="{D5E90DA9-4E9B-430C-ADCF-265D012D539A}"/>
+    <hyperlink ref="F182" r:id="rId178" xr:uid="{86853094-9BD8-4F62-9779-56336C00CF15}"/>
+    <hyperlink ref="F183" r:id="rId179" xr:uid="{7B5FB326-3DCD-4DCA-8D5E-6EF5259FF36D}"/>
+    <hyperlink ref="F184" r:id="rId180" xr:uid="{B375EF15-94E0-416D-91C3-7563A7B5DC23}"/>
+    <hyperlink ref="F185" r:id="rId181" xr:uid="{8A8DCA89-A6FB-4E78-A1BE-AB1273016E0C}"/>
+    <hyperlink ref="F186" r:id="rId182" xr:uid="{7EA81EEA-8908-4922-A8FA-28C7C8F06A09}"/>
+    <hyperlink ref="F187" r:id="rId183" xr:uid="{886EA8F1-A356-4979-8043-C3B4AA7488EF}"/>
+    <hyperlink ref="F188" r:id="rId184" xr:uid="{15C874F0-418F-44DB-88F6-252EF63FFAA3}"/>
+    <hyperlink ref="F189" r:id="rId185" xr:uid="{C71DDE1B-D741-470B-BF87-D9F6F9D48012}"/>
+    <hyperlink ref="F190" r:id="rId186" xr:uid="{553EA47A-D12E-49AF-B712-8F72C39B5C23}"/>
+    <hyperlink ref="F191" r:id="rId187" xr:uid="{967E6126-6C2E-445B-B372-D62A87313747}"/>
+    <hyperlink ref="F192" r:id="rId188" xr:uid="{F1ADA1EB-AA95-401F-A190-F79A8F5E0637}"/>
+    <hyperlink ref="F193" r:id="rId189" xr:uid="{0CB8AAD3-4FB9-450D-9D46-BF4A648A6E6E}"/>
+    <hyperlink ref="F194" r:id="rId190" xr:uid="{4527B02A-B1DF-45AC-A0E2-0285B0856BF2}"/>
+    <hyperlink ref="F195" r:id="rId191" xr:uid="{DB48C7D0-1CAE-4016-B720-77CBE76E5083}"/>
+    <hyperlink ref="F196" r:id="rId192" xr:uid="{47111934-7E3D-4A56-ACE3-3F09CBF4F1C9}"/>
+    <hyperlink ref="F197" r:id="rId193" xr:uid="{8782A43F-8BFB-4FA5-95CC-A584F5D52797}"/>
+    <hyperlink ref="F198" r:id="rId194" xr:uid="{5FCE6177-B44C-40F8-BE3F-E4C8A7AF75F7}"/>
+    <hyperlink ref="F199" r:id="rId195" xr:uid="{0564D0FA-F058-4516-AC9A-D7B76A95AED1}"/>
+    <hyperlink ref="F200" r:id="rId196" xr:uid="{C438BE8E-3CB9-4295-9A86-C4985C9A3E20}"/>
+    <hyperlink ref="F201" r:id="rId197" xr:uid="{F0D93561-0055-4619-BAFA-C0FFDA3B3BCB}"/>
+    <hyperlink ref="F202" r:id="rId198" xr:uid="{4EE44733-1253-4469-A610-6BEF7452F3FC}"/>
+    <hyperlink ref="F203" r:id="rId199" xr:uid="{482AE41A-AB14-4EBE-BAC3-32C565A2AAEB}"/>
+    <hyperlink ref="F204" r:id="rId200" xr:uid="{D4E5D91D-F95A-4F1B-8F9B-49F882C79D84}"/>
+    <hyperlink ref="F205" r:id="rId201" xr:uid="{7A3C932C-D57D-4C68-9A4E-29AC076C4527}"/>
+    <hyperlink ref="F206" r:id="rId202" xr:uid="{DF5CA99A-1ADD-4EB1-8762-FCF370D3B866}"/>
+    <hyperlink ref="F207" r:id="rId203" xr:uid="{5D0D5702-0C73-46E0-9608-12360FBEDBFB}"/>
+    <hyperlink ref="F208" r:id="rId204" xr:uid="{12720382-B467-4F07-9BFF-5F709549A2DD}"/>
+    <hyperlink ref="F209" r:id="rId205" xr:uid="{C5C99D8E-28AD-47C6-B70A-710A946B0E15}"/>
+    <hyperlink ref="F210" r:id="rId206" xr:uid="{CB82A3A1-4804-4662-9F5A-C0EA50F0C897}"/>
+    <hyperlink ref="F211" r:id="rId207" location="cache" xr:uid="{56015F88-0EB3-410E-B99C-61413E15624F}"/>
+    <hyperlink ref="F212" r:id="rId208" xr:uid="{644DB288-980A-4682-A205-D648CDF06CFB}"/>
+    <hyperlink ref="F213" r:id="rId209" xr:uid="{C81BE023-D21C-4D33-9347-1FFCBCD2821F}"/>
+    <hyperlink ref="F214" r:id="rId210" xr:uid="{B2362B86-C3AE-4BF2-8EF7-4934286EF6E5}"/>
+    <hyperlink ref="F215" r:id="rId211" location="ctas" xr:uid="{76D45FD6-6437-400D-8DFB-B89A81EEF30D}"/>
+    <hyperlink ref="F216" r:id="rId212" xr:uid="{F2990EB2-BA7B-4E9B-8192-7080048B27F3}"/>
+    <hyperlink ref="F217" r:id="rId213" xr:uid="{CF1EF2F0-919E-4F13-8ED2-D10C69F86142}"/>
+    <hyperlink ref="F233" r:id="rId214" xr:uid="{F80E5732-C8B8-4DCB-B9CB-B1138CCBE0EB}"/>
+    <hyperlink ref="F234" r:id="rId215" xr:uid="{18E0CB79-F867-414A-A2BA-EFB290507F30}"/>
+    <hyperlink ref="F235" r:id="rId216" xr:uid="{C7F62E8E-80B5-45DC-AFA1-37E6CA87A713}"/>
+    <hyperlink ref="F236" r:id="rId217" xr:uid="{F6AC9F82-7C9C-4EB6-AF7A-517E2FCE0D88}"/>
+    <hyperlink ref="F237" r:id="rId218" xr:uid="{41A2FAB3-E1B9-4176-8384-EAB008B260E0}"/>
+    <hyperlink ref="F238" r:id="rId219" xr:uid="{A47A5162-2AA1-4ECD-8837-E6F21F3407E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId124"/>
+  <pageSetup orientation="portrait" r:id="rId220"/>
   <tableParts count="1">
-    <tablePart r:id="rId125"/>
+    <tablePart r:id="rId221"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
           <x14:formula1>
-            <xm:f>Values!$E$4:$E$53</xm:f>
+            <xm:f>Values!$E$4:$E$71</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D133</xm:sqref>
+          <xm:sqref>D2:D245</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B86FB78-95D8-4FFF-8DB6-A12E50721AA6}">
           <x14:formula1>
-            <xm:f>Values!$D$4:$D$20</xm:f>
+            <xm:f>Values!$D$4:$D$22</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C133</xm:sqref>
+          <xm:sqref>C2:C245</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8EBEEB8-B884-4C00-9B51-F5E336240EDE}">
           <x14:formula1>
-            <xm:f>Values!$C$4:$C$15</xm:f>
+            <xm:f>Values!$C$4:$C$27</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B133</xm:sqref>
+          <xm:sqref>B2:B245</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4272,104 +6684,104 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
         <v>319</v>
       </c>
-      <c r="C4" t="s">
-        <v>320</v>
-      </c>
       <c r="D4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="E4" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="E7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -4754,17 +7166,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A6014D-2E27-4F54-8034-C9E495B040EE}">
-  <dimension ref="C3:G53"/>
+  <dimension ref="C3:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4780,10 +7192,10 @@
         <v>185</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.35">
@@ -4797,7 +7209,7 @@
         <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -4805,117 +7217,117 @@
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>308</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>512</v>
       </c>
       <c r="F5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>145</v>
+        <v>549</v>
       </c>
       <c r="D6" t="s">
         <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>517</v>
       </c>
       <c r="F6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>230</v>
+        <v>548</v>
       </c>
       <c r="D7" t="s">
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>503</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>252</v>
+        <v>562</v>
       </c>
       <c r="D8" t="s">
         <v>192</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>494</v>
       </c>
       <c r="G8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>231</v>
+        <v>521</v>
       </c>
       <c r="D9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>489</v>
       </c>
       <c r="G9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>273</v>
+        <v>529</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>281</v>
+        <v>525</v>
       </c>
       <c r="D11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="G11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>282</v>
+        <v>502</v>
       </c>
       <c r="D12" t="s">
         <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>406</v>
       </c>
       <c r="G12" t="s">
         <v>100</v>
@@ -4923,261 +7335,396 @@
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>292</v>
+        <v>488</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>554</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>545</v>
       </c>
       <c r="G13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="5" t="s">
-        <v>316</v>
+      <c r="C14" t="s">
+        <v>452</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>544</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>546</v>
       </c>
       <c r="G14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>50</v>
+        <v>485</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>547</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>454</v>
+      </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>415</v>
       </c>
       <c r="G16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>426</v>
       </c>
       <c r="G17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="G18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
       <c r="D19" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
       <c r="D20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" t="s">
         <v>194</v>
       </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>280</v>
+      </c>
       <c r="E23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
       <c r="E24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>291</v>
+      </c>
       <c r="E25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C26" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="E26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
       <c r="E27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
-        <v>227</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>226</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
-        <v>224</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
-        <v>191</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
-        <v>267</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E58" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E62" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E63" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E68" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E70" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E71" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://mikedietrichde.com/" xr:uid="{B7788E53-1263-4F53-AA23-B995908F9C18}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Oracle_Knowledge_Links.xlsx
+++ b/Oracle_Knowledge_Links.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabya\gitrepos\oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264577B2-9836-4F48-A5F3-8DD2B6BC0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2980D896-0B10-4197-B8A3-C80B359EBF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oracle Links" sheetId="1" r:id="rId1"/>
+    <sheet name="Oracle and Linux Links" sheetId="1" r:id="rId1"/>
     <sheet name="Other Database" sheetId="3" r:id="rId2"/>
     <sheet name="Values" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="726">
   <si>
     <t>Serial No</t>
   </si>
@@ -1719,6 +1719,492 @@
   </si>
   <si>
     <t>https://blog.sqlora.com/en/not-in-vs-not-exists-the-negation-battle-joelkallmanday/</t>
+  </si>
+  <si>
+    <t>https://www.sqlpassion.at/archive/2024/10/14/comprehensive-guide-setting-up-postgresql-17-on-ubuntu-24-04/</t>
+  </si>
+  <si>
+    <t>Comprehensive Guide: Setting Up PostgreSQL 17 on Ubuntu 24.04</t>
+  </si>
+  <si>
+    <t>How to Configure PostgreSQL to allow remote connection</t>
+  </si>
+  <si>
+    <t>https://blog.devgenius.io/how-to-configure-postgresql-to-allow-remote-connection-c1d458510be4</t>
+  </si>
+  <si>
+    <t>https://www.postgresql.org/docs/17/creating-cluster.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2. Creating a Database Cluster </t>
+  </si>
+  <si>
+    <t>https://dba.stackexchange.com/questions/292431/postgresql-setup-initdb-with-custom-data-directory</t>
+  </si>
+  <si>
+    <t>postgresql-setup --initdb with custom data directory</t>
+  </si>
+  <si>
+    <t>How to Allow Remote Access to PostgreSQL database</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/18580066/how-to-allow-remote-access-to-postgresql-database</t>
+  </si>
+  <si>
+    <t>Postgres find configuration files in linux</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/47790659/postgres-find-configuration-files-in-linux</t>
+  </si>
+  <si>
+    <t>Analytics: 25 The KEEP clause</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y1O7LTjhPPM</t>
+  </si>
+  <si>
+    <t>How to Manually Install, Update, and Uninstall Fonts on Linux</t>
+  </si>
+  <si>
+    <t>https://medium.com/source-words/how-to-manually-install-update-and-uninstall-fonts-on-linux-a8d09a3853b0</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>vi/vim editor, copy a block (not usual action)</t>
+  </si>
+  <si>
+    <t>Vim</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/13447066/vi-vim-editor-copy-a-block-not-usual-action</t>
+  </si>
+  <si>
+    <t>Execution/Explain Plan</t>
+  </si>
+  <si>
+    <t>Explaining Explain Plans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ewgcjJ8gXyg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qCc-f24HLCU</t>
+  </si>
+  <si>
+    <t>The Biggest Database Challenge - App Deployment</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OJog42VkcBM</t>
+  </si>
+  <si>
+    <t>A whirlwind tour of Database Schema Changes Tracking Tools: Introduction</t>
+  </si>
+  <si>
+    <t>Keep It Simple Rafal Grzegorczyk</t>
+  </si>
+  <si>
+    <t>https://rafal.hashnode.dev/a-whirlwind-tour-of-database-schema-changes-tracking-tools-introduction</t>
+  </si>
+  <si>
+    <t>Part 2: Oracle SQLcl Liquibase</t>
+  </si>
+  <si>
+    <t>https://rafal.hashnode.dev/part-2-a-whirlwind-tour-of-database-schema-changes-tracking-tools-oracle-sqlcl-with-liquibase</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/cd/B28359_01/server.111/b28286/queries006.htm#SQLRF52331</t>
+  </si>
+  <si>
+    <t>Oracle Joins</t>
+  </si>
+  <si>
+    <t>Using Multiple SSH keys - Beginner Friendly</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/aprilmintacpineda/f101bf5fd34f1e6664497cf4b9b9345f</t>
+  </si>
+  <si>
+    <t>Misc Blogs</t>
+  </si>
+  <si>
+    <t>PostgreSQL Blog Get the Newest PostgreSQL Info, Tips &amp; Tricks</t>
+  </si>
+  <si>
+    <t>https://www.cybertec-postgresql.com/en/blog/</t>
+  </si>
+  <si>
+    <t>Oracle Forum</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Change the default location of Sql Developer config folder in other place than Appdata\Roaming</t>
+  </si>
+  <si>
+    <t>https://forums.oracle.com/ords/apexds/post/change-the-default-location-of-sql-developer-config-folder-4194</t>
+  </si>
+  <si>
+    <t>Oracle SQLcl 24.2, connection attempts and -thick -thin</t>
+  </si>
+  <si>
+    <t>https://www.thatjeffsmith.com/archive/2024/07/oracle-sqlcl-24-2-connection-attempts-and-thick-thin/</t>
+  </si>
+  <si>
+    <t>Outerjoins in Oracle</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/outerjoins-in-oracle</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Schema-less Graphs Using SQL</t>
+  </si>
+  <si>
+    <t>https://medium.com/oracledevs/1c2e03517ecc</t>
+  </si>
+  <si>
+    <t>Explain the Explain by Maria Colgan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OpPiJ2P5iPs&amp;list=PLeP7zHGDIa95AY1cD7zpKXlncSjtuReRT&amp;index=78</t>
+  </si>
+  <si>
+    <t>KDNuggets</t>
+  </si>
+  <si>
+    <t>Breaking Down DENSE_RANK(): A Step-by-Step Guide for SQL Enthusiasts</t>
+  </si>
+  <si>
+    <t>https://www.kdnuggets.com/breaking-down-denserank-a-step-by-step-guide-for-sql-enthusiasts</t>
+  </si>
+  <si>
+    <t>Linux Built-In Tools Are So Powerful, You Can Build a Database With Them. Here's How</t>
+  </si>
+  <si>
+    <t>https://www.howtogeek.com/build-a-database-with-powerful-linux-built-in-tools/</t>
+  </si>
+  <si>
+    <t>Database Star</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Data Load/Unload</t>
+  </si>
+  <si>
+    <t>How To Load One BILLION Rows into an SQL Database</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mr5o4_wMrwA</t>
+  </si>
+  <si>
+    <t>Gerald on IT</t>
+  </si>
+  <si>
+    <t>https://geraldonit.com/2024/01/31/1-billion-row-challenge-in-sql-and-oracle-database/</t>
+  </si>
+  <si>
+    <t>1 billion row challenge in SQL and Oracle Database</t>
+  </si>
+  <si>
+    <t>Percentage calculations using SQL Window Functions</t>
+  </si>
+  <si>
+    <t>https://geraldonit.com/2022/12/06/percentage-sql-window-functions/</t>
+  </si>
+  <si>
+    <t>Github Repo</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>oracle-db-examples</t>
+  </si>
+  <si>
+    <t>https://github.com/oracle-samples/oracle-db-examples/tree/main</t>
+  </si>
+  <si>
+    <t>StackOverflow DB</t>
+  </si>
+  <si>
+    <t>Brent Ozar</t>
+  </si>
+  <si>
+    <t>Download the Current Stack Overflow Database for Free (2021-06)</t>
+  </si>
+  <si>
+    <t>https://www.brentozar.com/archive/2021/06/download-the-current-stack-overflow-database-for-free-2021-06/</t>
+  </si>
+  <si>
+    <t>https://www.brentozar.com/archive/category/development/t-sql/</t>
+  </si>
+  <si>
+    <t>Brent Ozar Blogs</t>
+  </si>
+  <si>
+    <t>How to Generate a Useful SQL Execution Plan</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/optimizer/post/how-to-generate-a-useful-sql-execution-plan</t>
+  </si>
+  <si>
+    <t>OpenML</t>
+  </si>
+  <si>
+    <t>https://www.openml.org/search?type=data&amp;status=active</t>
+  </si>
+  <si>
+    <t>Sample Datasets</t>
+  </si>
+  <si>
+    <t>OpenML Datasets</t>
+  </si>
+  <si>
+    <t>https://oracle-base.com/blog/2024/04/03/search-trends-and-oracle/</t>
+  </si>
+  <si>
+    <t>Search Trends and Oracle</t>
+  </si>
+  <si>
+    <t>An Introduction to Linux Shell Scripting for DBAs</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/technical-resources/articles/linux/saternos-scripting.html</t>
+  </si>
+  <si>
+    <t>Writing Text to File Using Linux Cat Command</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/linux/cat-writing-file</t>
+  </si>
+  <si>
+    <t>Baeldung Linux Blog</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/linux/category/networking</t>
+  </si>
+  <si>
+    <t>Linux Networking</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/linux/tag/awk</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/linux/scripting-series</t>
+  </si>
+  <si>
+    <t>Linux Script Series</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/linux/tag/sed</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/linux/tag/grep</t>
+  </si>
+  <si>
+    <t>Networking Series</t>
+  </si>
+  <si>
+    <t>Linux awk Series</t>
+  </si>
+  <si>
+    <t>Linux sed Series</t>
+  </si>
+  <si>
+    <t>Linux grep Series</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/linux/tag/find</t>
+  </si>
+  <si>
+    <t>Linux find series</t>
+  </si>
+  <si>
+    <t>https://www.baeldung.com/linux/processes-guide</t>
+  </si>
+  <si>
+    <t>Linux process series</t>
+  </si>
+  <si>
+    <t>Kris Kringle the Database – WIDTH_BUCKET</t>
+  </si>
+  <si>
+    <t>https://connor-mcdonald.com/2024/12/05/kris-kringle-the-database-width_bucket/</t>
+  </si>
+  <si>
+    <t>Take control over your database: Automation and CI/CD with Liquibase</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rcrgqLOLz3Y</t>
+  </si>
+  <si>
+    <t>How to cancel a long running Oracle SQL query in VS Code</t>
+  </si>
+  <si>
+    <t>https://www.thatjeffsmith.com/archive/2024/11/how-to-cancel-a-long-running-oracle-sql-query-in-vs-code/</t>
+  </si>
+  <si>
+    <t>VS Code</t>
+  </si>
+  <si>
+    <t>SQL Dev Extension</t>
+  </si>
+  <si>
+    <t>Execution plans in Oracle SQL Developer for VS Code</t>
+  </si>
+  <si>
+    <t>https://www.thatjeffsmith.com/archive/2025/01/execution-plans-in-oracle-sql-developer-for-vs-code/</t>
+  </si>
+  <si>
+    <t>Copy and paste content from one file to another file in vi</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4620672/copy-and-paste-content-from-one-file-to-another-file-in-vi</t>
+  </si>
+  <si>
+    <t>Partition outer join in Oracle (data densification)</t>
+  </si>
+  <si>
+    <t>dbora</t>
+  </si>
+  <si>
+    <t>Datawarehousing</t>
+  </si>
+  <si>
+    <t>https://dbaora.com/partition-outer-join-oracle-data-densification-2/</t>
+  </si>
+  <si>
+    <t>Partition Outer Join</t>
+  </si>
+  <si>
+    <t>https://dbaora.com/learnings/</t>
+  </si>
+  <si>
+    <t>Dbora Blogs</t>
+  </si>
+  <si>
+    <t>Outer Join</t>
+  </si>
+  <si>
+    <t>https://asktom.oracle.com/ords/r/tech/catalog/session-landing-page?p2_event_id=42112249527759605581914420930388092719&amp;p2_join_yn=&amp;session_page=3&amp;clear=2&amp;session=614192393546602</t>
+  </si>
+  <si>
+    <t>Performance Tuning</t>
+  </si>
+  <si>
+    <t>Performance Tuning Basics 11 : Steps to analyze a performance problem</t>
+  </si>
+  <si>
+    <t>https://expertoracle.com/2017/12/07/performance-tuning-basics-11-steps-to-analyze-a-performance-problem/</t>
+  </si>
+  <si>
+    <t>Beginning Performance Tuning</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/beginning-performance-tuning</t>
+  </si>
+  <si>
+    <t>Beginning Performance Tuning: Active Session History</t>
+  </si>
+  <si>
+    <t>Arup Nanda</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/beginning-performance-tuning-active-session-history</t>
+  </si>
+  <si>
+    <t>Beginning Performance Tuning: Diagnose the Past</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/beginning-performance-tuning-diagnose-the-past</t>
+  </si>
+  <si>
+    <t>Smart Scans Meet Storage Indexes</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/smart-scans-meet-storage-indexes</t>
+  </si>
+  <si>
+    <t>Managing Audit Trails</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/managing-audit-trails</t>
+  </si>
+  <si>
+    <t>Use SQL plan management in Oracle Database 11g to optimize execution plans.</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/baselines-and-better-plans</t>
+  </si>
+  <si>
+    <t>Automating Parallelism</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/automating-parallelism</t>
+  </si>
+  <si>
+    <t>How to trace SQL sessions to identify Oracle Database bottlenecks</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/beginning-performance-tuning-trace-your-steps</t>
+  </si>
+  <si>
+    <t>Automatic and Easy</t>
+  </si>
+  <si>
+    <t>https://blogs.oracle.com/connect/post/automatic-and-easy</t>
+  </si>
+  <si>
+    <t>Oracle Database NLS_LANG FAQ</t>
+  </si>
+  <si>
+    <t>NLS</t>
+  </si>
+  <si>
+    <t>https://geraldonit.com/oracle/database/oracle-database-nls-lang-faq/</t>
+  </si>
+  <si>
+    <t>Redgate</t>
+  </si>
+  <si>
+    <t>Window Functions in SQL</t>
+  </si>
+  <si>
+    <t>https://www.red-gate.com/simple-talk/databases/sql-server/t-sql-programming-sql-server/window-functions-in-sql/</t>
+  </si>
+  <si>
+    <t>Housekeeping in Oracle: How to Get Rid of Old Data</t>
+  </si>
+  <si>
+    <t>https://danischnider.wordpress.com/2022/07/02/housekeeping-in-oracle-how-to-get-rid-of-old-data/</t>
+  </si>
+  <si>
+    <t>Data Warehousing with Oracle Dani Schnider's Blog</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Avoid Using COUNT() in SQL When You Could Use EXISTS()</t>
+  </si>
+  <si>
+    <t>https://blog.jooq.org/avoid-using-count-in-sql-when-you-could-use-exists/</t>
+  </si>
+  <si>
+    <t>https://connor-mcdonald.com/2024/10/16/sqlplus-access-without-an-os-login/</t>
+  </si>
+  <si>
+    <t>SQL*Plus access without an OS login</t>
   </si>
 </sst>
 </file>
@@ -1917,11 +2403,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}" name="Table1" displayName="Table1" ref="A1:F245" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="A1:F245" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}">
-    <filterColumn colId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}" name="Table1" displayName="Table1" ref="A1:F335" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
+  <autoFilter ref="A1:F335" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="SQL Tuning"/>
+        <filter val="Jeff Smith Blog"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2248,18 +2734,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EE77A-69C7-4F38-9C2C-6F33C504A344}">
-  <dimension ref="A1:F238"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F239" sqref="F239"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F336" sqref="F336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.1796875" customWidth="1"/>
     <col min="2" max="2" width="45.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.90625" customWidth="1"/>
     <col min="6" max="6" width="116.453125" bestFit="1" customWidth="1"/>
@@ -3185,7 +3671,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3565,7 +4051,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3865,7 +4351,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3885,7 +4371,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3925,7 +4411,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4025,7 +4511,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4145,7 +4631,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4365,7 +4851,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4385,7 +4871,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4657,7 +5143,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>251</v>
       </c>
@@ -4725,7 +5211,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>230</v>
       </c>
@@ -4742,7 +5228,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B128" t="s">
         <v>230</v>
       </c>
@@ -4759,7 +5245,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>230</v>
       </c>
@@ -4776,7 +5262,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B130" t="s">
         <v>230</v>
       </c>
@@ -4793,7 +5279,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B131" t="s">
         <v>230</v>
       </c>
@@ -4810,7 +5296,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>230</v>
       </c>
@@ -4827,7 +5313,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B133" t="s">
         <v>230</v>
       </c>
@@ -4844,7 +5330,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B134" t="s">
         <v>230</v>
       </c>
@@ -4861,7 +5347,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>230</v>
       </c>
@@ -4878,7 +5364,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>230</v>
       </c>
@@ -4895,7 +5381,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>230</v>
       </c>
@@ -4912,7 +5398,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B138" t="s">
         <v>230</v>
       </c>
@@ -4929,7 +5415,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
         <v>230</v>
       </c>
@@ -4946,7 +5432,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>230</v>
       </c>
@@ -4963,7 +5449,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
         <v>230</v>
       </c>
@@ -4980,7 +5466,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>230</v>
       </c>
@@ -4997,7 +5483,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B143" t="s">
         <v>230</v>
       </c>
@@ -5014,7 +5500,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B144" t="s">
         <v>230</v>
       </c>
@@ -5031,7 +5517,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>230</v>
       </c>
@@ -5048,7 +5534,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>230</v>
       </c>
@@ -5065,7 +5551,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
         <v>230</v>
       </c>
@@ -5082,7 +5568,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>230</v>
       </c>
@@ -5099,7 +5585,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>230</v>
       </c>
@@ -5116,7 +5602,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>230</v>
       </c>
@@ -5133,7 +5619,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>230</v>
       </c>
@@ -5150,7 +5636,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>230</v>
       </c>
@@ -5167,7 +5653,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>230</v>
       </c>
@@ -5184,7 +5670,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>230</v>
       </c>
@@ -5201,7 +5687,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>230</v>
       </c>
@@ -5218,7 +5704,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B156" t="s">
         <v>230</v>
       </c>
@@ -5235,7 +5721,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
         <v>230</v>
       </c>
@@ -5252,7 +5738,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>230</v>
       </c>
@@ -5269,7 +5755,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B159" t="s">
         <v>230</v>
       </c>
@@ -5286,7 +5772,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>230</v>
       </c>
@@ -5303,7 +5789,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>230</v>
       </c>
@@ -5320,7 +5806,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B162" t="s">
         <v>230</v>
       </c>
@@ -5337,7 +5823,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>230</v>
       </c>
@@ -5354,7 +5840,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>230</v>
       </c>
@@ -5371,7 +5857,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>230</v>
       </c>
@@ -5388,7 +5874,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B166" t="s">
         <v>230</v>
       </c>
@@ -5405,7 +5891,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B167" t="s">
         <v>230</v>
       </c>
@@ -5422,7 +5908,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>230</v>
       </c>
@@ -5439,7 +5925,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>230</v>
       </c>
@@ -5456,7 +5942,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>230</v>
       </c>
@@ -5473,7 +5959,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>230</v>
       </c>
@@ -5490,7 +5976,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>230</v>
       </c>
@@ -5507,7 +5993,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>230</v>
       </c>
@@ -5524,7 +6010,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
         <v>230</v>
       </c>
@@ -5541,7 +6027,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B175" t="s">
         <v>230</v>
       </c>
@@ -5558,7 +6044,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B176" t="s">
         <v>230</v>
       </c>
@@ -5575,7 +6061,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B177" t="s">
         <v>452</v>
       </c>
@@ -5592,7 +6078,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>454</v>
       </c>
@@ -5609,9 +6095,9 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B179" t="s">
-        <v>454</v>
+        <v>145</v>
       </c>
       <c r="C179" t="s">
         <v>193</v>
@@ -5623,10 +6109,10 @@
         <v>456</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.35">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B180" t="s">
         <v>230</v>
       </c>
@@ -5643,7 +6129,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>230</v>
       </c>
@@ -5660,7 +6146,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>230</v>
       </c>
@@ -5677,7 +6163,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>230</v>
       </c>
@@ -5694,7 +6180,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B184" t="s">
         <v>230</v>
       </c>
@@ -5711,7 +6197,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B185" t="s">
         <v>50</v>
       </c>
@@ -5728,7 +6214,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B186" t="s">
         <v>230</v>
       </c>
@@ -5745,7 +6231,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>230</v>
       </c>
@@ -5762,7 +6248,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>454</v>
       </c>
@@ -5779,7 +6265,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>454</v>
       </c>
@@ -5796,7 +6282,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B190" t="s">
         <v>454</v>
       </c>
@@ -5813,7 +6299,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B191" t="s">
         <v>454</v>
       </c>
@@ -5830,7 +6316,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B192" t="s">
         <v>454</v>
       </c>
@@ -5847,7 +6333,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>454</v>
       </c>
@@ -5864,7 +6350,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>485</v>
       </c>
@@ -5881,7 +6367,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>488</v>
       </c>
@@ -5898,7 +6384,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>488</v>
       </c>
@@ -5915,7 +6401,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>230</v>
       </c>
@@ -5932,7 +6418,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>230</v>
       </c>
@@ -5949,7 +6435,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>499</v>
       </c>
@@ -5966,7 +6452,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>502</v>
       </c>
@@ -5983,7 +6469,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>502</v>
       </c>
@@ -6000,7 +6486,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>499</v>
       </c>
@@ -6017,7 +6503,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>499</v>
       </c>
@@ -6034,7 +6520,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>230</v>
       </c>
@@ -6051,7 +6537,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>251</v>
       </c>
@@ -6068,7 +6554,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>230</v>
       </c>
@@ -6085,7 +6571,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>521</v>
       </c>
@@ -6102,7 +6588,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>229</v>
       </c>
@@ -6119,7 +6605,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>525</v>
       </c>
@@ -6136,7 +6622,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>529</v>
       </c>
@@ -6153,7 +6639,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B211" t="s">
         <v>230</v>
       </c>
@@ -6170,7 +6656,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>230</v>
       </c>
@@ -6187,7 +6673,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B213" t="s">
         <v>230</v>
       </c>
@@ -6204,7 +6690,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>454</v>
       </c>
@@ -6221,7 +6707,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>230</v>
       </c>
@@ -6238,7 +6724,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>145</v>
       </c>
@@ -6255,7 +6741,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>488</v>
       </c>
@@ -6272,22 +6758,262 @@
         <v>543</v>
       </c>
     </row>
-    <row r="218" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="219" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="220" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="221" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="222" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="223" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="224" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="228" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="229" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="230" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="231" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="232" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B218" t="s">
+        <v>251</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
+      </c>
+      <c r="E218" t="s">
+        <v>576</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B219" t="s">
+        <v>580</v>
+      </c>
+      <c r="C219" t="s">
+        <v>544</v>
+      </c>
+      <c r="D219" t="s">
+        <v>547</v>
+      </c>
+      <c r="E219" t="s">
+        <v>578</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B220" t="s">
+        <v>549</v>
+      </c>
+      <c r="C220" t="s">
+        <v>544</v>
+      </c>
+      <c r="D220" t="s">
+        <v>582</v>
+      </c>
+      <c r="E220" t="s">
+        <v>581</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B221" t="s">
+        <v>145</v>
+      </c>
+      <c r="C221" t="s">
+        <v>193</v>
+      </c>
+      <c r="D221" t="s">
+        <v>584</v>
+      </c>
+      <c r="E221" t="s">
+        <v>585</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B222" t="s">
+        <v>145</v>
+      </c>
+      <c r="C222" t="s">
+        <v>192</v>
+      </c>
+      <c r="D222" t="s">
+        <v>104</v>
+      </c>
+      <c r="E222" t="s">
+        <v>588</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B223" t="s">
+        <v>591</v>
+      </c>
+      <c r="C223" t="s">
+        <v>192</v>
+      </c>
+      <c r="D223" t="s">
+        <v>104</v>
+      </c>
+      <c r="E223" t="s">
+        <v>590</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B224" t="s">
+        <v>591</v>
+      </c>
+      <c r="C224" t="s">
+        <v>192</v>
+      </c>
+      <c r="D224" t="s">
+        <v>104</v>
+      </c>
+      <c r="E224" t="s">
+        <v>593</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B225" t="s">
+        <v>548</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>206</v>
+      </c>
+      <c r="E225" t="s">
+        <v>596</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B226" t="s">
+        <v>548</v>
+      </c>
+      <c r="C226" t="s">
+        <v>544</v>
+      </c>
+      <c r="D226" t="s">
+        <v>545</v>
+      </c>
+      <c r="E226" t="s">
+        <v>597</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B227" t="s">
+        <v>602</v>
+      </c>
+      <c r="C227" t="s">
+        <v>226</v>
+      </c>
+      <c r="D227" t="s">
+        <v>603</v>
+      </c>
+      <c r="E227" t="s">
+        <v>604</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B228" t="s">
+        <v>272</v>
+      </c>
+      <c r="C228" t="s">
+        <v>226</v>
+      </c>
+      <c r="D228" t="s">
+        <v>603</v>
+      </c>
+      <c r="E228" t="s">
+        <v>606</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B229" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" t="s">
+        <v>206</v>
+      </c>
+      <c r="E229" t="s">
+        <v>608</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B230" t="s">
+        <v>580</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" t="s">
+        <v>610</v>
+      </c>
+      <c r="E230" t="s">
+        <v>611</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B231" t="s">
+        <v>454</v>
+      </c>
+      <c r="C231" t="s">
+        <v>193</v>
+      </c>
+      <c r="D231" t="s">
+        <v>584</v>
+      </c>
+      <c r="E231" t="s">
+        <v>613</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B232" t="s">
+        <v>615</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" t="s">
+        <v>616</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B233" t="s">
         <v>549</v>
       </c>
@@ -6304,7 +7030,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>548</v>
       </c>
@@ -6321,7 +7047,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>548</v>
       </c>
@@ -6338,7 +7064,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B236" t="s">
         <v>549</v>
       </c>
@@ -6355,7 +7081,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>548</v>
       </c>
@@ -6372,7 +7098,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B238" t="s">
         <v>562</v>
       </c>
@@ -6389,6 +7115,775 @@
         <v>563</v>
       </c>
     </row>
+    <row r="239" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B239" t="s">
+        <v>548</v>
+      </c>
+      <c r="C239" t="s">
+        <v>544</v>
+      </c>
+      <c r="D239" t="s">
+        <v>547</v>
+      </c>
+      <c r="E239" t="s">
+        <v>618</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B240" t="s">
+        <v>620</v>
+      </c>
+      <c r="C240" t="s">
+        <v>621</v>
+      </c>
+      <c r="D240" t="s">
+        <v>622</v>
+      </c>
+      <c r="E240" t="s">
+        <v>623</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B241" t="s">
+        <v>625</v>
+      </c>
+      <c r="C241" t="s">
+        <v>621</v>
+      </c>
+      <c r="D241" t="s">
+        <v>622</v>
+      </c>
+      <c r="E241" t="s">
+        <v>627</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B242" t="s">
+        <v>625</v>
+      </c>
+      <c r="C242" t="s">
+        <v>5</v>
+      </c>
+      <c r="D242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E242" t="s">
+        <v>628</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B243" t="s">
+        <v>630</v>
+      </c>
+      <c r="C243" t="s">
+        <v>631</v>
+      </c>
+      <c r="D243" t="s">
+        <v>632</v>
+      </c>
+      <c r="E243" t="s">
+        <v>633</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B244" t="s">
+        <v>230</v>
+      </c>
+      <c r="C244" t="s">
+        <v>193</v>
+      </c>
+      <c r="D244" t="s">
+        <v>584</v>
+      </c>
+      <c r="E244" t="s">
+        <v>641</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B245" t="s">
+        <v>50</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" t="s">
+        <v>648</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B246" t="s">
+        <v>230</v>
+      </c>
+      <c r="C246" t="s">
+        <v>544</v>
+      </c>
+      <c r="D246" t="s">
+        <v>546</v>
+      </c>
+      <c r="E246" t="s">
+        <v>649</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B247" t="s">
+        <v>653</v>
+      </c>
+      <c r="C247" t="s">
+        <v>544</v>
+      </c>
+      <c r="D247" t="s">
+        <v>547</v>
+      </c>
+      <c r="E247" t="s">
+        <v>651</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B248" t="s">
+        <v>653</v>
+      </c>
+      <c r="C248" t="s">
+        <v>544</v>
+      </c>
+      <c r="D248" t="s">
+        <v>655</v>
+      </c>
+      <c r="E248" t="s">
+        <v>661</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B249" t="s">
+        <v>653</v>
+      </c>
+      <c r="C249" t="s">
+        <v>544</v>
+      </c>
+      <c r="D249" t="s">
+        <v>547</v>
+      </c>
+      <c r="E249" t="s">
+        <v>662</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B250" t="s">
+        <v>653</v>
+      </c>
+      <c r="C250" t="s">
+        <v>544</v>
+      </c>
+      <c r="D250" t="s">
+        <v>546</v>
+      </c>
+      <c r="E250" t="s">
+        <v>658</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B251" t="s">
+        <v>653</v>
+      </c>
+      <c r="C251" t="s">
+        <v>544</v>
+      </c>
+      <c r="D251" t="s">
+        <v>547</v>
+      </c>
+      <c r="E251" t="s">
+        <v>663</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B252" t="s">
+        <v>653</v>
+      </c>
+      <c r="C252" t="s">
+        <v>544</v>
+      </c>
+      <c r="D252" t="s">
+        <v>547</v>
+      </c>
+      <c r="E252" t="s">
+        <v>664</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B253" t="s">
+        <v>653</v>
+      </c>
+      <c r="C253" t="s">
+        <v>544</v>
+      </c>
+      <c r="D253" t="s">
+        <v>547</v>
+      </c>
+      <c r="E253" t="s">
+        <v>666</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B254" t="s">
+        <v>653</v>
+      </c>
+      <c r="C254" t="s">
+        <v>544</v>
+      </c>
+      <c r="D254" t="s">
+        <v>547</v>
+      </c>
+      <c r="E254" t="s">
+        <v>668</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B255" t="s">
+        <v>251</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
+      </c>
+      <c r="D255" t="s">
+        <v>6</v>
+      </c>
+      <c r="E255" t="s">
+        <v>669</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B256" t="s">
+        <v>454</v>
+      </c>
+      <c r="C256" t="s">
+        <v>192</v>
+      </c>
+      <c r="D256" t="s">
+        <v>104</v>
+      </c>
+      <c r="E256" t="s">
+        <v>671</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B257" t="s">
+        <v>272</v>
+      </c>
+      <c r="C257" t="s">
+        <v>675</v>
+      </c>
+      <c r="D257" t="s">
+        <v>676</v>
+      </c>
+      <c r="E257" t="s">
+        <v>673</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B258" t="s">
+        <v>272</v>
+      </c>
+      <c r="C258" t="s">
+        <v>675</v>
+      </c>
+      <c r="D258" t="s">
+        <v>676</v>
+      </c>
+      <c r="E258" t="s">
+        <v>677</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B259" t="s">
+        <v>549</v>
+      </c>
+      <c r="C259" t="s">
+        <v>544</v>
+      </c>
+      <c r="D259" t="s">
+        <v>582</v>
+      </c>
+      <c r="E259" t="s">
+        <v>679</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B260" t="s">
+        <v>682</v>
+      </c>
+      <c r="C260" t="s">
+        <v>683</v>
+      </c>
+      <c r="D260" t="s">
+        <v>685</v>
+      </c>
+      <c r="E260" t="s">
+        <v>681</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B261" t="s">
+        <v>682</v>
+      </c>
+      <c r="C261" t="s">
+        <v>683</v>
+      </c>
+      <c r="D261" t="s">
+        <v>632</v>
+      </c>
+      <c r="E261" t="s">
+        <v>687</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B262" t="s">
+        <v>230</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>688</v>
+      </c>
+      <c r="E262" t="s">
+        <v>608</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B263" t="s">
+        <v>251</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+      <c r="D263" t="s">
+        <v>6</v>
+      </c>
+      <c r="E263" t="s">
+        <v>576</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B264" t="s">
+        <v>229</v>
+      </c>
+      <c r="C264" t="s">
+        <v>192</v>
+      </c>
+      <c r="D264" t="s">
+        <v>104</v>
+      </c>
+      <c r="E264" t="s">
+        <v>588</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B265" t="s">
+        <v>145</v>
+      </c>
+      <c r="C265" t="s">
+        <v>192</v>
+      </c>
+      <c r="D265" t="s">
+        <v>104</v>
+      </c>
+      <c r="E265" t="s">
+        <v>588</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B266" t="s">
+        <v>548</v>
+      </c>
+      <c r="C266" t="s">
+        <v>690</v>
+      </c>
+      <c r="D266" t="s">
+        <v>193</v>
+      </c>
+      <c r="E266" t="s">
+        <v>691</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B267" t="s">
+        <v>696</v>
+      </c>
+      <c r="C267" t="s">
+        <v>690</v>
+      </c>
+      <c r="D267" t="s">
+        <v>193</v>
+      </c>
+      <c r="E267" t="s">
+        <v>693</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B268" t="s">
+        <v>696</v>
+      </c>
+      <c r="C268" t="s">
+        <v>690</v>
+      </c>
+      <c r="D268" t="s">
+        <v>193</v>
+      </c>
+      <c r="E268" t="s">
+        <v>695</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B269" t="s">
+        <v>696</v>
+      </c>
+      <c r="C269" t="s">
+        <v>690</v>
+      </c>
+      <c r="D269" t="s">
+        <v>193</v>
+      </c>
+      <c r="E269" t="s">
+        <v>698</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B270" t="s">
+        <v>696</v>
+      </c>
+      <c r="C270" t="s">
+        <v>690</v>
+      </c>
+      <c r="D270" t="s">
+        <v>193</v>
+      </c>
+      <c r="E270" t="s">
+        <v>700</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B271" t="s">
+        <v>696</v>
+      </c>
+      <c r="C271" t="s">
+        <v>690</v>
+      </c>
+      <c r="D271" t="s">
+        <v>193</v>
+      </c>
+      <c r="E271" t="s">
+        <v>702</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B272" t="s">
+        <v>696</v>
+      </c>
+      <c r="C272" t="s">
+        <v>690</v>
+      </c>
+      <c r="D272" t="s">
+        <v>193</v>
+      </c>
+      <c r="E272" t="s">
+        <v>704</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B273" t="s">
+        <v>696</v>
+      </c>
+      <c r="C273" t="s">
+        <v>690</v>
+      </c>
+      <c r="D273" t="s">
+        <v>193</v>
+      </c>
+      <c r="E273" t="s">
+        <v>706</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B274" t="s">
+        <v>696</v>
+      </c>
+      <c r="C274" t="s">
+        <v>690</v>
+      </c>
+      <c r="D274" t="s">
+        <v>193</v>
+      </c>
+      <c r="E274" t="s">
+        <v>708</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B275" t="s">
+        <v>696</v>
+      </c>
+      <c r="C275" t="s">
+        <v>683</v>
+      </c>
+      <c r="D275" t="s">
+        <v>279</v>
+      </c>
+      <c r="E275" t="s">
+        <v>710</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B276" t="s">
+        <v>625</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" t="s">
+        <v>713</v>
+      </c>
+      <c r="E276" t="s">
+        <v>712</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B277" t="s">
+        <v>715</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+      <c r="D277" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" t="s">
+        <v>716</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B278" t="s">
+        <v>720</v>
+      </c>
+      <c r="C278" t="s">
+        <v>683</v>
+      </c>
+      <c r="D278" t="s">
+        <v>721</v>
+      </c>
+      <c r="E278" t="s">
+        <v>718</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B279" t="s">
+        <v>548</v>
+      </c>
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" t="s">
+        <v>193</v>
+      </c>
+      <c r="E279" t="s">
+        <v>722</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B280" t="s">
+        <v>251</v>
+      </c>
+      <c r="C280" t="s">
+        <v>228</v>
+      </c>
+      <c r="D280" t="s">
+        <v>228</v>
+      </c>
+      <c r="E280" t="s">
+        <v>725</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="282" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="283" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="284" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="285" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="286" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="287" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="288" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="289" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="290" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="291" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="292" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="293" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="294" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="295" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="296" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="297" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="298" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="299" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="300" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="301" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="302" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="303" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="304" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="305" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="306" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="307" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="308" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="309" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="310" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="311" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="312" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="313" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="314" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="315" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="316" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="317" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="318" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="319" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="320" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="321" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="322" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="323" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="324" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="325" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="326" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="327" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="328" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="329" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="330" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="331" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="332" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="333" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="334" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="335" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{02761047-99F3-421A-BA67-554FF763D70E}"/>
@@ -6565,77 +8060,133 @@
     <hyperlink ref="F176" r:id="rId172" xr:uid="{C8120345-B550-47F6-A3C4-62797B3A06D0}"/>
     <hyperlink ref="F177" r:id="rId173" xr:uid="{22D4034A-5152-489B-B0DE-054A4174D93D}"/>
     <hyperlink ref="F178" r:id="rId174" xr:uid="{5195D687-1A01-4C47-A1E3-9576A7C4AB61}"/>
-    <hyperlink ref="F179" r:id="rId175" xr:uid="{D5D03E1A-1F4C-4F91-826F-B7FE1866D5F5}"/>
-    <hyperlink ref="F180" r:id="rId176" xr:uid="{F3EAB030-D3A3-44B0-AB47-D8A100148B2B}"/>
-    <hyperlink ref="F181" r:id="rId177" xr:uid="{D5E90DA9-4E9B-430C-ADCF-265D012D539A}"/>
-    <hyperlink ref="F182" r:id="rId178" xr:uid="{86853094-9BD8-4F62-9779-56336C00CF15}"/>
-    <hyperlink ref="F183" r:id="rId179" xr:uid="{7B5FB326-3DCD-4DCA-8D5E-6EF5259FF36D}"/>
-    <hyperlink ref="F184" r:id="rId180" xr:uid="{B375EF15-94E0-416D-91C3-7563A7B5DC23}"/>
-    <hyperlink ref="F185" r:id="rId181" xr:uid="{8A8DCA89-A6FB-4E78-A1BE-AB1273016E0C}"/>
-    <hyperlink ref="F186" r:id="rId182" xr:uid="{7EA81EEA-8908-4922-A8FA-28C7C8F06A09}"/>
-    <hyperlink ref="F187" r:id="rId183" xr:uid="{886EA8F1-A356-4979-8043-C3B4AA7488EF}"/>
-    <hyperlink ref="F188" r:id="rId184" xr:uid="{15C874F0-418F-44DB-88F6-252EF63FFAA3}"/>
-    <hyperlink ref="F189" r:id="rId185" xr:uid="{C71DDE1B-D741-470B-BF87-D9F6F9D48012}"/>
-    <hyperlink ref="F190" r:id="rId186" xr:uid="{553EA47A-D12E-49AF-B712-8F72C39B5C23}"/>
-    <hyperlink ref="F191" r:id="rId187" xr:uid="{967E6126-6C2E-445B-B372-D62A87313747}"/>
-    <hyperlink ref="F192" r:id="rId188" xr:uid="{F1ADA1EB-AA95-401F-A190-F79A8F5E0637}"/>
-    <hyperlink ref="F193" r:id="rId189" xr:uid="{0CB8AAD3-4FB9-450D-9D46-BF4A648A6E6E}"/>
-    <hyperlink ref="F194" r:id="rId190" xr:uid="{4527B02A-B1DF-45AC-A0E2-0285B0856BF2}"/>
-    <hyperlink ref="F195" r:id="rId191" xr:uid="{DB48C7D0-1CAE-4016-B720-77CBE76E5083}"/>
-    <hyperlink ref="F196" r:id="rId192" xr:uid="{47111934-7E3D-4A56-ACE3-3F09CBF4F1C9}"/>
-    <hyperlink ref="F197" r:id="rId193" xr:uid="{8782A43F-8BFB-4FA5-95CC-A584F5D52797}"/>
-    <hyperlink ref="F198" r:id="rId194" xr:uid="{5FCE6177-B44C-40F8-BE3F-E4C8A7AF75F7}"/>
-    <hyperlink ref="F199" r:id="rId195" xr:uid="{0564D0FA-F058-4516-AC9A-D7B76A95AED1}"/>
-    <hyperlink ref="F200" r:id="rId196" xr:uid="{C438BE8E-3CB9-4295-9A86-C4985C9A3E20}"/>
-    <hyperlink ref="F201" r:id="rId197" xr:uid="{F0D93561-0055-4619-BAFA-C0FFDA3B3BCB}"/>
-    <hyperlink ref="F202" r:id="rId198" xr:uid="{4EE44733-1253-4469-A610-6BEF7452F3FC}"/>
-    <hyperlink ref="F203" r:id="rId199" xr:uid="{482AE41A-AB14-4EBE-BAC3-32C565A2AAEB}"/>
-    <hyperlink ref="F204" r:id="rId200" xr:uid="{D4E5D91D-F95A-4F1B-8F9B-49F882C79D84}"/>
-    <hyperlink ref="F205" r:id="rId201" xr:uid="{7A3C932C-D57D-4C68-9A4E-29AC076C4527}"/>
-    <hyperlink ref="F206" r:id="rId202" xr:uid="{DF5CA99A-1ADD-4EB1-8762-FCF370D3B866}"/>
-    <hyperlink ref="F207" r:id="rId203" xr:uid="{5D0D5702-0C73-46E0-9608-12360FBEDBFB}"/>
-    <hyperlink ref="F208" r:id="rId204" xr:uid="{12720382-B467-4F07-9BFF-5F709549A2DD}"/>
-    <hyperlink ref="F209" r:id="rId205" xr:uid="{C5C99D8E-28AD-47C6-B70A-710A946B0E15}"/>
-    <hyperlink ref="F210" r:id="rId206" xr:uid="{CB82A3A1-4804-4662-9F5A-C0EA50F0C897}"/>
-    <hyperlink ref="F211" r:id="rId207" location="cache" xr:uid="{56015F88-0EB3-410E-B99C-61413E15624F}"/>
-    <hyperlink ref="F212" r:id="rId208" xr:uid="{644DB288-980A-4682-A205-D648CDF06CFB}"/>
-    <hyperlink ref="F213" r:id="rId209" xr:uid="{C81BE023-D21C-4D33-9347-1FFCBCD2821F}"/>
-    <hyperlink ref="F214" r:id="rId210" xr:uid="{B2362B86-C3AE-4BF2-8EF7-4934286EF6E5}"/>
-    <hyperlink ref="F215" r:id="rId211" location="ctas" xr:uid="{76D45FD6-6437-400D-8DFB-B89A81EEF30D}"/>
-    <hyperlink ref="F216" r:id="rId212" xr:uid="{F2990EB2-BA7B-4E9B-8192-7080048B27F3}"/>
-    <hyperlink ref="F217" r:id="rId213" xr:uid="{CF1EF2F0-919E-4F13-8ED2-D10C69F86142}"/>
-    <hyperlink ref="F233" r:id="rId214" xr:uid="{F80E5732-C8B8-4DCB-B9CB-B1138CCBE0EB}"/>
-    <hyperlink ref="F234" r:id="rId215" xr:uid="{18E0CB79-F867-414A-A2BA-EFB290507F30}"/>
-    <hyperlink ref="F235" r:id="rId216" xr:uid="{C7F62E8E-80B5-45DC-AFA1-37E6CA87A713}"/>
-    <hyperlink ref="F236" r:id="rId217" xr:uid="{F6AC9F82-7C9C-4EB6-AF7A-517E2FCE0D88}"/>
-    <hyperlink ref="F237" r:id="rId218" xr:uid="{41A2FAB3-E1B9-4176-8384-EAB008B260E0}"/>
-    <hyperlink ref="F238" r:id="rId219" xr:uid="{A47A5162-2AA1-4ECD-8837-E6F21F3407E6}"/>
+    <hyperlink ref="F180" r:id="rId175" xr:uid="{F3EAB030-D3A3-44B0-AB47-D8A100148B2B}"/>
+    <hyperlink ref="F181" r:id="rId176" xr:uid="{D5E90DA9-4E9B-430C-ADCF-265D012D539A}"/>
+    <hyperlink ref="F182" r:id="rId177" xr:uid="{86853094-9BD8-4F62-9779-56336C00CF15}"/>
+    <hyperlink ref="F183" r:id="rId178" xr:uid="{7B5FB326-3DCD-4DCA-8D5E-6EF5259FF36D}"/>
+    <hyperlink ref="F184" r:id="rId179" xr:uid="{B375EF15-94E0-416D-91C3-7563A7B5DC23}"/>
+    <hyperlink ref="F185" r:id="rId180" xr:uid="{8A8DCA89-A6FB-4E78-A1BE-AB1273016E0C}"/>
+    <hyperlink ref="F186" r:id="rId181" xr:uid="{7EA81EEA-8908-4922-A8FA-28C7C8F06A09}"/>
+    <hyperlink ref="F187" r:id="rId182" xr:uid="{886EA8F1-A356-4979-8043-C3B4AA7488EF}"/>
+    <hyperlink ref="F188" r:id="rId183" xr:uid="{15C874F0-418F-44DB-88F6-252EF63FFAA3}"/>
+    <hyperlink ref="F189" r:id="rId184" xr:uid="{C71DDE1B-D741-470B-BF87-D9F6F9D48012}"/>
+    <hyperlink ref="F190" r:id="rId185" xr:uid="{553EA47A-D12E-49AF-B712-8F72C39B5C23}"/>
+    <hyperlink ref="F191" r:id="rId186" xr:uid="{967E6126-6C2E-445B-B372-D62A87313747}"/>
+    <hyperlink ref="F192" r:id="rId187" xr:uid="{F1ADA1EB-AA95-401F-A190-F79A8F5E0637}"/>
+    <hyperlink ref="F193" r:id="rId188" xr:uid="{0CB8AAD3-4FB9-450D-9D46-BF4A648A6E6E}"/>
+    <hyperlink ref="F194" r:id="rId189" xr:uid="{4527B02A-B1DF-45AC-A0E2-0285B0856BF2}"/>
+    <hyperlink ref="F195" r:id="rId190" xr:uid="{DB48C7D0-1CAE-4016-B720-77CBE76E5083}"/>
+    <hyperlink ref="F196" r:id="rId191" xr:uid="{47111934-7E3D-4A56-ACE3-3F09CBF4F1C9}"/>
+    <hyperlink ref="F197" r:id="rId192" xr:uid="{8782A43F-8BFB-4FA5-95CC-A584F5D52797}"/>
+    <hyperlink ref="F198" r:id="rId193" xr:uid="{5FCE6177-B44C-40F8-BE3F-E4C8A7AF75F7}"/>
+    <hyperlink ref="F199" r:id="rId194" xr:uid="{0564D0FA-F058-4516-AC9A-D7B76A95AED1}"/>
+    <hyperlink ref="F200" r:id="rId195" xr:uid="{C438BE8E-3CB9-4295-9A86-C4985C9A3E20}"/>
+    <hyperlink ref="F201" r:id="rId196" xr:uid="{F0D93561-0055-4619-BAFA-C0FFDA3B3BCB}"/>
+    <hyperlink ref="F202" r:id="rId197" xr:uid="{4EE44733-1253-4469-A610-6BEF7452F3FC}"/>
+    <hyperlink ref="F203" r:id="rId198" xr:uid="{482AE41A-AB14-4EBE-BAC3-32C565A2AAEB}"/>
+    <hyperlink ref="F204" r:id="rId199" xr:uid="{D4E5D91D-F95A-4F1B-8F9B-49F882C79D84}"/>
+    <hyperlink ref="F205" r:id="rId200" xr:uid="{7A3C932C-D57D-4C68-9A4E-29AC076C4527}"/>
+    <hyperlink ref="F206" r:id="rId201" xr:uid="{DF5CA99A-1ADD-4EB1-8762-FCF370D3B866}"/>
+    <hyperlink ref="F207" r:id="rId202" xr:uid="{5D0D5702-0C73-46E0-9608-12360FBEDBFB}"/>
+    <hyperlink ref="F208" r:id="rId203" xr:uid="{12720382-B467-4F07-9BFF-5F709549A2DD}"/>
+    <hyperlink ref="F209" r:id="rId204" xr:uid="{C5C99D8E-28AD-47C6-B70A-710A946B0E15}"/>
+    <hyperlink ref="F210" r:id="rId205" xr:uid="{CB82A3A1-4804-4662-9F5A-C0EA50F0C897}"/>
+    <hyperlink ref="F211" r:id="rId206" location="cache" xr:uid="{56015F88-0EB3-410E-B99C-61413E15624F}"/>
+    <hyperlink ref="F212" r:id="rId207" xr:uid="{644DB288-980A-4682-A205-D648CDF06CFB}"/>
+    <hyperlink ref="F213" r:id="rId208" xr:uid="{C81BE023-D21C-4D33-9347-1FFCBCD2821F}"/>
+    <hyperlink ref="F214" r:id="rId209" xr:uid="{B2362B86-C3AE-4BF2-8EF7-4934286EF6E5}"/>
+    <hyperlink ref="F215" r:id="rId210" location="ctas" xr:uid="{76D45FD6-6437-400D-8DFB-B89A81EEF30D}"/>
+    <hyperlink ref="F216" r:id="rId211" xr:uid="{F2990EB2-BA7B-4E9B-8192-7080048B27F3}"/>
+    <hyperlink ref="F217" r:id="rId212" xr:uid="{CF1EF2F0-919E-4F13-8ED2-D10C69F86142}"/>
+    <hyperlink ref="F233" r:id="rId213" xr:uid="{F80E5732-C8B8-4DCB-B9CB-B1138CCBE0EB}"/>
+    <hyperlink ref="F234" r:id="rId214" xr:uid="{18E0CB79-F867-414A-A2BA-EFB290507F30}"/>
+    <hyperlink ref="F235" r:id="rId215" xr:uid="{C7F62E8E-80B5-45DC-AFA1-37E6CA87A713}"/>
+    <hyperlink ref="F236" r:id="rId216" xr:uid="{F6AC9F82-7C9C-4EB6-AF7A-517E2FCE0D88}"/>
+    <hyperlink ref="F237" r:id="rId217" xr:uid="{41A2FAB3-E1B9-4176-8384-EAB008B260E0}"/>
+    <hyperlink ref="F238" r:id="rId218" xr:uid="{A47A5162-2AA1-4ECD-8837-E6F21F3407E6}"/>
+    <hyperlink ref="F218" r:id="rId219" xr:uid="{C1976308-4890-485A-966F-4F4A349B2D81}"/>
+    <hyperlink ref="F219" r:id="rId220" xr:uid="{41AA2B32-DCD0-42A4-ACE9-06A018B6D53C}"/>
+    <hyperlink ref="F220" r:id="rId221" xr:uid="{6B484C50-53BF-4DE8-B46C-F01EA38F3036}"/>
+    <hyperlink ref="F221" r:id="rId222" xr:uid="{796D0FED-D1EC-4828-BA17-04F8439FCC6A}"/>
+    <hyperlink ref="F222" r:id="rId223" xr:uid="{7D7CDEFD-70F7-41DD-A60D-25E407766648}"/>
+    <hyperlink ref="F179" r:id="rId224" xr:uid="{BABFD589-AC91-4EDA-929D-3092BFD54F4A}"/>
+    <hyperlink ref="F223" r:id="rId225" xr:uid="{211D3A21-95A0-4E47-8790-6CECE4F42AA6}"/>
+    <hyperlink ref="F224" r:id="rId226" xr:uid="{4CF10056-87E5-48B7-A7B5-48FBE6EA2AC5}"/>
+    <hyperlink ref="F225" r:id="rId227" location="SQLRF52331" xr:uid="{B5125A53-0EAD-4BE9-BF8C-835A3D02E899}"/>
+    <hyperlink ref="F226" r:id="rId228" xr:uid="{BD11B99B-B18F-4D7F-8764-31C7F83B58D2}"/>
+    <hyperlink ref="F227" r:id="rId229" xr:uid="{A52C8CD8-31FD-4E95-894B-58AC725FF797}"/>
+    <hyperlink ref="F228" r:id="rId230" xr:uid="{5296F565-964A-46BD-9F9A-7739D991A401}"/>
+    <hyperlink ref="F229" r:id="rId231" xr:uid="{E44F5EA2-B695-4B30-B4C8-1DB89D328CF0}"/>
+    <hyperlink ref="F230" r:id="rId232" xr:uid="{DA33C0E4-53A2-4189-A6ED-BE5F767B4A5B}"/>
+    <hyperlink ref="F231" r:id="rId233" xr:uid="{56F581BC-EB99-4BAB-9560-DB12F187B9D6}"/>
+    <hyperlink ref="F232" r:id="rId234" xr:uid="{D27E3150-98BD-400E-B206-38C43754EBF1}"/>
+    <hyperlink ref="F239" r:id="rId235" xr:uid="{2AE47409-591D-45A2-88FA-F85B464A736F}"/>
+    <hyperlink ref="F240" r:id="rId236" xr:uid="{E814CE36-3A02-413B-84F3-3A1502EA13F3}"/>
+    <hyperlink ref="F241" r:id="rId237" xr:uid="{4E49AA02-55A9-499F-BD9A-D80704C2DCB9}"/>
+    <hyperlink ref="F242" r:id="rId238" xr:uid="{6E6C6526-C893-4428-A904-E91B6184B7A4}"/>
+    <hyperlink ref="F243" r:id="rId239" xr:uid="{AB8E9274-5B14-4979-ACCE-029150D2FBE8}"/>
+    <hyperlink ref="F244" r:id="rId240" xr:uid="{19C25B38-D343-4EC1-A0FE-D14D5F1AE250}"/>
+    <hyperlink ref="F245" r:id="rId241" xr:uid="{6285AC2C-7C6E-4755-943A-8C9CF973D73B}"/>
+    <hyperlink ref="F246" r:id="rId242" xr:uid="{C66CA3A4-0C21-471E-8E20-C7F45FF7FA59}"/>
+    <hyperlink ref="F247" r:id="rId243" xr:uid="{C8628078-6A26-4215-B43D-7B86A4DFDBF4}"/>
+    <hyperlink ref="F248" r:id="rId244" xr:uid="{CEB8F279-B76B-4562-BE76-791513D15EA1}"/>
+    <hyperlink ref="F249" r:id="rId245" xr:uid="{822F018A-2C23-446E-9ACD-418945F990F8}"/>
+    <hyperlink ref="F250" r:id="rId246" xr:uid="{7FFB130F-B1EE-4256-B6BE-3B8E45115D08}"/>
+    <hyperlink ref="F251" r:id="rId247" xr:uid="{8855CEB0-45FA-4AEC-BAA4-73DCD812BAB3}"/>
+    <hyperlink ref="F252" r:id="rId248" xr:uid="{729BB8DA-1556-4642-9D98-6B74ED3601F1}"/>
+    <hyperlink ref="F253" r:id="rId249" xr:uid="{B39E6581-E6F7-4347-BA2A-B3D1DCB371FB}"/>
+    <hyperlink ref="F254" r:id="rId250" xr:uid="{7EB21AB2-9D39-445B-969F-9C4AB6984EB8}"/>
+    <hyperlink ref="F255" r:id="rId251" xr:uid="{B5A0BD4D-FBF5-41B9-96A6-C5A049D7C037}"/>
+    <hyperlink ref="F256" r:id="rId252" xr:uid="{C8B7C436-8185-4B47-BE55-51AE0BF4FF25}"/>
+    <hyperlink ref="F257" r:id="rId253" xr:uid="{9B8A6268-721E-4BC7-A0EB-103390C04573}"/>
+    <hyperlink ref="F258" r:id="rId254" xr:uid="{E962D959-FAE3-4B2A-A201-2046B3E8FEB7}"/>
+    <hyperlink ref="F260" r:id="rId255" xr:uid="{D64AA9E5-65C7-4D38-BC8B-AF3BBD5DAF25}"/>
+    <hyperlink ref="F261" r:id="rId256" xr:uid="{5FF14BE7-B05C-4908-9223-17B2CCC79E24}"/>
+    <hyperlink ref="F262" r:id="rId257" xr:uid="{344BD9DB-3009-4FE5-AF1E-C2AA339ABA97}"/>
+    <hyperlink ref="F263" r:id="rId258" xr:uid="{0EC4E875-4CB0-4606-BF10-A786D6F77ABC}"/>
+    <hyperlink ref="F264" r:id="rId259" xr:uid="{719973CF-DC73-4768-BD8B-6C43B7C797FB}"/>
+    <hyperlink ref="F265" r:id="rId260" xr:uid="{4C52D206-DC95-456C-9EEC-D1FC3F981B22}"/>
+    <hyperlink ref="F266" r:id="rId261" xr:uid="{702ABB60-5978-48FA-844E-9E95B8436278}"/>
+    <hyperlink ref="F267" r:id="rId262" xr:uid="{AB6B7991-907B-488E-8306-F373AEAE3893}"/>
+    <hyperlink ref="F268" r:id="rId263" xr:uid="{C9884BC0-9A51-425E-A602-10FD0967A617}"/>
+    <hyperlink ref="F269" r:id="rId264" xr:uid="{2EF8F4C9-AC88-4728-999A-30BC508912DB}"/>
+    <hyperlink ref="F270" r:id="rId265" xr:uid="{76700233-E323-4285-B059-835E05AB7B91}"/>
+    <hyperlink ref="F271" r:id="rId266" xr:uid="{FDB15A1F-8050-4797-B918-41E6A67B1B9F}"/>
+    <hyperlink ref="F272" r:id="rId267" xr:uid="{41655745-7E37-45EB-8B6E-F75640D5179C}"/>
+    <hyperlink ref="F273" r:id="rId268" xr:uid="{472609EA-7991-4B2C-9A2E-D8E6910A1CB2}"/>
+    <hyperlink ref="F274" r:id="rId269" xr:uid="{0A7CA902-0571-4BD4-B2F7-43FB8D3D5778}"/>
+    <hyperlink ref="F275" r:id="rId270" xr:uid="{8F16FC0E-993D-4CD3-AB62-1C1E49559E47}"/>
+    <hyperlink ref="F276" r:id="rId271" xr:uid="{B6DF28A5-B1C5-4AF4-B9DA-050CC9FA1BA7}"/>
+    <hyperlink ref="F277" r:id="rId272" xr:uid="{257B3F7E-97DF-4AF5-9AF4-BD6EBDFAADF6}"/>
+    <hyperlink ref="F278" r:id="rId273" xr:uid="{B3BEAC81-90BF-42EC-99EB-2EFA3DF0832C}"/>
+    <hyperlink ref="F279" r:id="rId274" xr:uid="{5B987029-66CC-4D09-83CE-FB98E8D38C22}"/>
+    <hyperlink ref="F280" r:id="rId275" xr:uid="{5B19E107-4354-48AF-940B-5361100EB941}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId220"/>
+  <pageSetup orientation="portrait" r:id="rId276"/>
   <tableParts count="1">
-    <tablePart r:id="rId221"/>
+    <tablePart r:id="rId277"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
-          <x14:formula1>
-            <xm:f>Values!$E$4:$E$71</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D245</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B86FB78-95D8-4FFF-8DB6-A12E50721AA6}">
           <x14:formula1>
-            <xm:f>Values!$D$4:$D$22</xm:f>
+            <xm:f>Values!$D$4:$D$28</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C245</xm:sqref>
+          <xm:sqref>C2:C335</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8EBEEB8-B884-4C00-9B51-F5E336240EDE}">
           <x14:formula1>
-            <xm:f>Values!$C$4:$C$27</xm:f>
+            <xm:f>Values!$C$4:$C$39</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B245</xm:sqref>
+          <xm:sqref>B2:B335</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
+          <x14:formula1>
+            <xm:f>Values!$E$4:$E$84</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D335</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6649,7 +8200,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6657,7 +8208,7 @@
     <col min="1" max="1" width="10.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.90625" customWidth="1"/>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.90625" customWidth="1"/>
     <col min="6" max="6" width="103.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6785,78 +8336,218 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F8" s="1"/>
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" t="s">
+        <v>565</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F9" s="1"/>
+      <c r="B9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F10" s="1"/>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" t="s">
+        <v>569</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F11" s="1"/>
+      <c r="B11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E11" t="s">
+        <v>571</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F12" s="1"/>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
+        <v>572</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F13" s="1"/>
+      <c r="B13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E13" t="s">
+        <v>574</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F14" s="1"/>
+      <c r="B14" t="s">
+        <v>548</v>
+      </c>
+      <c r="C14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" t="s">
+        <v>599</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F15" s="1"/>
+      <c r="B15" t="s">
+        <v>636</v>
+      </c>
+      <c r="C15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" t="s">
+        <v>635</v>
+      </c>
+      <c r="E15" t="s">
+        <v>637</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>636</v>
+      </c>
+      <c r="C16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" t="s">
+        <v>640</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C17" t="s">
+        <v>632</v>
+      </c>
+      <c r="D17" t="s">
+        <v>645</v>
+      </c>
+      <c r="E17" t="s">
+        <v>646</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.35">
@@ -7137,24 +8828,34 @@
     <hyperlink ref="F4" r:id="rId4" xr:uid="{7D1C893C-F0E8-47D2-BBF3-502FDC01B737}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{EF99DE93-8D1B-42F8-AD11-DB6F87BCC057}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{EDA7BAB0-1042-4CB6-B36C-7FE9C1A5BAFB}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{F046FFD6-ED29-41F2-A0AC-CC9FBC473788}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{B9E74943-3B37-407B-80E6-45A002FFC28B}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{043C8A52-C5D3-4023-8EA5-4A41812166A4}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{745F3506-D564-485E-83A3-A1A9912796BB}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{25900702-412B-436D-BFC2-7FB3D39D0BFE}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{F4FC9368-4F19-4380-ABE9-43618C930762}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{EBE7FF4F-C5A2-4AFA-945D-4981C944B62A}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{B6ED048D-E2CD-48BB-9FF1-890F1A0435D4}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{ADD98060-5E8C-4B88-8624-891E7EE10E8D}"/>
+    <hyperlink ref="F17" r:id="rId16" xr:uid="{265F69A1-A351-4C70-88A4-6D50DF7D09EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9CD11D97-578B-4564-B139-D06A04DB084D}">
           <x14:formula1>
-            <xm:f>Values!$F$4:$F$6</xm:f>
+            <xm:f>Values!$F$4:$F$7</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B804DC04-6279-4102-A9F8-DC42745F0F3C}">
           <x14:formula1>
-            <xm:f>Values!$G$4:$G$18</xm:f>
+            <xm:f>Values!$G$4:$G$21</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D133</xm:sqref>
         </x14:dataValidation>
@@ -7166,15 +8867,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A6014D-2E27-4F54-8034-C9E495B040EE}">
-  <dimension ref="C3:G71"/>
+  <dimension ref="C3:G84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
@@ -7209,7 +8910,7 @@
         <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>319</v>
+        <v>632</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -7220,504 +8921,635 @@
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>690</v>
       </c>
       <c r="E5" t="s">
-        <v>512</v>
+        <v>721</v>
       </c>
       <c r="F5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>549</v>
+        <v>720</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>683</v>
       </c>
       <c r="E6" t="s">
-        <v>517</v>
+        <v>713</v>
       </c>
       <c r="F6" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="G6" t="s">
-        <v>322</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>675</v>
       </c>
       <c r="E7" t="s">
-        <v>503</v>
+        <v>688</v>
+      </c>
+      <c r="F7" t="s">
+        <v>320</v>
       </c>
       <c r="G7" t="s">
-        <v>266</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>562</v>
+        <v>696</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>645</v>
       </c>
       <c r="E8" t="s">
-        <v>494</v>
+        <v>685</v>
       </c>
       <c r="G8" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>521</v>
+        <v>682</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>489</v>
+        <v>676</v>
       </c>
       <c r="G9" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>529</v>
+        <v>630</v>
       </c>
       <c r="D10" t="s">
-        <v>227</v>
+        <v>631</v>
       </c>
       <c r="E10" t="s">
-        <v>467</v>
+        <v>655</v>
       </c>
       <c r="G10" t="s">
-        <v>334</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>525</v>
+        <v>653</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>386</v>
+        <v>645</v>
       </c>
       <c r="G11" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>502</v>
+        <v>625</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>621</v>
       </c>
       <c r="E12" t="s">
-        <v>406</v>
+        <v>610</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>488</v>
+        <v>620</v>
       </c>
       <c r="D13" t="s">
-        <v>554</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>545</v>
+        <v>632</v>
       </c>
       <c r="G13" t="s">
-        <v>186</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>452</v>
+        <v>591</v>
       </c>
       <c r="D14" t="s">
-        <v>544</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="G14" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>485</v>
+        <v>615</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
-        <v>454</v>
+        <v>602</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>415</v>
+        <v>512</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>307</v>
+        <v>549</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>426</v>
+        <v>584</v>
       </c>
       <c r="G17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>145</v>
+        <v>548</v>
       </c>
       <c r="D18" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
-        <v>392</v>
+        <v>517</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>229</v>
+        <v>562</v>
       </c>
       <c r="D19" t="s">
-        <v>294</v>
+        <v>554</v>
       </c>
       <c r="E19" t="s">
-        <v>399</v>
+        <v>503</v>
+      </c>
+      <c r="G19" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
-        <v>251</v>
+        <v>521</v>
       </c>
       <c r="D20" t="s">
-        <v>295</v>
+        <v>544</v>
       </c>
       <c r="E20" t="s">
-        <v>309</v>
+        <v>582</v>
+      </c>
+      <c r="G20" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>230</v>
+        <v>529</v>
       </c>
       <c r="D21" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>367</v>
+        <v>494</v>
+      </c>
+      <c r="G21" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
-        <v>272</v>
+        <v>525</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>382</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
-        <v>280</v>
+        <v>502</v>
+      </c>
+      <c r="D23" t="s">
+        <v>276</v>
       </c>
       <c r="E23" t="s">
-        <v>369</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
-        <v>281</v>
+        <v>488</v>
+      </c>
+      <c r="D24" t="s">
+        <v>293</v>
       </c>
       <c r="E24" t="s">
-        <v>298</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>291</v>
+        <v>452</v>
+      </c>
+      <c r="D25" t="s">
+        <v>294</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="5" t="s">
-        <v>315</v>
+      <c r="C26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D26" t="s">
+        <v>295</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>229</v>
+      </c>
+      <c r="E30" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>580</v>
+      </c>
+      <c r="E36" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C38" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E29" t="s">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E30" t="s">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E43" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E31" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E32" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E33" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E34" t="s">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E35" t="s">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="E48" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E39" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E43" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E44" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E47" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E48" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E52" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E53" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E54" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E55" t="s">
-        <v>428</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E57" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E58" t="s">
-        <v>224</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E59" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>238</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E63" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E65" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E66" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E67" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E68" t="s">
-        <v>271</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E69" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E70" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E74" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E76" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E77" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E78" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E80" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E84" t="s">
         <v>60</v>
       </c>
     </row>

--- a/Oracle_Knowledge_Links.xlsx
+++ b/Oracle_Knowledge_Links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabya\gitrepos\oracle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2980D896-0B10-4197-B8A3-C80B359EBF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E409073C-ED47-4D52-9ACC-FB940D555436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21D15681-6EA7-4197-97B9-FD00DBE7A6A9}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="729">
   <si>
     <t>Serial No</t>
   </si>
@@ -2205,6 +2205,15 @@
   </si>
   <si>
     <t>SQL*Plus access without an OS login</t>
+  </si>
+  <si>
+    <t>AskTom Blogs</t>
+  </si>
+  <si>
+    <t>Edition-Based Redefinition, Part 2</t>
+  </si>
+  <si>
+    <t>https://asktom.oracle.com/Misc/oramag/edition-based-redefinition-part-2.html</t>
   </si>
 </sst>
 </file>
@@ -2404,13 +2413,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}" name="Table1" displayName="Table1" ref="A1:F335" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
-  <autoFilter ref="A1:F335" xr:uid="{3A329D12-82F4-48CA-B6A5-FC44496504A4}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Jeff Smith Blog"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C54AE5A3-6185-4B4A-8944-4DD06AF2943B}" name="Serial No"/>
     <tableColumn id="2" xr3:uid="{B804B430-797F-47D9-8692-E8681C88043E}" name="SOURCE"/>
@@ -2734,11 +2736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9EE77A-69C7-4F38-9C2C-6F33C504A344}">
-  <dimension ref="A1:F335"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F336" sqref="F336"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F284" sqref="F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2771,7 +2773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2791,7 +2793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2811,7 +2813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2871,7 +2873,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2971,7 +2973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3391,7 +3393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3471,7 +3473,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3591,7 +3593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3611,7 +3613,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3771,7 +3773,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3811,7 +3813,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3871,7 +3873,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3891,7 +3893,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3911,7 +3913,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4031,7 +4033,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4051,7 +4053,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4071,7 +4073,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4191,7 +4193,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4231,7 +4233,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4291,7 +4293,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4311,7 +4313,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4331,7 +4333,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4351,7 +4353,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4371,7 +4373,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4411,7 +4413,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4431,7 +4433,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4451,7 +4453,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4551,7 +4553,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4631,7 +4633,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4651,7 +4653,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4711,7 +4713,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4731,7 +4733,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4831,7 +4833,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4891,7 +4893,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108" t="s">
         <v>280</v>
       </c>
@@ -4908,7 +4913,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" t="s">
         <v>251</v>
       </c>
@@ -4925,7 +4933,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110" t="s">
         <v>251</v>
       </c>
@@ -4942,7 +4953,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="B111" t="s">
         <v>251</v>
       </c>
@@ -4959,7 +4973,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>111</v>
+      </c>
       <c r="B112" t="s">
         <v>50</v>
       </c>
@@ -4976,7 +4993,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="B113" t="s">
         <v>291</v>
       </c>
@@ -4993,7 +5013,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>113</v>
+      </c>
       <c r="B114" t="s">
         <v>50</v>
       </c>
@@ -5010,7 +5033,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="115" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="B115" t="s">
         <v>50</v>
       </c>
@@ -5027,7 +5053,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="116" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="B116" t="s">
         <v>251</v>
       </c>
@@ -5044,7 +5073,10 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="B117" t="s">
         <v>251</v>
       </c>
@@ -5061,7 +5093,10 @@
         <v>302</v>
       </c>
     </row>
-    <row r="118" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>117</v>
+      </c>
       <c r="B118" t="s">
         <v>251</v>
       </c>
@@ -5078,7 +5113,10 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>118</v>
+      </c>
       <c r="B119" t="s">
         <v>307</v>
       </c>
@@ -5095,7 +5133,10 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>119</v>
+      </c>
       <c r="B120" t="s">
         <v>307</v>
       </c>
@@ -5109,9 +5150,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>120</v>
+      </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>726</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -5126,7 +5170,10 @@
         <v>311</v>
       </c>
     </row>
-    <row r="122" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>121</v>
+      </c>
       <c r="B122" t="s">
         <v>145</v>
       </c>
@@ -5143,7 +5190,10 @@
         <v>312</v>
       </c>
     </row>
-    <row r="123" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>122</v>
+      </c>
       <c r="B123" t="s">
         <v>251</v>
       </c>
@@ -5160,7 +5210,10 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>123</v>
+      </c>
       <c r="B124" t="s">
         <v>251</v>
       </c>
@@ -5177,7 +5230,10 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>124</v>
+      </c>
       <c r="B125" t="s">
         <v>251</v>
       </c>
@@ -5194,7 +5250,10 @@
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>125</v>
+      </c>
       <c r="B126" t="s">
         <v>251</v>
       </c>
@@ -5211,7 +5270,10 @@
         <v>347</v>
       </c>
     </row>
-    <row r="127" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>126</v>
+      </c>
       <c r="B127" t="s">
         <v>230</v>
       </c>
@@ -5228,7 +5290,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="128" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>127</v>
+      </c>
       <c r="B128" t="s">
         <v>230</v>
       </c>
@@ -5245,7 +5310,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="129" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>128</v>
+      </c>
       <c r="B129" t="s">
         <v>230</v>
       </c>
@@ -5262,7 +5330,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>129</v>
+      </c>
       <c r="B130" t="s">
         <v>230</v>
       </c>
@@ -5279,7 +5350,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="131" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>130</v>
+      </c>
       <c r="B131" t="s">
         <v>230</v>
       </c>
@@ -5296,7 +5370,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="132" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>131</v>
+      </c>
       <c r="B132" t="s">
         <v>230</v>
       </c>
@@ -5313,7 +5390,10 @@
         <v>353</v>
       </c>
     </row>
-    <row r="133" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>132</v>
+      </c>
       <c r="B133" t="s">
         <v>230</v>
       </c>
@@ -5330,7 +5410,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="134" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>133</v>
+      </c>
       <c r="B134" t="s">
         <v>230</v>
       </c>
@@ -5347,7 +5430,10 @@
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>134</v>
+      </c>
       <c r="B135" t="s">
         <v>230</v>
       </c>
@@ -5364,7 +5450,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="136" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>135</v>
+      </c>
       <c r="B136" t="s">
         <v>230</v>
       </c>
@@ -5381,7 +5470,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="137" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>136</v>
+      </c>
       <c r="B137" t="s">
         <v>230</v>
       </c>
@@ -5398,7 +5490,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>137</v>
+      </c>
       <c r="B138" t="s">
         <v>230</v>
       </c>
@@ -5415,7 +5510,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="139" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>138</v>
+      </c>
       <c r="B139" t="s">
         <v>230</v>
       </c>
@@ -5432,7 +5530,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="140" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>139</v>
+      </c>
       <c r="B140" t="s">
         <v>230</v>
       </c>
@@ -5449,7 +5550,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="141" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>140</v>
+      </c>
       <c r="B141" t="s">
         <v>230</v>
       </c>
@@ -5466,7 +5570,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="142" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>141</v>
+      </c>
       <c r="B142" t="s">
         <v>230</v>
       </c>
@@ -5483,7 +5590,10 @@
         <v>383</v>
       </c>
     </row>
-    <row r="143" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>142</v>
+      </c>
       <c r="B143" t="s">
         <v>230</v>
       </c>
@@ -5500,7 +5610,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="144" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>143</v>
+      </c>
       <c r="B144" t="s">
         <v>230</v>
       </c>
@@ -5517,7 +5630,10 @@
         <v>388</v>
       </c>
     </row>
-    <row r="145" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>144</v>
+      </c>
       <c r="B145" t="s">
         <v>230</v>
       </c>
@@ -5534,7 +5650,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>145</v>
+      </c>
       <c r="B146" t="s">
         <v>230</v>
       </c>
@@ -5551,7 +5670,10 @@
         <v>393</v>
       </c>
     </row>
-    <row r="147" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>146</v>
+      </c>
       <c r="B147" t="s">
         <v>230</v>
       </c>
@@ -5568,7 +5690,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="148" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>147</v>
+      </c>
       <c r="B148" t="s">
         <v>230</v>
       </c>
@@ -5585,7 +5710,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="149" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>148</v>
+      </c>
       <c r="B149" t="s">
         <v>230</v>
       </c>
@@ -5602,7 +5730,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>149</v>
+      </c>
       <c r="B150" t="s">
         <v>230</v>
       </c>
@@ -5619,7 +5750,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="151" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>150</v>
+      </c>
       <c r="B151" t="s">
         <v>230</v>
       </c>
@@ -5636,7 +5770,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="152" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>151</v>
+      </c>
       <c r="B152" t="s">
         <v>230</v>
       </c>
@@ -5653,7 +5790,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="153" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>152</v>
+      </c>
       <c r="B153" t="s">
         <v>230</v>
       </c>
@@ -5670,7 +5810,10 @@
         <v>409</v>
       </c>
     </row>
-    <row r="154" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>153</v>
+      </c>
       <c r="B154" t="s">
         <v>230</v>
       </c>
@@ -5687,7 +5830,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="155" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>154</v>
+      </c>
       <c r="B155" t="s">
         <v>230</v>
       </c>
@@ -5704,7 +5850,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="156" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>155</v>
+      </c>
       <c r="B156" t="s">
         <v>230</v>
       </c>
@@ -5721,7 +5870,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="157" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>156</v>
+      </c>
       <c r="B157" t="s">
         <v>230</v>
       </c>
@@ -5738,7 +5890,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>157</v>
+      </c>
       <c r="B158" t="s">
         <v>230</v>
       </c>
@@ -5755,7 +5910,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="159" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>158</v>
+      </c>
       <c r="B159" t="s">
         <v>230</v>
       </c>
@@ -5772,7 +5930,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="160" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>159</v>
+      </c>
       <c r="B160" t="s">
         <v>230</v>
       </c>
@@ -5789,7 +5950,10 @@
         <v>424</v>
       </c>
     </row>
-    <row r="161" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>160</v>
+      </c>
       <c r="B161" t="s">
         <v>230</v>
       </c>
@@ -5806,7 +5970,10 @@
         <v>427</v>
       </c>
     </row>
-    <row r="162" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>161</v>
+      </c>
       <c r="B162" t="s">
         <v>230</v>
       </c>
@@ -5823,7 +5990,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="163" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>162</v>
+      </c>
       <c r="B163" t="s">
         <v>230</v>
       </c>
@@ -5840,7 +6010,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="164" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>163</v>
+      </c>
       <c r="B164" t="s">
         <v>230</v>
       </c>
@@ -5857,7 +6030,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>164</v>
+      </c>
       <c r="B165" t="s">
         <v>230</v>
       </c>
@@ -5874,7 +6050,10 @@
         <v>432</v>
       </c>
     </row>
-    <row r="166" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>165</v>
+      </c>
       <c r="B166" t="s">
         <v>230</v>
       </c>
@@ -5891,7 +6070,10 @@
         <v>433</v>
       </c>
     </row>
-    <row r="167" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>166</v>
+      </c>
       <c r="B167" t="s">
         <v>230</v>
       </c>
@@ -5908,7 +6090,10 @@
         <v>390</v>
       </c>
     </row>
-    <row r="168" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>167</v>
+      </c>
       <c r="B168" t="s">
         <v>230</v>
       </c>
@@ -5925,7 +6110,10 @@
         <v>383</v>
       </c>
     </row>
-    <row r="169" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>168</v>
+      </c>
       <c r="B169" t="s">
         <v>230</v>
       </c>
@@ -5942,7 +6130,10 @@
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>169</v>
+      </c>
       <c r="B170" t="s">
         <v>230</v>
       </c>
@@ -5959,7 +6150,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="171" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>170</v>
+      </c>
       <c r="B171" t="s">
         <v>230</v>
       </c>
@@ -5976,7 +6170,10 @@
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>171</v>
+      </c>
       <c r="B172" t="s">
         <v>230</v>
       </c>
@@ -5993,7 +6190,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="173" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>172</v>
+      </c>
       <c r="B173" t="s">
         <v>230</v>
       </c>
@@ -6010,7 +6210,10 @@
         <v>443</v>
       </c>
     </row>
-    <row r="174" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>173</v>
+      </c>
       <c r="B174" t="s">
         <v>230</v>
       </c>
@@ -6027,7 +6230,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="175" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>174</v>
+      </c>
       <c r="B175" t="s">
         <v>230</v>
       </c>
@@ -6044,7 +6250,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="176" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>175</v>
+      </c>
       <c r="B176" t="s">
         <v>230</v>
       </c>
@@ -6061,7 +6270,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="177" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>176</v>
+      </c>
       <c r="B177" t="s">
         <v>452</v>
       </c>
@@ -6078,7 +6290,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="178" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>177</v>
+      </c>
       <c r="B178" t="s">
         <v>454</v>
       </c>
@@ -6095,7 +6310,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="179" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>178</v>
+      </c>
       <c r="B179" t="s">
         <v>145</v>
       </c>
@@ -6112,7 +6330,10 @@
         <v>589</v>
       </c>
     </row>
-    <row r="180" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>179</v>
+      </c>
       <c r="B180" t="s">
         <v>230</v>
       </c>
@@ -6129,7 +6350,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="181" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>180</v>
+      </c>
       <c r="B181" t="s">
         <v>230</v>
       </c>
@@ -6146,7 +6370,10 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>181</v>
+      </c>
       <c r="B182" t="s">
         <v>230</v>
       </c>
@@ -6163,7 +6390,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>182</v>
+      </c>
       <c r="B183" t="s">
         <v>230</v>
       </c>
@@ -6180,7 +6410,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="184" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>183</v>
+      </c>
       <c r="B184" t="s">
         <v>230</v>
       </c>
@@ -6197,7 +6430,10 @@
         <v>353</v>
       </c>
     </row>
-    <row r="185" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>184</v>
+      </c>
       <c r="B185" t="s">
         <v>50</v>
       </c>
@@ -6214,7 +6450,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="186" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>185</v>
+      </c>
       <c r="B186" t="s">
         <v>230</v>
       </c>
@@ -6231,7 +6470,10 @@
         <v>469</v>
       </c>
     </row>
-    <row r="187" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>186</v>
+      </c>
       <c r="B187" t="s">
         <v>230</v>
       </c>
@@ -6248,7 +6490,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="188" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>187</v>
+      </c>
       <c r="B188" t="s">
         <v>454</v>
       </c>
@@ -6265,7 +6510,10 @@
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>188</v>
+      </c>
       <c r="B189" t="s">
         <v>454</v>
       </c>
@@ -6282,7 +6530,10 @@
         <v>475</v>
       </c>
     </row>
-    <row r="190" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>189</v>
+      </c>
       <c r="B190" t="s">
         <v>454</v>
       </c>
@@ -6299,7 +6550,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="191" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>190</v>
+      </c>
       <c r="B191" t="s">
         <v>454</v>
       </c>
@@ -6316,7 +6570,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="192" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>191</v>
+      </c>
       <c r="B192" t="s">
         <v>454</v>
       </c>
@@ -6333,7 +6590,10 @@
         <v>481</v>
       </c>
     </row>
-    <row r="193" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>192</v>
+      </c>
       <c r="B193" t="s">
         <v>454</v>
       </c>
@@ -6350,7 +6610,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="194" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>193</v>
+      </c>
       <c r="B194" t="s">
         <v>485</v>
       </c>
@@ -6367,7 +6630,10 @@
         <v>486</v>
       </c>
     </row>
-    <row r="195" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>194</v>
+      </c>
       <c r="B195" t="s">
         <v>488</v>
       </c>
@@ -6384,7 +6650,10 @@
         <v>490</v>
       </c>
     </row>
-    <row r="196" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>195</v>
+      </c>
       <c r="B196" t="s">
         <v>488</v>
       </c>
@@ -6401,7 +6670,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="197" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>196</v>
+      </c>
       <c r="B197" t="s">
         <v>230</v>
       </c>
@@ -6418,7 +6690,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="198" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>197</v>
+      </c>
       <c r="B198" t="s">
         <v>230</v>
       </c>
@@ -6435,7 +6710,10 @@
         <v>497</v>
       </c>
     </row>
-    <row r="199" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>198</v>
+      </c>
       <c r="B199" t="s">
         <v>499</v>
       </c>
@@ -6452,7 +6730,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="200" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>199</v>
+      </c>
       <c r="B200" t="s">
         <v>502</v>
       </c>
@@ -6469,7 +6750,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="201" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>200</v>
+      </c>
       <c r="B201" t="s">
         <v>502</v>
       </c>
@@ -6486,7 +6770,10 @@
         <v>506</v>
       </c>
     </row>
-    <row r="202" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>201</v>
+      </c>
       <c r="B202" t="s">
         <v>499</v>
       </c>
@@ -6503,7 +6790,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="203" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>202</v>
+      </c>
       <c r="B203" t="s">
         <v>499</v>
       </c>
@@ -6520,7 +6810,10 @@
         <v>510</v>
       </c>
     </row>
-    <row r="204" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>203</v>
+      </c>
       <c r="B204" t="s">
         <v>230</v>
       </c>
@@ -6537,7 +6830,10 @@
         <v>513</v>
       </c>
     </row>
-    <row r="205" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>204</v>
+      </c>
       <c r="B205" t="s">
         <v>251</v>
       </c>
@@ -6554,7 +6850,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="206" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>205</v>
+      </c>
       <c r="B206" t="s">
         <v>230</v>
       </c>
@@ -6571,7 +6870,10 @@
         <v>518</v>
       </c>
     </row>
-    <row r="207" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>206</v>
+      </c>
       <c r="B207" t="s">
         <v>521</v>
       </c>
@@ -6588,7 +6890,10 @@
         <v>520</v>
       </c>
     </row>
-    <row r="208" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>207</v>
+      </c>
       <c r="B208" t="s">
         <v>229</v>
       </c>
@@ -6605,7 +6910,10 @@
         <v>523</v>
       </c>
     </row>
-    <row r="209" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>208</v>
+      </c>
       <c r="B209" t="s">
         <v>525</v>
       </c>
@@ -6622,7 +6930,10 @@
         <v>526</v>
       </c>
     </row>
-    <row r="210" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>209</v>
+      </c>
       <c r="B210" t="s">
         <v>529</v>
       </c>
@@ -6639,7 +6950,10 @@
         <v>527</v>
       </c>
     </row>
-    <row r="211" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>210</v>
+      </c>
       <c r="B211" t="s">
         <v>230</v>
       </c>
@@ -6656,7 +6970,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="212" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>211</v>
+      </c>
       <c r="B212" t="s">
         <v>230</v>
       </c>
@@ -6673,7 +6990,10 @@
         <v>533</v>
       </c>
     </row>
-    <row r="213" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>212</v>
+      </c>
       <c r="B213" t="s">
         <v>230</v>
       </c>
@@ -6690,7 +7010,10 @@
         <v>535</v>
       </c>
     </row>
-    <row r="214" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>213</v>
+      </c>
       <c r="B214" t="s">
         <v>454</v>
       </c>
@@ -6707,7 +7030,10 @@
         <v>537</v>
       </c>
     </row>
-    <row r="215" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>214</v>
+      </c>
       <c r="B215" t="s">
         <v>230</v>
       </c>
@@ -6724,7 +7050,10 @@
         <v>539</v>
       </c>
     </row>
-    <row r="216" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>215</v>
+      </c>
       <c r="B216" t="s">
         <v>145</v>
       </c>
@@ -6741,7 +7070,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="217" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>216</v>
+      </c>
       <c r="B217" t="s">
         <v>488</v>
       </c>
@@ -6758,7 +7090,10 @@
         <v>543</v>
       </c>
     </row>
-    <row r="218" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>217</v>
+      </c>
       <c r="B218" t="s">
         <v>251</v>
       </c>
@@ -6775,7 +7110,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="219" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>218</v>
+      </c>
       <c r="B219" t="s">
         <v>580</v>
       </c>
@@ -6792,7 +7130,10 @@
         <v>579</v>
       </c>
     </row>
-    <row r="220" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>219</v>
+      </c>
       <c r="B220" t="s">
         <v>549</v>
       </c>
@@ -6809,7 +7150,10 @@
         <v>583</v>
       </c>
     </row>
-    <row r="221" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>220</v>
+      </c>
       <c r="B221" t="s">
         <v>145</v>
       </c>
@@ -6826,7 +7170,10 @@
         <v>586</v>
       </c>
     </row>
-    <row r="222" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>221</v>
+      </c>
       <c r="B222" t="s">
         <v>145</v>
       </c>
@@ -6843,7 +7190,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="223" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>222</v>
+      </c>
       <c r="B223" t="s">
         <v>591</v>
       </c>
@@ -6860,7 +7210,10 @@
         <v>592</v>
       </c>
     </row>
-    <row r="224" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>223</v>
+      </c>
       <c r="B224" t="s">
         <v>591</v>
       </c>
@@ -6877,7 +7230,10 @@
         <v>594</v>
       </c>
     </row>
-    <row r="225" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>224</v>
+      </c>
       <c r="B225" t="s">
         <v>548</v>
       </c>
@@ -6894,7 +7250,10 @@
         <v>595</v>
       </c>
     </row>
-    <row r="226" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>225</v>
+      </c>
       <c r="B226" t="s">
         <v>548</v>
       </c>
@@ -6911,7 +7270,10 @@
         <v>598</v>
       </c>
     </row>
-    <row r="227" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>226</v>
+      </c>
       <c r="B227" t="s">
         <v>602</v>
       </c>
@@ -6928,7 +7290,10 @@
         <v>605</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>227</v>
+      </c>
       <c r="B228" t="s">
         <v>272</v>
       </c>
@@ -6945,7 +7310,10 @@
         <v>607</v>
       </c>
     </row>
-    <row r="229" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>228</v>
+      </c>
       <c r="B229" t="s">
         <v>230</v>
       </c>
@@ -6962,7 +7330,10 @@
         <v>609</v>
       </c>
     </row>
-    <row r="230" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>229</v>
+      </c>
       <c r="B230" t="s">
         <v>580</v>
       </c>
@@ -6979,7 +7350,10 @@
         <v>612</v>
       </c>
     </row>
-    <row r="231" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>230</v>
+      </c>
       <c r="B231" t="s">
         <v>454</v>
       </c>
@@ -6996,7 +7370,10 @@
         <v>614</v>
       </c>
     </row>
-    <row r="232" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>231</v>
+      </c>
       <c r="B232" t="s">
         <v>615</v>
       </c>
@@ -7013,7 +7390,10 @@
         <v>617</v>
       </c>
     </row>
-    <row r="233" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>232</v>
+      </c>
       <c r="B233" t="s">
         <v>549</v>
       </c>
@@ -7030,7 +7410,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="234" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>233</v>
+      </c>
       <c r="B234" t="s">
         <v>548</v>
       </c>
@@ -7047,7 +7430,10 @@
         <v>553</v>
       </c>
     </row>
-    <row r="235" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>234</v>
+      </c>
       <c r="B235" t="s">
         <v>548</v>
       </c>
@@ -7064,7 +7450,10 @@
         <v>556</v>
       </c>
     </row>
-    <row r="236" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>235</v>
+      </c>
       <c r="B236" t="s">
         <v>549</v>
       </c>
@@ -7081,7 +7470,10 @@
         <v>558</v>
       </c>
     </row>
-    <row r="237" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>236</v>
+      </c>
       <c r="B237" t="s">
         <v>548</v>
       </c>
@@ -7098,7 +7490,10 @@
         <v>560</v>
       </c>
     </row>
-    <row r="238" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>237</v>
+      </c>
       <c r="B238" t="s">
         <v>562</v>
       </c>
@@ -7115,7 +7510,10 @@
         <v>563</v>
       </c>
     </row>
-    <row r="239" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>238</v>
+      </c>
       <c r="B239" t="s">
         <v>548</v>
       </c>
@@ -7132,7 +7530,10 @@
         <v>619</v>
       </c>
     </row>
-    <row r="240" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>239</v>
+      </c>
       <c r="B240" t="s">
         <v>620</v>
       </c>
@@ -7149,7 +7550,10 @@
         <v>624</v>
       </c>
     </row>
-    <row r="241" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>240</v>
+      </c>
       <c r="B241" t="s">
         <v>625</v>
       </c>
@@ -7166,7 +7570,10 @@
         <v>626</v>
       </c>
     </row>
-    <row r="242" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>241</v>
+      </c>
       <c r="B242" t="s">
         <v>625</v>
       </c>
@@ -7183,7 +7590,10 @@
         <v>629</v>
       </c>
     </row>
-    <row r="243" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>242</v>
+      </c>
       <c r="B243" t="s">
         <v>630</v>
       </c>
@@ -7200,7 +7610,10 @@
         <v>634</v>
       </c>
     </row>
-    <row r="244" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>243</v>
+      </c>
       <c r="B244" t="s">
         <v>230</v>
       </c>
@@ -7217,7 +7630,10 @@
         <v>642</v>
       </c>
     </row>
-    <row r="245" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>244</v>
+      </c>
       <c r="B245" t="s">
         <v>50</v>
       </c>
@@ -7234,7 +7650,10 @@
         <v>647</v>
       </c>
     </row>
-    <row r="246" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>245</v>
+      </c>
       <c r="B246" t="s">
         <v>230</v>
       </c>
@@ -7251,7 +7670,10 @@
         <v>650</v>
       </c>
     </row>
-    <row r="247" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>246</v>
+      </c>
       <c r="B247" t="s">
         <v>653</v>
       </c>
@@ -7268,7 +7690,10 @@
         <v>652</v>
       </c>
     </row>
-    <row r="248" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>247</v>
+      </c>
       <c r="B248" t="s">
         <v>653</v>
       </c>
@@ -7285,7 +7710,10 @@
         <v>654</v>
       </c>
     </row>
-    <row r="249" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>248</v>
+      </c>
       <c r="B249" t="s">
         <v>653</v>
       </c>
@@ -7302,7 +7730,10 @@
         <v>656</v>
       </c>
     </row>
-    <row r="250" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>249</v>
+      </c>
       <c r="B250" t="s">
         <v>653</v>
       </c>
@@ -7319,7 +7750,10 @@
         <v>657</v>
       </c>
     </row>
-    <row r="251" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>250</v>
+      </c>
       <c r="B251" t="s">
         <v>653</v>
       </c>
@@ -7336,7 +7770,10 @@
         <v>659</v>
       </c>
     </row>
-    <row r="252" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>251</v>
+      </c>
       <c r="B252" t="s">
         <v>653</v>
       </c>
@@ -7353,7 +7790,10 @@
         <v>660</v>
       </c>
     </row>
-    <row r="253" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>252</v>
+      </c>
       <c r="B253" t="s">
         <v>653</v>
       </c>
@@ -7370,7 +7810,10 @@
         <v>665</v>
       </c>
     </row>
-    <row r="254" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>253</v>
+      </c>
       <c r="B254" t="s">
         <v>653</v>
       </c>
@@ -7387,7 +7830,10 @@
         <v>667</v>
       </c>
     </row>
-    <row r="255" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>254</v>
+      </c>
       <c r="B255" t="s">
         <v>251</v>
       </c>
@@ -7404,7 +7850,10 @@
         <v>670</v>
       </c>
     </row>
-    <row r="256" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>255</v>
+      </c>
       <c r="B256" t="s">
         <v>454</v>
       </c>
@@ -7421,7 +7870,10 @@
         <v>672</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>256</v>
+      </c>
       <c r="B257" t="s">
         <v>272</v>
       </c>
@@ -7438,7 +7890,10 @@
         <v>674</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>257</v>
+      </c>
       <c r="B258" t="s">
         <v>272</v>
       </c>
@@ -7455,7 +7910,10 @@
         <v>678</v>
       </c>
     </row>
-    <row r="259" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>258</v>
+      </c>
       <c r="B259" t="s">
         <v>549</v>
       </c>
@@ -7472,7 +7930,10 @@
         <v>680</v>
       </c>
     </row>
-    <row r="260" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>259</v>
+      </c>
       <c r="B260" t="s">
         <v>682</v>
       </c>
@@ -7489,7 +7950,10 @@
         <v>684</v>
       </c>
     </row>
-    <row r="261" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>260</v>
+      </c>
       <c r="B261" t="s">
         <v>682</v>
       </c>
@@ -7506,7 +7970,10 @@
         <v>686</v>
       </c>
     </row>
-    <row r="262" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>261</v>
+      </c>
       <c r="B262" t="s">
         <v>230</v>
       </c>
@@ -7523,7 +7990,10 @@
         <v>609</v>
       </c>
     </row>
-    <row r="263" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>262</v>
+      </c>
       <c r="B263" t="s">
         <v>251</v>
       </c>
@@ -7540,7 +8010,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="264" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>263</v>
+      </c>
       <c r="B264" t="s">
         <v>229</v>
       </c>
@@ -7557,7 +8030,10 @@
         <v>689</v>
       </c>
     </row>
-    <row r="265" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>264</v>
+      </c>
       <c r="B265" t="s">
         <v>145</v>
       </c>
@@ -7574,7 +8050,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="266" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>265</v>
+      </c>
       <c r="B266" t="s">
         <v>548</v>
       </c>
@@ -7591,7 +8070,10 @@
         <v>692</v>
       </c>
     </row>
-    <row r="267" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>266</v>
+      </c>
       <c r="B267" t="s">
         <v>696</v>
       </c>
@@ -7608,7 +8090,10 @@
         <v>694</v>
       </c>
     </row>
-    <row r="268" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>267</v>
+      </c>
       <c r="B268" t="s">
         <v>696</v>
       </c>
@@ -7625,7 +8110,10 @@
         <v>697</v>
       </c>
     </row>
-    <row r="269" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>268</v>
+      </c>
       <c r="B269" t="s">
         <v>696</v>
       </c>
@@ -7642,7 +8130,10 @@
         <v>699</v>
       </c>
     </row>
-    <row r="270" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>269</v>
+      </c>
       <c r="B270" t="s">
         <v>696</v>
       </c>
@@ -7659,7 +8150,10 @@
         <v>701</v>
       </c>
     </row>
-    <row r="271" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>270</v>
+      </c>
       <c r="B271" t="s">
         <v>696</v>
       </c>
@@ -7676,7 +8170,10 @@
         <v>703</v>
       </c>
     </row>
-    <row r="272" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>271</v>
+      </c>
       <c r="B272" t="s">
         <v>696</v>
       </c>
@@ -7693,7 +8190,10 @@
         <v>705</v>
       </c>
     </row>
-    <row r="273" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>272</v>
+      </c>
       <c r="B273" t="s">
         <v>696</v>
       </c>
@@ -7710,7 +8210,10 @@
         <v>707</v>
       </c>
     </row>
-    <row r="274" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>273</v>
+      </c>
       <c r="B274" t="s">
         <v>696</v>
       </c>
@@ -7727,7 +8230,10 @@
         <v>709</v>
       </c>
     </row>
-    <row r="275" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>274</v>
+      </c>
       <c r="B275" t="s">
         <v>696</v>
       </c>
@@ -7744,7 +8250,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="276" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>275</v>
+      </c>
       <c r="B276" t="s">
         <v>625</v>
       </c>
@@ -7761,7 +8270,10 @@
         <v>714</v>
       </c>
     </row>
-    <row r="277" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>276</v>
+      </c>
       <c r="B277" t="s">
         <v>715</v>
       </c>
@@ -7778,7 +8290,10 @@
         <v>717</v>
       </c>
     </row>
-    <row r="278" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>277</v>
+      </c>
       <c r="B278" t="s">
         <v>720</v>
       </c>
@@ -7795,7 +8310,10 @@
         <v>719</v>
       </c>
     </row>
-    <row r="279" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>278</v>
+      </c>
       <c r="B279" t="s">
         <v>548</v>
       </c>
@@ -7812,7 +8330,10 @@
         <v>723</v>
       </c>
     </row>
-    <row r="280" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>279</v>
+      </c>
       <c r="B280" t="s">
         <v>251</v>
       </c>
@@ -7829,61 +8350,26 @@
         <v>724</v>
       </c>
     </row>
-    <row r="281" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="282" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="283" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="284" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="285" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="286" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="287" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="288" spans="2:6" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="289" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="290" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="291" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="292" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="293" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="294" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="295" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="296" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="297" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="298" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="299" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="300" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="301" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="302" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="303" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="304" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="305" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="306" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="307" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="308" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="309" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="310" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="311" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="312" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="313" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="314" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="315" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="316" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="317" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="318" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="319" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="320" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="321" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="322" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="323" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="324" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="325" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="326" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="327" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="328" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="329" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="330" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="331" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="332" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="333" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="334" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="335" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>726</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281" t="s">
+        <v>131</v>
+      </c>
+      <c r="E281" t="s">
+        <v>727</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{02761047-99F3-421A-BA67-554FF763D70E}"/>
@@ -8161,11 +8647,12 @@
     <hyperlink ref="F278" r:id="rId273" xr:uid="{B3BEAC81-90BF-42EC-99EB-2EFA3DF0832C}"/>
     <hyperlink ref="F279" r:id="rId274" xr:uid="{5B987029-66CC-4D09-83CE-FB98E8D38C22}"/>
     <hyperlink ref="F280" r:id="rId275" xr:uid="{5B19E107-4354-48AF-940B-5361100EB941}"/>
+    <hyperlink ref="F281" r:id="rId276" xr:uid="{52FC089E-1A61-4FCC-9E5D-8E711DD406FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId276"/>
+  <pageSetup orientation="portrait" r:id="rId277"/>
   <tableParts count="1">
-    <tablePart r:id="rId277"/>
+    <tablePart r:id="rId278"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -8176,17 +8663,17 @@
           </x14:formula1>
           <xm:sqref>C2:C335</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8EBEEB8-B884-4C00-9B51-F5E336240EDE}">
-          <x14:formula1>
-            <xm:f>Values!$C$4:$C$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B335</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E9F62F5C-E13A-4017-8F5B-D791B22B6DC3}">
           <x14:formula1>
             <xm:f>Values!$E$4:$E$84</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D335</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D8EBEEB8-B884-4C00-9B51-F5E336240EDE}">
+          <x14:formula1>
+            <xm:f>Values!$C$4:$C$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B335</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8869,8 +9356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A6014D-2E27-4F54-8034-C9E495B040EE}">
   <dimension ref="C3:G84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9313,22 +9800,25 @@
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38" s="5" t="s">
-        <v>315</v>
+      <c r="C38" t="s">
+        <v>726</v>
       </c>
       <c r="E38" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
-        <v>50</v>
+      <c r="C39" s="5" t="s">
+        <v>315</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
       <c r="E40" t="s">
         <v>70</v>
       </c>
